--- a/src/attributions/attributions_saliency_traj_37.xlsx
+++ b/src/attributions/attributions_saliency_traj_37.xlsx
@@ -2142,2278 +2142,2278 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6.62895581626799e-06</v>
+        <v>2.908976603066549e-05</v>
       </c>
       <c r="B4" t="n">
-        <v>4.761180025525391e-05</v>
+        <v>0.0003491916577331722</v>
       </c>
       <c r="C4" t="n">
-        <v>1.366010383208049e-05</v>
+        <v>0.0001013090804917738</v>
       </c>
       <c r="D4" t="n">
-        <v>5.957179746474139e-05</v>
+        <v>6.69736837153323e-05</v>
       </c>
       <c r="E4" t="n">
-        <v>6.869331627967767e-07</v>
+        <v>3.365323937032372e-05</v>
       </c>
       <c r="F4" t="n">
-        <v>1.975975828827359e-05</v>
+        <v>0.0004901305655948818</v>
       </c>
       <c r="G4" t="n">
-        <v>7.808842383383308e-06</v>
+        <v>0.0001201918348670006</v>
       </c>
       <c r="H4" t="n">
-        <v>2.893494638556149e-05</v>
+        <v>0.000144069388625212</v>
       </c>
       <c r="I4" t="n">
-        <v>4.894431640423136e-06</v>
+        <v>0.0001199688922497444</v>
       </c>
       <c r="J4" t="n">
-        <v>4.105407242604997e-06</v>
+        <v>0.0001084623072529212</v>
       </c>
       <c r="K4" t="n">
-        <v>4.29052124673035e-05</v>
+        <v>0.0001465761160943657</v>
       </c>
       <c r="L4" t="n">
-        <v>1.968395008589141e-05</v>
+        <v>0.0001313009997829795</v>
       </c>
       <c r="M4" t="n">
-        <v>2.696081537578721e-05</v>
+        <v>6.479208241216838e-05</v>
       </c>
       <c r="N4" t="n">
-        <v>7.794055818521883e-06</v>
+        <v>3.124131035292521e-05</v>
       </c>
       <c r="O4" t="n">
-        <v>3.967047632613685e-06</v>
+        <v>0.0002119622513419017</v>
       </c>
       <c r="P4" t="n">
-        <v>6.304497219389305e-06</v>
+        <v>1.842345955083147e-05</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.749609120655805e-05</v>
+        <v>8.565962343709543e-05</v>
       </c>
       <c r="R4" t="n">
-        <v>1.103723570849979e-05</v>
+        <v>9.976467481465079e-06</v>
       </c>
       <c r="S4" t="n">
-        <v>2.241533366031945e-06</v>
+        <v>6.627646143897437e-06</v>
       </c>
       <c r="T4" t="n">
-        <v>1.062209776137024e-06</v>
+        <v>4.491060462896712e-05</v>
       </c>
       <c r="U4" t="n">
-        <v>6.200016287039034e-07</v>
+        <v>2.861712346202694e-05</v>
       </c>
       <c r="V4" t="n">
-        <v>1.017340218822937e-05</v>
+        <v>4.553555845632218e-05</v>
       </c>
       <c r="W4" t="n">
-        <v>2.543491973483469e-05</v>
+        <v>7.85911688581109e-05</v>
       </c>
       <c r="X4" t="n">
-        <v>4.103113951714477e-06</v>
+        <v>5.627179780276492e-05</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.196250650536967e-06</v>
+        <v>2.604303335829172e-05</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.142640394391492e-05</v>
+        <v>1.025075016514165e-05</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.977582996914862e-06</v>
+        <v>7.353800174314529e-05</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.220555441250326e-05</v>
+        <v>0.0001326860801782459</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.348757177765947e-05</v>
+        <v>4.351837924332358e-05</v>
       </c>
       <c r="AD4" t="n">
-        <v>2.751844931481173e-06</v>
+        <v>0.0001156930593424477</v>
       </c>
       <c r="AE4" t="n">
-        <v>7.220263341878308e-06</v>
+        <v>0.0001307895145146176</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.448492639610777e-05</v>
+        <v>9.878235141513869e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>7.779172847222071e-06</v>
+        <v>5.737251194659621e-05</v>
       </c>
       <c r="AH4" t="n">
-        <v>1.037278707372025e-06</v>
+        <v>0.0001337149587925524</v>
       </c>
       <c r="AI4" t="n">
-        <v>2.110065679516993e-06</v>
+        <v>6.740400567650795e-05</v>
       </c>
       <c r="AJ4" t="n">
-        <v>4.40126041212352e-06</v>
+        <v>5.245145439403132e-05</v>
       </c>
       <c r="AK4" t="n">
-        <v>1.719969259283971e-05</v>
+        <v>4.588262163451873e-05</v>
       </c>
       <c r="AL4" t="n">
-        <v>7.613546131324256e-06</v>
+        <v>1.403517671860754e-06</v>
       </c>
       <c r="AM4" t="n">
-        <v>4.35044876212487e-06</v>
+        <v>4.24145910074003e-05</v>
       </c>
       <c r="AN4" t="n">
-        <v>7.609765816596337e-06</v>
+        <v>5.404083276516758e-05</v>
       </c>
       <c r="AO4" t="n">
-        <v>5.577805040957173e-06</v>
+        <v>3.341287083458155e-05</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.191830779134762e-05</v>
+        <v>4.811127655557357e-05</v>
       </c>
       <c r="AQ4" t="n">
-        <v>3.952556198782986e-06</v>
+        <v>4.52510648756288e-05</v>
       </c>
       <c r="AR4" t="n">
-        <v>8.412626812059898e-06</v>
+        <v>4.486551551963203e-05</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.892597310870769e-06</v>
+        <v>2.9297993023647e-05</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.974184644699562e-05</v>
+        <v>2.67402247118298e-05</v>
       </c>
       <c r="AU4" t="n">
-        <v>4.255628300597891e-05</v>
+        <v>0.0001004456207738258</v>
       </c>
       <c r="AV4" t="n">
-        <v>2.445972313580569e-06</v>
+        <v>0.0001228136825375259</v>
       </c>
       <c r="AW4" t="n">
-        <v>1.670400888542645e-05</v>
+        <v>0.0001543688558740541</v>
       </c>
       <c r="AX4" t="n">
-        <v>1.069388054020237e-05</v>
+        <v>8.713499846635386e-05</v>
       </c>
       <c r="AY4" t="n">
-        <v>1.402699240315997e-06</v>
+        <v>9.562000195728615e-05</v>
       </c>
       <c r="AZ4" t="n">
-        <v>7.928506420284975e-07</v>
+        <v>0.0001880231429822743</v>
       </c>
       <c r="BA4" t="n">
-        <v>3.211481498510693e-06</v>
+        <v>0.0001926800614455715</v>
       </c>
       <c r="BB4" t="n">
-        <v>6.560084329976235e-06</v>
+        <v>0.0001300426083616912</v>
       </c>
       <c r="BC4" t="n">
-        <v>2.690974554298009e-07</v>
+        <v>0.0001275745453312993</v>
       </c>
       <c r="BD4" t="n">
-        <v>5.698601853509899e-06</v>
+        <v>7.594800990773365e-05</v>
       </c>
       <c r="BE4" t="n">
-        <v>3.949855909013422e-07</v>
+        <v>5.397426866693422e-05</v>
       </c>
       <c r="BF4" t="n">
-        <v>2.260653127450496e-05</v>
+        <v>1.706467810436152e-05</v>
       </c>
       <c r="BG4" t="n">
-        <v>6.597813353437232e-07</v>
+        <v>1.259464352187933e-05</v>
       </c>
       <c r="BH4" t="n">
-        <v>2.829911136359442e-05</v>
+        <v>0.0002441676333546638</v>
       </c>
       <c r="BI4" t="n">
-        <v>8.917853051571001e-07</v>
+        <v>0.0001203996507683769</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1.392616240991629e-06</v>
+        <v>7.518228812841699e-05</v>
       </c>
       <c r="BK4" t="n">
-        <v>9.223972483596299e-06</v>
+        <v>1.861381679191254e-05</v>
       </c>
       <c r="BL4" t="n">
-        <v>6.043226676410995e-06</v>
+        <v>2.458743256283924e-05</v>
       </c>
       <c r="BM4" t="n">
-        <v>3.099378227489069e-05</v>
+        <v>1.854865331551991e-05</v>
       </c>
       <c r="BN4" t="n">
-        <v>2.093675448122667e-06</v>
+        <v>4.149806773057207e-05</v>
       </c>
       <c r="BO4" t="n">
-        <v>1.231242003996158e-05</v>
+        <v>8.309126133099198e-05</v>
       </c>
       <c r="BP4" t="n">
-        <v>1.018164675770095e-05</v>
+        <v>7.944252138258889e-05</v>
       </c>
       <c r="BQ4" t="n">
-        <v>3.234645873817499e-06</v>
+        <v>3.136049781460315e-05</v>
       </c>
       <c r="BR4" t="n">
-        <v>7.387205187114887e-06</v>
+        <v>3.853228918160312e-05</v>
       </c>
       <c r="BS4" t="n">
-        <v>1.154904794020695e-07</v>
+        <v>8.638452709419653e-05</v>
       </c>
       <c r="BT4" t="n">
-        <v>4.102698767383117e-06</v>
+        <v>0.000151616201037541</v>
       </c>
       <c r="BU4" t="n">
-        <v>2.734109693847131e-05</v>
+        <v>7.909658597782254e-05</v>
       </c>
       <c r="BV4" t="n">
-        <v>9.61665932663891e-07</v>
+        <v>6.614177254959941e-05</v>
       </c>
       <c r="BW4" t="n">
-        <v>8.134342351695523e-06</v>
+        <v>7.613205525558442e-05</v>
       </c>
       <c r="BX4" t="n">
-        <v>2.877465522033162e-05</v>
+        <v>4.817484659724869e-05</v>
       </c>
       <c r="BY4" t="n">
-        <v>1.896028516057413e-05</v>
+        <v>7.249678310472518e-05</v>
       </c>
       <c r="BZ4" t="n">
-        <v>6.114725692896172e-06</v>
+        <v>4.869877375313081e-05</v>
       </c>
       <c r="CA4" t="n">
-        <v>4.451501354196807e-07</v>
+        <v>8.549280755687505e-05</v>
       </c>
       <c r="CB4" t="n">
-        <v>7.262775397975929e-06</v>
+        <v>7.502026710426435e-05</v>
       </c>
       <c r="CC4" t="n">
-        <v>9.411067367182113e-06</v>
+        <v>3.053892214666121e-05</v>
       </c>
       <c r="CD4" t="n">
-        <v>1.764174521667883e-05</v>
+        <v>1.011709355225321e-05</v>
       </c>
       <c r="CE4" t="n">
-        <v>8.125473868858535e-06</v>
+        <v>1.251605863217264e-05</v>
       </c>
       <c r="CF4" t="n">
-        <v>3.855097929772455e-08</v>
+        <v>2.301979293406475e-05</v>
       </c>
       <c r="CG4" t="n">
-        <v>8.913390047382563e-06</v>
+        <v>4.32347042078618e-06</v>
       </c>
       <c r="CH4" t="n">
-        <v>6.599744210689096e-06</v>
+        <v>1.430718566552969e-05</v>
       </c>
       <c r="CI4" t="n">
-        <v>6.422061687771929e-06</v>
+        <v>8.512032945873216e-05</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1.897275296869338e-06</v>
+        <v>1.068427627615165e-05</v>
       </c>
       <c r="CK4" t="n">
-        <v>1.150445132225286e-05</v>
+        <v>7.973225365276448e-06</v>
       </c>
       <c r="CL4" t="n">
-        <v>1.354203845949087e-06</v>
+        <v>3.453826138866134e-05</v>
       </c>
       <c r="CM4" t="n">
-        <v>6.841157755843597e-06</v>
+        <v>8.669547241879627e-05</v>
       </c>
       <c r="CN4" t="n">
-        <v>7.18295996193774e-06</v>
+        <v>0.000161583608132787</v>
       </c>
       <c r="CO4" t="n">
-        <v>1.095179959520465e-05</v>
+        <v>6.641724030487239e-05</v>
       </c>
       <c r="CP4" t="n">
-        <v>1.3879306607123e-05</v>
+        <v>9.637501352699474e-05</v>
       </c>
       <c r="CQ4" t="n">
-        <v>7.759351319691632e-06</v>
+        <v>9.540319297229871e-05</v>
       </c>
       <c r="CR4" t="n">
-        <v>2.941218008345459e-05</v>
+        <v>1.320374485658249e-05</v>
       </c>
       <c r="CS4" t="n">
-        <v>1.652770697546657e-05</v>
+        <v>5.192966636968777e-05</v>
       </c>
       <c r="CT4" t="n">
-        <v>1.801218968466856e-05</v>
+        <v>7.774781988700852e-05</v>
       </c>
       <c r="CU4" t="n">
-        <v>3.372969956672023e-07</v>
+        <v>0.0001044791715685278</v>
       </c>
       <c r="CV4" t="n">
-        <v>1.589353814779315e-05</v>
+        <v>1.082924973161425e-05</v>
       </c>
       <c r="CW4" t="n">
-        <v>8.015002094907686e-06</v>
+        <v>3.754527642740868e-05</v>
       </c>
       <c r="CX4" t="n">
-        <v>1.240263372892514e-06</v>
+        <v>1.534168404759839e-05</v>
       </c>
       <c r="CY4" t="n">
-        <v>9.964650416804943e-06</v>
+        <v>2.216494067397434e-06</v>
       </c>
       <c r="CZ4" t="n">
-        <v>5.758905899710953e-06</v>
+        <v>1.542842619528528e-05</v>
       </c>
       <c r="DA4" t="n">
-        <v>7.471315257134847e-06</v>
+        <v>6.846713949926198e-05</v>
       </c>
       <c r="DB4" t="n">
-        <v>1.15311320314504e-06</v>
+        <v>3.144329821225256e-05</v>
       </c>
       <c r="DC4" t="n">
-        <v>9.060686352313496e-06</v>
+        <v>3.232270682929084e-05</v>
       </c>
       <c r="DD4" t="n">
-        <v>1.459735699427256e-06</v>
+        <v>3.663218012661673e-05</v>
       </c>
       <c r="DE4" t="n">
-        <v>3.944022682844661e-05</v>
+        <v>0.000154146968270652</v>
       </c>
       <c r="DF4" t="n">
-        <v>4.839482789975591e-05</v>
+        <v>4.552171958494e-05</v>
       </c>
       <c r="DG4" t="n">
-        <v>2.018615668930579e-05</v>
+        <v>8.559305570088327e-05</v>
       </c>
       <c r="DH4" t="n">
-        <v>2.787440280371811e-05</v>
+        <v>2.306666283402592e-05</v>
       </c>
       <c r="DI4" t="n">
-        <v>1.27319008242921e-05</v>
+        <v>3.408810152905062e-05</v>
       </c>
       <c r="DJ4" t="n">
-        <v>2.675373616511934e-05</v>
+        <v>0.0001867793325800449</v>
       </c>
       <c r="DK4" t="n">
-        <v>2.593450699350797e-05</v>
+        <v>1.90856426343089e-05</v>
       </c>
       <c r="DL4" t="n">
-        <v>4.625722795026377e-06</v>
+        <v>3.840506906271912e-05</v>
       </c>
       <c r="DM4" t="n">
-        <v>3.219231075490825e-06</v>
+        <v>0.0002207632351201028</v>
       </c>
       <c r="DN4" t="n">
-        <v>1.010978303384036e-05</v>
+        <v>8.532232459401712e-05</v>
       </c>
       <c r="DO4" t="n">
-        <v>1.250216155312955e-05</v>
+        <v>2.281688830407802e-05</v>
       </c>
       <c r="DP4" t="n">
-        <v>4.655451448343229e-06</v>
+        <v>3.110471516265534e-05</v>
       </c>
       <c r="DQ4" t="n">
-        <v>7.356842161243549e-06</v>
+        <v>3.284257036284544e-05</v>
       </c>
       <c r="DR4" t="n">
-        <v>2.525395393604413e-05</v>
+        <v>1.779485319275409e-05</v>
       </c>
       <c r="DS4" t="n">
-        <v>1.831941858654318e-06</v>
+        <v>3.053403997910209e-05</v>
       </c>
       <c r="DT4" t="n">
-        <v>5.208003699408437e-07</v>
+        <v>3.800812919507734e-05</v>
       </c>
       <c r="DU4" t="n">
-        <v>2.18818531720899e-05</v>
+        <v>2.344551649002824e-05</v>
       </c>
       <c r="DV4" t="n">
-        <v>1.115841655519034e-06</v>
+        <v>9.717634384287521e-05</v>
       </c>
       <c r="DW4" t="n">
-        <v>8.236105713876896e-06</v>
+        <v>3.226910484954715e-05</v>
       </c>
       <c r="DX4" t="n">
-        <v>1.207761033583665e-05</v>
+        <v>1.282025914406404e-05</v>
       </c>
       <c r="DY4" t="n">
-        <v>5.332285581971519e-06</v>
+        <v>3.973691127612256e-05</v>
       </c>
       <c r="DZ4" t="n">
-        <v>7.280043973878492e-06</v>
+        <v>9.201250213664025e-05</v>
       </c>
       <c r="EA4" t="n">
-        <v>4.637048277800204e-06</v>
+        <v>4.28333441959694e-05</v>
       </c>
       <c r="EB4" t="n">
-        <v>1.771927964000497e-05</v>
+        <v>9.032650268636644e-06</v>
       </c>
       <c r="EC4" t="n">
-        <v>1.505325599282514e-06</v>
+        <v>3.269487024226692e-06</v>
       </c>
       <c r="ED4" t="n">
-        <v>1.464994238631334e-05</v>
+        <v>4.168580198893324e-05</v>
       </c>
       <c r="EE4" t="n">
-        <v>5.129649025548133e-07</v>
+        <v>1.991860699490644e-05</v>
       </c>
       <c r="EF4" t="n">
-        <v>1.299198447668459e-05</v>
+        <v>3.552769339876249e-05</v>
       </c>
       <c r="EG4" t="n">
-        <v>9.259919352189172e-06</v>
+        <v>2.817072891048156e-05</v>
       </c>
       <c r="EH4" t="n">
-        <v>4.30829140896094e-06</v>
+        <v>5.73346005694475e-06</v>
       </c>
       <c r="EI4" t="n">
-        <v>8.645954039820936e-06</v>
+        <v>5.974591476842761e-05</v>
       </c>
       <c r="EJ4" t="n">
-        <v>2.863508052541874e-05</v>
+        <v>3.669492434710264e-05</v>
       </c>
       <c r="EK4" t="n">
-        <v>3.4091401630576e-06</v>
+        <v>1.387204247293994e-05</v>
       </c>
       <c r="EL4" t="n">
-        <v>4.732413344754605e-06</v>
+        <v>5.182203676667996e-05</v>
       </c>
       <c r="EM4" t="n">
-        <v>6.388135261659045e-06</v>
+        <v>5.24457027495373e-06</v>
       </c>
       <c r="EN4" t="n">
-        <v>3.797667886829004e-06</v>
+        <v>2.986173740282538e-06</v>
       </c>
       <c r="EO4" t="n">
-        <v>1.553748370497487e-05</v>
+        <v>6.402103463187814e-05</v>
       </c>
       <c r="EP4" t="n">
-        <v>9.227564987668302e-06</v>
+        <v>1.495502147008665e-05</v>
       </c>
       <c r="EQ4" t="n">
-        <v>2.583849891379941e-06</v>
+        <v>2.257922642456833e-05</v>
       </c>
       <c r="ER4" t="n">
-        <v>7.152270882215817e-06</v>
+        <v>3.349659527884796e-05</v>
       </c>
       <c r="ES4" t="n">
-        <v>1.4611548067478e-05</v>
+        <v>6.189589475980029e-05</v>
       </c>
       <c r="ET4" t="n">
-        <v>1.196674566017464e-05</v>
+        <v>0.0001321336749242619</v>
       </c>
       <c r="EU4" t="n">
-        <v>2.576881570348633e-06</v>
+        <v>6.213262531673536e-05</v>
       </c>
       <c r="EV4" t="n">
-        <v>1.858094719864312e-06</v>
+        <v>3.931924220523797e-05</v>
       </c>
       <c r="EW4" t="n">
-        <v>3.787418108913698e-06</v>
+        <v>0.0001456339523429051</v>
       </c>
       <c r="EX4" t="n">
-        <v>1.348639671050478e-05</v>
+        <v>1.054083440976683e-05</v>
       </c>
       <c r="EY4" t="n">
-        <v>8.635273843538016e-06</v>
+        <v>4.562833782983944e-05</v>
       </c>
       <c r="EZ4" t="n">
-        <v>2.210057630236406e-07</v>
+        <v>6.242616109375376e-06</v>
       </c>
       <c r="FA4" t="n">
-        <v>7.39499910196173e-06</v>
+        <v>9.494337064097635e-06</v>
       </c>
       <c r="FB4" t="n">
-        <v>8.258092748292256e-06</v>
+        <v>1.660194720898289e-05</v>
       </c>
       <c r="FC4" t="n">
-        <v>8.235581844928674e-06</v>
+        <v>5.615775808109902e-05</v>
       </c>
       <c r="FD4" t="n">
-        <v>2.48434480454307e-06</v>
+        <v>5.855286872247234e-06</v>
       </c>
       <c r="FE4" t="n">
-        <v>8.243252523243427e-06</v>
+        <v>8.7736189016141e-06</v>
       </c>
       <c r="FF4" t="n">
-        <v>2.878417490137508e-06</v>
+        <v>5.189625517232344e-05</v>
       </c>
       <c r="FG4" t="n">
-        <v>2.968774424516596e-06</v>
+        <v>7.054110756143928e-05</v>
       </c>
       <c r="FH4" t="n">
-        <v>1.674352915870259e-06</v>
+        <v>3.062514952034689e-05</v>
       </c>
       <c r="FI4" t="n">
-        <v>3.270613888162188e-06</v>
+        <v>0.0001222975988639519</v>
       </c>
       <c r="FJ4" t="n">
-        <v>3.029783329111524e-06</v>
+        <v>5.558414341066964e-05</v>
       </c>
       <c r="FK4" t="n">
-        <v>9.633909940021113e-06</v>
+        <v>9.38037846935913e-05</v>
       </c>
       <c r="FL4" t="n">
-        <v>2.530673373257741e-05</v>
+        <v>8.661917672725394e-05</v>
       </c>
       <c r="FM4" t="n">
-        <v>3.519266783769126e-06</v>
+        <v>3.755568468477577e-05</v>
       </c>
       <c r="FN4" t="n">
-        <v>1.287055329157738e-05</v>
+        <v>7.871459820307791e-05</v>
       </c>
       <c r="FO4" t="n">
-        <v>5.166206392459571e-06</v>
+        <v>5.573282760451548e-05</v>
       </c>
       <c r="FP4" t="n">
-        <v>1.503754219811526e-06</v>
+        <v>5.448588490253314e-05</v>
       </c>
       <c r="FQ4" t="n">
-        <v>2.585734819149366e-06</v>
+        <v>2.352593583054841e-06</v>
       </c>
       <c r="FR4" t="n">
-        <v>1.539636650704779e-05</v>
+        <v>0.0001228595210704952</v>
       </c>
       <c r="FS4" t="n">
-        <v>1.061091643350665e-05</v>
+        <v>8.613574027549475e-05</v>
       </c>
       <c r="FT4" t="n">
-        <v>9.371703526994679e-06</v>
+        <v>0.0002064662403427064</v>
       </c>
       <c r="FU4" t="n">
-        <v>9.174667866318487e-06</v>
+        <v>0.0001968209544429556</v>
       </c>
       <c r="FV4" t="n">
-        <v>4.123342478123959e-06</v>
+        <v>2.698075695661828e-05</v>
       </c>
       <c r="FW4" t="n">
-        <v>2.38067423197208e-06</v>
+        <v>4.255631574778818e-05</v>
       </c>
       <c r="FX4" t="n">
-        <v>3.10285167870461e-06</v>
+        <v>8.354317105840892e-05</v>
       </c>
       <c r="FY4" t="n">
-        <v>1.858610085037071e-05</v>
+        <v>7.335076224990189e-05</v>
       </c>
       <c r="FZ4" t="n">
-        <v>1.449601313652238e-06</v>
+        <v>6.760510586900637e-05</v>
       </c>
       <c r="GA4" t="n">
-        <v>8.078308383119293e-06</v>
+        <v>2.100230994983576e-05</v>
       </c>
       <c r="GB4" t="n">
-        <v>1.728609277051874e-05</v>
+        <v>0.000105025312223006</v>
       </c>
       <c r="GC4" t="n">
-        <v>2.210019556514453e-05</v>
+        <v>7.879703480284661e-05</v>
       </c>
       <c r="GD4" t="n">
-        <v>2.890576752179186e-06</v>
+        <v>7.699559500906616e-05</v>
       </c>
       <c r="GE4" t="n">
-        <v>4.138550593779655e-06</v>
+        <v>0.0002069299662252888</v>
       </c>
       <c r="GF4" t="n">
-        <v>8.114374395518098e-06</v>
+        <v>7.453873695340008e-05</v>
       </c>
       <c r="GG4" t="n">
-        <v>2.576243332441663e-06</v>
+        <v>0.0001676081883488223</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.00029501481913e-06</v>
+        <v>0.01307631377130747</v>
       </c>
       <c r="B5" t="n">
-        <v>8.905620779842138e-05</v>
+        <v>0.03085260838270187</v>
       </c>
       <c r="C5" t="n">
-        <v>6.264819239731878e-05</v>
+        <v>0.001150261843577027</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0001966921117855236</v>
+        <v>0.01863517612218857</v>
       </c>
       <c r="E5" t="n">
-        <v>3.981393820140511e-05</v>
+        <v>0.004063652362674475</v>
       </c>
       <c r="F5" t="n">
-        <v>3.548172389855608e-05</v>
+        <v>0.01584704592823982</v>
       </c>
       <c r="G5" t="n">
-        <v>6.889997166581452e-05</v>
+        <v>0.0005593793466687202</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0001375615829601884</v>
+        <v>0.003683926071971655</v>
       </c>
       <c r="I5" t="n">
-        <v>6.98719741194509e-05</v>
+        <v>0.01552286650985479</v>
       </c>
       <c r="J5" t="n">
-        <v>7.300269498955458e-05</v>
+        <v>0.01165396254509687</v>
       </c>
       <c r="K5" t="n">
-        <v>3.777657911996357e-05</v>
+        <v>0.02925932221114635</v>
       </c>
       <c r="L5" t="n">
-        <v>2.627299181767739e-05</v>
+        <v>0.001145642250776291</v>
       </c>
       <c r="M5" t="n">
-        <v>5.34438768227119e-05</v>
+        <v>0.01695723831653595</v>
       </c>
       <c r="N5" t="n">
-        <v>7.889595144661143e-05</v>
+        <v>0.003633263055235147</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0001731853408273309</v>
+        <v>0.01055048499256372</v>
       </c>
       <c r="P5" t="n">
-        <v>7.886651292210445e-05</v>
+        <v>0.002347338479012251</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0001480871724197641</v>
+        <v>0.007422920782119036</v>
       </c>
       <c r="R5" t="n">
-        <v>9.050845983438194e-05</v>
+        <v>0.01397498324513435</v>
       </c>
       <c r="S5" t="n">
-        <v>4.265136522008106e-05</v>
+        <v>0.0006872409721836448</v>
       </c>
       <c r="T5" t="n">
-        <v>3.143209687550552e-05</v>
+        <v>0.0007832577684894204</v>
       </c>
       <c r="U5" t="n">
-        <v>4.565533163258806e-05</v>
+        <v>0.003123981412500143</v>
       </c>
       <c r="V5" t="n">
-        <v>9.253709868062288e-05</v>
+        <v>0.0003673734609037638</v>
       </c>
       <c r="W5" t="n">
-        <v>0.0001416281738784164</v>
+        <v>0.01226140093058348</v>
       </c>
       <c r="X5" t="n">
-        <v>9.071019121620338e-06</v>
+        <v>0.002871991135179996</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.894690285553224e-05</v>
+        <v>0.00600759033113718</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.404642873443663e-05</v>
+        <v>0.00745152123272419</v>
       </c>
       <c r="AA5" t="n">
-        <v>2.916720859502675e-06</v>
+        <v>0.00329485023394227</v>
       </c>
       <c r="AB5" t="n">
-        <v>4.692157381214201e-05</v>
+        <v>0.002914820564910769</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.850845915731043e-06</v>
+        <v>0.002379724755883217</v>
       </c>
       <c r="AD5" t="n">
-        <v>4.384665953693911e-05</v>
+        <v>0.0007023217622190714</v>
       </c>
       <c r="AE5" t="n">
-        <v>3.295838905614801e-05</v>
+        <v>0.0004728944040834904</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.310963701456785e-05</v>
+        <v>0.003622473450377584</v>
       </c>
       <c r="AG5" t="n">
-        <v>1.973663711396512e-05</v>
+        <v>0.002303958404809237</v>
       </c>
       <c r="AH5" t="n">
-        <v>7.435542102030013e-06</v>
+        <v>0.004720366559922695</v>
       </c>
       <c r="AI5" t="n">
-        <v>1.975864142877981e-05</v>
+        <v>0.001108588185161352</v>
       </c>
       <c r="AJ5" t="n">
-        <v>5.398503708420321e-05</v>
+        <v>0.001573588117025793</v>
       </c>
       <c r="AK5" t="n">
-        <v>2.361735459999181e-05</v>
+        <v>0.000404873862862587</v>
       </c>
       <c r="AL5" t="n">
-        <v>3.628552440204658e-05</v>
+        <v>0.005031499080359936</v>
       </c>
       <c r="AM5" t="n">
-        <v>4.046814501634799e-05</v>
+        <v>0.005139447748661041</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.234794687363319e-05</v>
+        <v>0.0003281226963736117</v>
       </c>
       <c r="AO5" t="n">
-        <v>7.89859113865532e-05</v>
+        <v>0.000682845595292747</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.083255367324455e-06</v>
+        <v>0.004268341697752476</v>
       </c>
       <c r="AQ5" t="n">
-        <v>7.076282599882688e-06</v>
+        <v>0.004132888279855251</v>
       </c>
       <c r="AR5" t="n">
-        <v>1.870277992566116e-05</v>
+        <v>0.002785602351650596</v>
       </c>
       <c r="AS5" t="n">
-        <v>9.113176020036917e-06</v>
+        <v>0.00516365235671401</v>
       </c>
       <c r="AT5" t="n">
-        <v>4.687711771111935e-05</v>
+        <v>0.001701905624940991</v>
       </c>
       <c r="AU5" t="n">
-        <v>5.008852167520672e-05</v>
+        <v>0.01159984245896339</v>
       </c>
       <c r="AV5" t="n">
-        <v>9.746446448843926e-05</v>
+        <v>0.005790079478174448</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.0001741618616506457</v>
+        <v>0.0149304186925292</v>
       </c>
       <c r="AX5" t="n">
-        <v>8.560233254684135e-05</v>
+        <v>0.01094580627977848</v>
       </c>
       <c r="AY5" t="n">
-        <v>1.700271968729794e-05</v>
+        <v>0.01499676704406738</v>
       </c>
       <c r="AZ5" t="n">
-        <v>2.164681427530013e-05</v>
+        <v>0.01452191267162561</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.0001098400098271668</v>
+        <v>0.01432428043335676</v>
       </c>
       <c r="BB5" t="n">
-        <v>2.371311893512029e-06</v>
+        <v>0.005794031079858541</v>
       </c>
       <c r="BC5" t="n">
-        <v>6.008353739161976e-05</v>
+        <v>0.004565932787954807</v>
       </c>
       <c r="BD5" t="n">
-        <v>2.412190769973677e-05</v>
+        <v>0.004760162439197302</v>
       </c>
       <c r="BE5" t="n">
-        <v>6.619682244490832e-05</v>
+        <v>0.003318789880722761</v>
       </c>
       <c r="BF5" t="n">
-        <v>4.227858880767599e-05</v>
+        <v>0.008187221363186836</v>
       </c>
       <c r="BG5" t="n">
-        <v>9.02307583601214e-05</v>
+        <v>0.004680365324020386</v>
       </c>
       <c r="BH5" t="n">
-        <v>6.746815779479221e-05</v>
+        <v>0.002098740777000785</v>
       </c>
       <c r="BI5" t="n">
-        <v>5.288673855829984e-05</v>
+        <v>0.01069463603198528</v>
       </c>
       <c r="BJ5" t="n">
-        <v>5.091145794722252e-05</v>
+        <v>0.001869703875854611</v>
       </c>
       <c r="BK5" t="n">
-        <v>3.413533340790309e-05</v>
+        <v>0.01553323678672314</v>
       </c>
       <c r="BL5" t="n">
-        <v>6.556040898431093e-05</v>
+        <v>0.004595935344696045</v>
       </c>
       <c r="BM5" t="n">
-        <v>1.901632640510798e-05</v>
+        <v>0.009498954750597477</v>
       </c>
       <c r="BN5" t="n">
-        <v>2.616156962176319e-07</v>
+        <v>8.341344073414803e-05</v>
       </c>
       <c r="BO5" t="n">
-        <v>2.61865025095176e-05</v>
+        <v>0.003022716380655766</v>
       </c>
       <c r="BP5" t="n">
-        <v>4.609849565895274e-05</v>
+        <v>0.005778532475233078</v>
       </c>
       <c r="BQ5" t="n">
-        <v>6.02487148171349e-07</v>
+        <v>0.001625596196390688</v>
       </c>
       <c r="BR5" t="n">
-        <v>1.504433475929545e-05</v>
+        <v>0.003209307324141264</v>
       </c>
       <c r="BS5" t="n">
-        <v>3.082292460021563e-05</v>
+        <v>0.004531925078481436</v>
       </c>
       <c r="BT5" t="n">
-        <v>1.730519579723477e-05</v>
+        <v>0.0002780569193419069</v>
       </c>
       <c r="BU5" t="n">
-        <v>2.670461981324479e-05</v>
+        <v>0.0002171439118683338</v>
       </c>
       <c r="BV5" t="n">
-        <v>4.651564722735202e-06</v>
+        <v>0.01085755694657564</v>
       </c>
       <c r="BW5" t="n">
-        <v>3.848639971693046e-05</v>
+        <v>0.004330605734139681</v>
       </c>
       <c r="BX5" t="n">
-        <v>4.158094816375524e-05</v>
+        <v>0.01085147820413113</v>
       </c>
       <c r="BY5" t="n">
-        <v>7.417998858727515e-05</v>
+        <v>0.005497273989021778</v>
       </c>
       <c r="BZ5" t="n">
-        <v>2.34207200264791e-05</v>
+        <v>0.007344161160290241</v>
       </c>
       <c r="CA5" t="n">
-        <v>2.137746560038067e-05</v>
+        <v>0.008044124580919743</v>
       </c>
       <c r="CB5" t="n">
-        <v>6.526395736727864e-05</v>
+        <v>0.008742514066398144</v>
       </c>
       <c r="CC5" t="n">
-        <v>2.412230060144793e-06</v>
+        <v>0.002768231555819511</v>
       </c>
       <c r="CD5" t="n">
-        <v>4.436173549038358e-05</v>
+        <v>0.001582159427925944</v>
       </c>
       <c r="CE5" t="n">
-        <v>4.515702585194958e-06</v>
+        <v>0.003536216681823134</v>
       </c>
       <c r="CF5" t="n">
-        <v>2.085803134832531e-05</v>
+        <v>0.003887323429808021</v>
       </c>
       <c r="CG5" t="n">
-        <v>4.741001976071857e-05</v>
+        <v>0.004183589946478605</v>
       </c>
       <c r="CH5" t="n">
-        <v>5.603179943136638e-06</v>
+        <v>0.001163058564998209</v>
       </c>
       <c r="CI5" t="n">
-        <v>4.112848728254903e-07</v>
+        <v>0.001535018673166633</v>
       </c>
       <c r="CJ5" t="n">
-        <v>1.8856593669625e-05</v>
+        <v>0.00306805269792676</v>
       </c>
       <c r="CK5" t="n">
-        <v>8.239518137997948e-06</v>
+        <v>0.001809301087632775</v>
       </c>
       <c r="CL5" t="n">
-        <v>1.402811176376417e-05</v>
+        <v>0.002373781288042665</v>
       </c>
       <c r="CM5" t="n">
-        <v>8.100167906377465e-05</v>
+        <v>0.005485385190695524</v>
       </c>
       <c r="CN5" t="n">
-        <v>9.386967576574534e-06</v>
+        <v>0.005299713928252459</v>
       </c>
       <c r="CO5" t="n">
-        <v>1.537114985694643e-05</v>
+        <v>0.00114527135156095</v>
       </c>
       <c r="CP5" t="n">
-        <v>2.803081770252902e-05</v>
+        <v>0.001376975793391466</v>
       </c>
       <c r="CQ5" t="n">
-        <v>1.470351890020538e-05</v>
+        <v>0.008929220959544182</v>
       </c>
       <c r="CR5" t="n">
-        <v>4.876938692177646e-05</v>
+        <v>0.001458434853702784</v>
       </c>
       <c r="CS5" t="n">
-        <v>3.286249921075068e-07</v>
+        <v>0.009945210069417953</v>
       </c>
       <c r="CT5" t="n">
-        <v>3.3574178814888e-05</v>
+        <v>0.006544825155287981</v>
       </c>
       <c r="CU5" t="n">
-        <v>3.94633570977021e-05</v>
+        <v>0.002695344854146242</v>
       </c>
       <c r="CV5" t="n">
-        <v>4.914628516416997e-05</v>
+        <v>0.001635433058254421</v>
       </c>
       <c r="CW5" t="n">
-        <v>8.715960575500503e-07</v>
+        <v>0.00546642579138279</v>
       </c>
       <c r="CX5" t="n">
-        <v>2.199134360125754e-05</v>
+        <v>0.004166902974247932</v>
       </c>
       <c r="CY5" t="n">
-        <v>2.906334520957898e-05</v>
+        <v>0.004190298728644848</v>
       </c>
       <c r="CZ5" t="n">
-        <v>3.988136086263694e-06</v>
+        <v>0.0002987014013342559</v>
       </c>
       <c r="DA5" t="n">
-        <v>3.477152858977206e-06</v>
+        <v>0.002102382015436888</v>
       </c>
       <c r="DB5" t="n">
-        <v>2.188181679230183e-05</v>
+        <v>0.003565746825188398</v>
       </c>
       <c r="DC5" t="n">
-        <v>3.540681518643396e-06</v>
+        <v>0.001240837038494647</v>
       </c>
       <c r="DD5" t="n">
-        <v>5.076321031083353e-06</v>
+        <v>0.001841812743805349</v>
       </c>
       <c r="DE5" t="n">
-        <v>6.619691703235731e-05</v>
+        <v>0.002579874591901898</v>
       </c>
       <c r="DF5" t="n">
-        <v>4.376085416879505e-05</v>
+        <v>0.005128738936036825</v>
       </c>
       <c r="DG5" t="n">
-        <v>1.572102701175027e-05</v>
+        <v>0.002841418376192451</v>
       </c>
       <c r="DH5" t="n">
-        <v>0.0001104598486563191</v>
+        <v>0.009069712832570076</v>
       </c>
       <c r="DI5" t="n">
-        <v>3.971218757214956e-05</v>
+        <v>0.001883870689198375</v>
       </c>
       <c r="DJ5" t="n">
-        <v>3.92105575883761e-05</v>
+        <v>0.002875894075259566</v>
       </c>
       <c r="DK5" t="n">
-        <v>2.005978058150504e-05</v>
+        <v>0.00368836522102356</v>
       </c>
       <c r="DL5" t="n">
-        <v>3.068267687922344e-05</v>
+        <v>0.007783389650285244</v>
       </c>
       <c r="DM5" t="n">
-        <v>4.065564553457079e-06</v>
+        <v>0.0001030284911394119</v>
       </c>
       <c r="DN5" t="n">
-        <v>1.452794276701752e-05</v>
+        <v>0.0006616443279199302</v>
       </c>
       <c r="DO5" t="n">
-        <v>4.671830174629577e-05</v>
+        <v>0.00834028422832489</v>
       </c>
       <c r="DP5" t="n">
-        <v>2.193778345827013e-05</v>
+        <v>0.004021497443318367</v>
       </c>
       <c r="DQ5" t="n">
-        <v>3.724520865944214e-05</v>
+        <v>0.003419488668441772</v>
       </c>
       <c r="DR5" t="n">
-        <v>3.522703991620801e-05</v>
+        <v>0.0002946442691609263</v>
       </c>
       <c r="DS5" t="n">
-        <v>9.296370990341529e-05</v>
+        <v>0.003093284787610173</v>
       </c>
       <c r="DT5" t="n">
-        <v>4.439416443347e-07</v>
+        <v>0.004951938055455685</v>
       </c>
       <c r="DU5" t="n">
-        <v>5.171404700377025e-05</v>
+        <v>0.00355942826718092</v>
       </c>
       <c r="DV5" t="n">
-        <v>4.397116754262242e-06</v>
+        <v>0.004363450687378645</v>
       </c>
       <c r="DW5" t="n">
-        <v>5.599672476819251e-07</v>
+        <v>0.0004844228969886899</v>
       </c>
       <c r="DX5" t="n">
-        <v>3.428302443353459e-05</v>
+        <v>0.001134112826548517</v>
       </c>
       <c r="DY5" t="n">
-        <v>1.590870851941872e-05</v>
+        <v>0.004598652943968773</v>
       </c>
       <c r="DZ5" t="n">
-        <v>1.041251289279899e-05</v>
+        <v>0.003087350632995367</v>
       </c>
       <c r="EA5" t="n">
-        <v>6.843353185104206e-05</v>
+        <v>0.01046539749950171</v>
       </c>
       <c r="EB5" t="n">
-        <v>7.934416498756036e-05</v>
+        <v>0.001520739635452628</v>
       </c>
       <c r="EC5" t="n">
-        <v>1.274352143809665e-06</v>
+        <v>0.001002580975182354</v>
       </c>
       <c r="ED5" t="n">
-        <v>6.483047036454082e-05</v>
+        <v>0.006223687436431646</v>
       </c>
       <c r="EE5" t="n">
-        <v>4.216231172904372e-05</v>
+        <v>0.00147815584205091</v>
       </c>
       <c r="EF5" t="n">
-        <v>3.061060124309734e-05</v>
+        <v>0.0006134208524599671</v>
       </c>
       <c r="EG5" t="n">
-        <v>2.415831841062754e-05</v>
+        <v>4.302116576582193e-05</v>
       </c>
       <c r="EH5" t="n">
-        <v>2.080283593386412e-05</v>
+        <v>0.006378142163157463</v>
       </c>
       <c r="EI5" t="n">
-        <v>9.323403901362326e-06</v>
+        <v>0.0007034232839941978</v>
       </c>
       <c r="EJ5" t="n">
-        <v>2.127001425833441e-05</v>
+        <v>0.00360291893593967</v>
       </c>
       <c r="EK5" t="n">
-        <v>7.622139492013957e-06</v>
+        <v>0.003436516737565398</v>
       </c>
       <c r="EL5" t="n">
-        <v>1.198352038045414e-05</v>
+        <v>0.00197036424651742</v>
       </c>
       <c r="EM5" t="n">
-        <v>3.49010806530714e-05</v>
+        <v>0.001357151661068201</v>
       </c>
       <c r="EN5" t="n">
-        <v>3.800250487984158e-05</v>
+        <v>0.001133662648499012</v>
       </c>
       <c r="EO5" t="n">
-        <v>0.0001044255986926146</v>
+        <v>0.001567813567817211</v>
       </c>
       <c r="EP5" t="n">
-        <v>2.261839290440548e-05</v>
+        <v>0.006042769178748131</v>
       </c>
       <c r="EQ5" t="n">
-        <v>1.106994841393316e-05</v>
+        <v>0.004847347736358643</v>
       </c>
       <c r="ER5" t="n">
-        <v>4.121689562452957e-05</v>
+        <v>0.00676847854629159</v>
       </c>
       <c r="ES5" t="n">
-        <v>5.371204315451905e-05</v>
+        <v>0.006825749296694994</v>
       </c>
       <c r="ET5" t="n">
-        <v>1.941511618497316e-05</v>
+        <v>0.008795845322310925</v>
       </c>
       <c r="EU5" t="n">
-        <v>1.412835354130948e-05</v>
+        <v>0.006691954098641872</v>
       </c>
       <c r="EV5" t="n">
-        <v>2.527444303268567e-05</v>
+        <v>0.008095537312328815</v>
       </c>
       <c r="EW5" t="n">
-        <v>9.825485904002562e-06</v>
+        <v>0.003494176780804992</v>
       </c>
       <c r="EX5" t="n">
-        <v>3.6459336115513e-05</v>
+        <v>0.001305320882238448</v>
       </c>
       <c r="EY5" t="n">
-        <v>1.549762964714319e-05</v>
+        <v>0.004133753944188356</v>
       </c>
       <c r="EZ5" t="n">
-        <v>1.783236621122342e-05</v>
+        <v>0.003279470838606358</v>
       </c>
       <c r="FA5" t="n">
-        <v>2.59396565525094e-05</v>
+        <v>0.005440435837954283</v>
       </c>
       <c r="FB5" t="n">
-        <v>1.134193553298246e-05</v>
+        <v>0.002128382911905646</v>
       </c>
       <c r="FC5" t="n">
-        <v>1.368247740174411e-05</v>
+        <v>0.002442571334540844</v>
       </c>
       <c r="FD5" t="n">
-        <v>9.890797628031578e-06</v>
+        <v>0.004813862964510918</v>
       </c>
       <c r="FE5" t="n">
-        <v>4.798536338057602e-06</v>
+        <v>0.001664279378019273</v>
       </c>
       <c r="FF5" t="n">
-        <v>4.048974005854689e-06</v>
+        <v>0.003373037558048964</v>
       </c>
       <c r="FG5" t="n">
-        <v>2.34422623179853e-05</v>
+        <v>0.001707104267552495</v>
       </c>
       <c r="FH5" t="n">
-        <v>1.209246875077952e-05</v>
+        <v>0.000958593504037708</v>
       </c>
       <c r="FI5" t="n">
-        <v>3.265826671849936e-05</v>
+        <v>0.002017602091655135</v>
       </c>
       <c r="FJ5" t="n">
-        <v>3.489807204459794e-05</v>
+        <v>0.006255419924855232</v>
       </c>
       <c r="FK5" t="n">
-        <v>3.404286417207913e-06</v>
+        <v>0.0008247612277045846</v>
       </c>
       <c r="FL5" t="n">
-        <v>2.228153971373104e-05</v>
+        <v>0.003742095781490207</v>
       </c>
       <c r="FM5" t="n">
-        <v>5.015660644858144e-05</v>
+        <v>0.004023002926260233</v>
       </c>
       <c r="FN5" t="n">
-        <v>2.833867074514274e-05</v>
+        <v>0.003383478615432978</v>
       </c>
       <c r="FO5" t="n">
-        <v>3.063174881390296e-05</v>
+        <v>0.0006976157892495394</v>
       </c>
       <c r="FP5" t="n">
-        <v>0.0001045186509145424</v>
+        <v>0.004376059863716364</v>
       </c>
       <c r="FQ5" t="n">
-        <v>1.319271632382879e-05</v>
+        <v>0.01274529471993446</v>
       </c>
       <c r="FR5" t="n">
-        <v>8.733278809813783e-05</v>
+        <v>0.003485127817839384</v>
       </c>
       <c r="FS5" t="n">
-        <v>2.236793443444185e-05</v>
+        <v>0.005157620646059513</v>
       </c>
       <c r="FT5" t="n">
-        <v>8.319695916725323e-05</v>
+        <v>0.02292894758284092</v>
       </c>
       <c r="FU5" t="n">
-        <v>4.248366167303175e-05</v>
+        <v>0.00346144032664597</v>
       </c>
       <c r="FV5" t="n">
-        <v>7.819224265404046e-05</v>
+        <v>0.008672069758176804</v>
       </c>
       <c r="FW5" t="n">
-        <v>7.111975719453767e-05</v>
+        <v>0.002485082950443029</v>
       </c>
       <c r="FX5" t="n">
-        <v>5.276079536997713e-05</v>
+        <v>0.00244154897518456</v>
       </c>
       <c r="FY5" t="n">
-        <v>5.208294896874577e-05</v>
+        <v>0.002383586717769504</v>
       </c>
       <c r="FZ5" t="n">
-        <v>1.040158895193599e-05</v>
+        <v>0.003431391902267933</v>
       </c>
       <c r="GA5" t="n">
-        <v>1.399157372361515e-05</v>
+        <v>0.002871476113796234</v>
       </c>
       <c r="GB5" t="n">
-        <v>1.014456211123616e-05</v>
+        <v>0.005948647856712341</v>
       </c>
       <c r="GC5" t="n">
-        <v>3.573996309569338e-06</v>
+        <v>0.009710272774100304</v>
       </c>
       <c r="GD5" t="n">
-        <v>1.464724118704908e-05</v>
+        <v>0.0007469740230590105</v>
       </c>
       <c r="GE5" t="n">
-        <v>1.463028729631333e-05</v>
+        <v>0.01455497648566961</v>
       </c>
       <c r="GF5" t="n">
-        <v>5.390475416788831e-05</v>
+        <v>0.006647234782576561</v>
       </c>
       <c r="GG5" t="n">
-        <v>5.539817721000873e-05</v>
+        <v>0.002658323384821415</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.603772559199967e-09</v>
+        <v>1.009107819527344e-07</v>
       </c>
       <c r="B6" t="n">
-        <v>8.008116392232978e-10</v>
+        <v>1.278576064578374e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>6.033407107253197e-10</v>
+        <v>3.94049067153901e-07</v>
       </c>
       <c r="D6" t="n">
-        <v>1.289828466255472e-09</v>
+        <v>2.156869243208348e-07</v>
       </c>
       <c r="E6" t="n">
-        <v>5.34817790054376e-09</v>
+        <v>7.200762865977595e-07</v>
       </c>
       <c r="F6" t="n">
-        <v>4.978906620323187e-09</v>
+        <v>1.557307541588671e-06</v>
       </c>
       <c r="G6" t="n">
-        <v>5.176523210081996e-09</v>
+        <v>5.667195068781439e-07</v>
       </c>
       <c r="H6" t="n">
-        <v>2.417824607192642e-09</v>
+        <v>5.822640147812308e-08</v>
       </c>
       <c r="I6" t="n">
-        <v>7.005318547470551e-10</v>
+        <v>9.237700737685373e-07</v>
       </c>
       <c r="J6" t="n">
-        <v>1.450560893623276e-09</v>
+        <v>7.182019601259526e-08</v>
       </c>
       <c r="K6" t="n">
-        <v>1.040824093578863e-09</v>
+        <v>3.364263818639301e-07</v>
       </c>
       <c r="L6" t="n">
-        <v>3.001738857477676e-09</v>
+        <v>1.467342798378013e-07</v>
       </c>
       <c r="M6" t="n">
-        <v>2.692397860215578e-09</v>
+        <v>5.017838020648924e-07</v>
       </c>
       <c r="N6" t="n">
-        <v>1.93028393269401e-09</v>
+        <v>7.516248956562777e-07</v>
       </c>
       <c r="O6" t="n">
-        <v>1.164528473651671e-09</v>
+        <v>1.346584440398146e-06</v>
       </c>
       <c r="P6" t="n">
-        <v>3.851056806780662e-09</v>
+        <v>7.513676791859325e-09</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.065963844444241e-09</v>
+        <v>5.380238476959676e-08</v>
       </c>
       <c r="R6" t="n">
-        <v>4.371541795222811e-09</v>
+        <v>2.77301381856887e-07</v>
       </c>
       <c r="S6" t="n">
-        <v>1.580011343982335e-09</v>
+        <v>2.892044790314685e-07</v>
       </c>
       <c r="T6" t="n">
-        <v>2.244654906391474e-09</v>
+        <v>2.185410465926907e-07</v>
       </c>
       <c r="U6" t="n">
-        <v>2.995734327271293e-09</v>
+        <v>1.323088127946903e-07</v>
       </c>
       <c r="V6" t="n">
-        <v>6.189119217125949e-10</v>
+        <v>2.10505106679193e-08</v>
       </c>
       <c r="W6" t="n">
-        <v>6.126533502737175e-09</v>
+        <v>7.292451869034267e-07</v>
       </c>
       <c r="X6" t="n">
-        <v>1.202435928604473e-09</v>
+        <v>3.064679106046242e-07</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.649649249481968e-09</v>
+        <v>1.253258119504608e-08</v>
       </c>
       <c r="Z6" t="n">
-        <v>2.704133805764286e-09</v>
+        <v>6.04005094828608e-07</v>
       </c>
       <c r="AA6" t="n">
-        <v>1.977152053189712e-10</v>
+        <v>7.674334767671098e-08</v>
       </c>
       <c r="AB6" t="n">
-        <v>3.944334303618291e-10</v>
+        <v>8.600483170084772e-08</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.744578093099136e-11</v>
+        <v>6.345416636577283e-07</v>
       </c>
       <c r="AD6" t="n">
-        <v>7.803551138607645e-10</v>
+        <v>4.902481123281177e-07</v>
       </c>
       <c r="AE6" t="n">
-        <v>1.861256926360966e-09</v>
+        <v>2.265610135054885e-07</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.185403135181787e-09</v>
+        <v>5.191131435822172e-07</v>
       </c>
       <c r="AG6" t="n">
-        <v>6.38732289282018e-10</v>
+        <v>2.36512249784937e-07</v>
       </c>
       <c r="AH6" t="n">
-        <v>3.285816063680613e-09</v>
+        <v>6.510883849841775e-07</v>
       </c>
       <c r="AI6" t="n">
-        <v>9.596058392347118e-10</v>
+        <v>3.205653342774895e-07</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1.664756887898022e-09</v>
+        <v>2.952810405076889e-07</v>
       </c>
       <c r="AK6" t="n">
-        <v>8.420782959817075e-10</v>
+        <v>2.206427893725049e-07</v>
       </c>
       <c r="AL6" t="n">
-        <v>3.762675726548537e-10</v>
+        <v>1.314447217737325e-07</v>
       </c>
       <c r="AM6" t="n">
-        <v>2.411519872680401e-09</v>
+        <v>2.986235472235421e-07</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.282784710734177e-09</v>
+        <v>6.825379159636213e-07</v>
       </c>
       <c r="AO6" t="n">
-        <v>1.463498988663048e-09</v>
+        <v>3.619350650296838e-07</v>
       </c>
       <c r="AP6" t="n">
-        <v>3.614148980091159e-10</v>
+        <v>4.176080778961477e-07</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.107569702618605e-09</v>
+        <v>3.035659688066517e-07</v>
       </c>
       <c r="AR6" t="n">
-        <v>2.704771739914236e-09</v>
+        <v>4.338556323091325e-07</v>
       </c>
       <c r="AS6" t="n">
-        <v>6.006065644825753e-10</v>
+        <v>2.054218981584199e-07</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.320943437439382e-09</v>
+        <v>1.154560891336587e-07</v>
       </c>
       <c r="AU6" t="n">
-        <v>2.938695509158151e-09</v>
+        <v>9.314340445598646e-07</v>
       </c>
       <c r="AV6" t="n">
-        <v>9.674692158512244e-10</v>
+        <v>3.905530547854141e-07</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.4519277153654e-09</v>
+        <v>6.913126071594888e-07</v>
       </c>
       <c r="AX6" t="n">
-        <v>7.148827307901229e-09</v>
+        <v>3.342407524087321e-07</v>
       </c>
       <c r="AY6" t="n">
-        <v>4.452493929107959e-09</v>
+        <v>7.097289653756889e-07</v>
       </c>
       <c r="AZ6" t="n">
-        <v>1.778910074801132e-10</v>
+        <v>1.209755737363594e-06</v>
       </c>
       <c r="BA6" t="n">
-        <v>2.087595429856037e-09</v>
+        <v>4.523938059719512e-07</v>
       </c>
       <c r="BB6" t="n">
-        <v>3.523740188526858e-10</v>
+        <v>9.446435456084146e-07</v>
       </c>
       <c r="BC6" t="n">
-        <v>1.707788244154074e-09</v>
+        <v>1.548941384044156e-07</v>
       </c>
       <c r="BD6" t="n">
-        <v>7.250817724013814e-10</v>
+        <v>3.308732345885801e-07</v>
       </c>
       <c r="BE6" t="n">
-        <v>7.333331719650005e-10</v>
+        <v>3.887711272909655e-07</v>
       </c>
       <c r="BF6" t="n">
-        <v>2.235017060314703e-09</v>
+        <v>1.512601670583535e-07</v>
       </c>
       <c r="BG6" t="n">
-        <v>8.495634196137303e-10</v>
+        <v>1.117130409511446e-06</v>
       </c>
       <c r="BH6" t="n">
-        <v>4.139441678319145e-09</v>
+        <v>7.78919343247253e-07</v>
       </c>
       <c r="BI6" t="n">
-        <v>2.110499774943264e-09</v>
+        <v>5.430385954241501e-07</v>
       </c>
       <c r="BJ6" t="n">
-        <v>2.919527064548788e-09</v>
+        <v>3.026654553650587e-07</v>
       </c>
       <c r="BK6" t="n">
-        <v>1.821959805248241e-09</v>
+        <v>3.227713705200586e-07</v>
       </c>
       <c r="BL6" t="n">
-        <v>2.218448980073617e-09</v>
+        <v>2.014590307908293e-07</v>
       </c>
       <c r="BM6" t="n">
-        <v>7.563211168459816e-10</v>
+        <v>2.32299512958889e-07</v>
       </c>
       <c r="BN6" t="n">
-        <v>3.710516338628622e-09</v>
+        <v>3.155493288886646e-07</v>
       </c>
       <c r="BO6" t="n">
-        <v>2.494638717820408e-09</v>
+        <v>2.798370246637205e-07</v>
       </c>
       <c r="BP6" t="n">
-        <v>6.969942956125408e-10</v>
+        <v>9.412184454049566e-08</v>
       </c>
       <c r="BQ6" t="n">
-        <v>5.894560395347526e-10</v>
+        <v>3.902207978967454e-08</v>
       </c>
       <c r="BR6" t="n">
-        <v>2.41301978398667e-10</v>
+        <v>5.716616442441591e-07</v>
       </c>
       <c r="BS6" t="n">
-        <v>8.167852505458484e-11</v>
+        <v>1.623503322889519e-07</v>
       </c>
       <c r="BT6" t="n">
-        <v>1.447614250693618e-10</v>
+        <v>5.218508931648103e-07</v>
       </c>
       <c r="BU6" t="n">
-        <v>8.433477249880639e-10</v>
+        <v>1.47431322261582e-07</v>
       </c>
       <c r="BV6" t="n">
-        <v>1.499695923001809e-10</v>
+        <v>1.664733417783282e-07</v>
       </c>
       <c r="BW6" t="n">
-        <v>1.345645150863106e-09</v>
+        <v>3.114623723377008e-07</v>
       </c>
       <c r="BX6" t="n">
-        <v>2.521530539922878e-09</v>
+        <v>1.259329422964584e-07</v>
       </c>
       <c r="BY6" t="n">
-        <v>2.980423241538688e-09</v>
+        <v>5.399089104685117e-07</v>
       </c>
       <c r="BZ6" t="n">
-        <v>3.246604318718482e-09</v>
+        <v>1.193716627767571e-07</v>
       </c>
       <c r="CA6" t="n">
-        <v>6.58647691942349e-10</v>
+        <v>3.679380711218982e-07</v>
       </c>
       <c r="CB6" t="n">
-        <v>4.572928702373247e-10</v>
+        <v>1.784333676368988e-07</v>
       </c>
       <c r="CC6" t="n">
-        <v>4.602632719397093e-10</v>
+        <v>2.06313671924363e-07</v>
       </c>
       <c r="CD6" t="n">
-        <v>4.23513418779109e-10</v>
+        <v>6.424673415494908e-08</v>
       </c>
       <c r="CE6" t="n">
-        <v>1.151169382040962e-09</v>
+        <v>1.802769986625208e-07</v>
       </c>
       <c r="CF6" t="n">
-        <v>4.714987844600671e-10</v>
+        <v>1.201469785883091e-07</v>
       </c>
       <c r="CG6" t="n">
-        <v>9.654388399837899e-11</v>
+        <v>1.114926817535888e-08</v>
       </c>
       <c r="CH6" t="n">
-        <v>1.094833335102408e-09</v>
+        <v>5.605875230685342e-08</v>
       </c>
       <c r="CI6" t="n">
-        <v>6.520651796293464e-10</v>
+        <v>1.684955321934467e-07</v>
       </c>
       <c r="CJ6" t="n">
-        <v>1.629625878685204e-09</v>
+        <v>1.518773160569253e-07</v>
       </c>
       <c r="CK6" t="n">
-        <v>1.598465582119957e-09</v>
+        <v>6.989946399471592e-09</v>
       </c>
       <c r="CL6" t="n">
-        <v>1.486136630424184e-10</v>
+        <v>1.184770113127342e-07</v>
       </c>
       <c r="CM6" t="n">
-        <v>1.497077906087441e-09</v>
+        <v>1.473992767841992e-07</v>
       </c>
       <c r="CN6" t="n">
-        <v>4.098494876814129e-09</v>
+        <v>6.978722808526072e-07</v>
       </c>
       <c r="CO6" t="n">
-        <v>2.627825734791145e-10</v>
+        <v>9.248570620457031e-08</v>
       </c>
       <c r="CP6" t="n">
-        <v>2.570541557389561e-10</v>
+        <v>4.87065904053452e-07</v>
       </c>
       <c r="CQ6" t="n">
-        <v>2.622603911817123e-09</v>
+        <v>3.124418412880914e-07</v>
       </c>
       <c r="CR6" t="n">
-        <v>9.660906519215473e-10</v>
+        <v>3.223010196506948e-07</v>
       </c>
       <c r="CS6" t="n">
-        <v>2.050398739683601e-09</v>
+        <v>1.807746912163566e-07</v>
       </c>
       <c r="CT6" t="n">
-        <v>3.905547441007684e-09</v>
+        <v>3.369039234257798e-07</v>
       </c>
       <c r="CU6" t="n">
-        <v>2.768804741037911e-09</v>
+        <v>7.175168548201327e-07</v>
       </c>
       <c r="CV6" t="n">
-        <v>4.422696098238532e-10</v>
+        <v>5.497622979078187e-08</v>
       </c>
       <c r="CW6" t="n">
-        <v>1.272761340764816e-09</v>
+        <v>1.121124171277188e-07</v>
       </c>
       <c r="CX6" t="n">
-        <v>1.193146359490527e-09</v>
+        <v>1.109823770661933e-07</v>
       </c>
       <c r="CY6" t="n">
-        <v>3.029891337824608e-10</v>
+        <v>1.01948430142329e-07</v>
       </c>
       <c r="CZ6" t="n">
-        <v>3.96964627835672e-10</v>
+        <v>2.113287962401955e-07</v>
       </c>
       <c r="DA6" t="n">
-        <v>7.075092178787656e-10</v>
+        <v>1.405041700763832e-07</v>
       </c>
       <c r="DB6" t="n">
-        <v>1.229909396549544e-09</v>
+        <v>4.717685442301445e-08</v>
       </c>
       <c r="DC6" t="n">
-        <v>2.063159199039433e-09</v>
+        <v>2.608999238873366e-08</v>
       </c>
       <c r="DD6" t="n">
-        <v>1.203341593036811e-10</v>
+        <v>6.887403714017637e-08</v>
       </c>
       <c r="DE6" t="n">
-        <v>1.719102638020331e-11</v>
+        <v>1.071904094374077e-07</v>
       </c>
       <c r="DF6" t="n">
-        <v>5.079131004670501e-10</v>
+        <v>1.100334401371583e-07</v>
       </c>
       <c r="DG6" t="n">
-        <v>1.55697676973432e-12</v>
+        <v>2.414504933767603e-07</v>
       </c>
       <c r="DH6" t="n">
-        <v>2.845909286008919e-09</v>
+        <v>2.298186245752731e-07</v>
       </c>
       <c r="DI6" t="n">
-        <v>1.465339183326364e-09</v>
+        <v>3.495119074159447e-07</v>
       </c>
       <c r="DJ6" t="n">
-        <v>1.772465951788149e-09</v>
+        <v>1.186614781545359e-06</v>
       </c>
       <c r="DK6" t="n">
-        <v>1.783237724151121e-10</v>
+        <v>3.561445964805898e-07</v>
       </c>
       <c r="DL6" t="n">
-        <v>2.796605169663735e-09</v>
+        <v>2.663747977749154e-07</v>
       </c>
       <c r="DM6" t="n">
-        <v>3.47881767837066e-09</v>
+        <v>9.768169775270508e-07</v>
       </c>
       <c r="DN6" t="n">
-        <v>2.052291253606953e-10</v>
+        <v>2.242050669565288e-07</v>
       </c>
       <c r="DO6" t="n">
-        <v>4.413953369475365e-10</v>
+        <v>1.293798277401947e-07</v>
       </c>
       <c r="DP6" t="n">
-        <v>2.296148604585824e-09</v>
+        <v>3.033843398725367e-08</v>
       </c>
       <c r="DQ6" t="n">
-        <v>1.669569260620563e-09</v>
+        <v>5.922028378790856e-08</v>
       </c>
       <c r="DR6" t="n">
-        <v>3.454699637472913e-09</v>
+        <v>3.917245123830071e-07</v>
       </c>
       <c r="DS6" t="n">
-        <v>3.028448825048713e-09</v>
+        <v>1.619055183255114e-07</v>
       </c>
       <c r="DT6" t="n">
-        <v>6.965654719692793e-10</v>
+        <v>1.477439184327523e-07</v>
       </c>
       <c r="DU6" t="n">
-        <v>4.14087608646696e-09</v>
+        <v>1.012756598584019e-07</v>
       </c>
       <c r="DV6" t="n">
-        <v>1.480800815301109e-09</v>
+        <v>3.92211120470165e-07</v>
       </c>
       <c r="DW6" t="n">
-        <v>7.100858789854669e-11</v>
+        <v>1.530718236608664e-07</v>
       </c>
       <c r="DX6" t="n">
-        <v>4.494458138992741e-10</v>
+        <v>6.32881125284257e-08</v>
       </c>
       <c r="DY6" t="n">
-        <v>4.469534742312931e-10</v>
+        <v>3.029770709872537e-07</v>
       </c>
       <c r="DZ6" t="n">
-        <v>1.041205677232426e-09</v>
+        <v>3.157983030632749e-07</v>
       </c>
       <c r="EA6" t="n">
-        <v>7.042109950727848e-11</v>
+        <v>1.532791884528706e-07</v>
       </c>
       <c r="EB6" t="n">
-        <v>7.523416334365152e-10</v>
+        <v>3.503281220673671e-07</v>
       </c>
       <c r="EC6" t="n">
-        <v>7.03386127121064e-10</v>
+        <v>1.696610496537687e-07</v>
       </c>
       <c r="ED6" t="n">
-        <v>8.762777170545633e-10</v>
+        <v>2.245079997464927e-07</v>
       </c>
       <c r="EE6" t="n">
-        <v>1.774818347843876e-10</v>
+        <v>5.993420870709087e-08</v>
       </c>
       <c r="EF6" t="n">
-        <v>9.358480657084556e-11</v>
+        <v>1.041766637399633e-07</v>
       </c>
       <c r="EG6" t="n">
-        <v>7.152173853164356e-10</v>
+        <v>4.170654577251298e-08</v>
       </c>
       <c r="EH6" t="n">
-        <v>4.098463235457928e-10</v>
+        <v>1.205314958951931e-08</v>
       </c>
       <c r="EI6" t="n">
-        <v>4.294393729509238e-10</v>
+        <v>6.90355307142454e-07</v>
       </c>
       <c r="EJ6" t="n">
-        <v>2.118321296151748e-09</v>
+        <v>6.348298597913526e-08</v>
       </c>
       <c r="EK6" t="n">
-        <v>6.867190149861813e-10</v>
+        <v>3.183773742421181e-07</v>
       </c>
       <c r="EL6" t="n">
-        <v>2.840266022374749e-09</v>
+        <v>6.351660317704955e-07</v>
       </c>
       <c r="EM6" t="n">
-        <v>2.524388698077473e-09</v>
+        <v>2.875034681437683e-07</v>
       </c>
       <c r="EN6" t="n">
-        <v>5.724429819053967e-10</v>
+        <v>8.13019198631082e-08</v>
       </c>
       <c r="EO6" t="n">
-        <v>1.131947424681812e-09</v>
+        <v>2.686990967504244e-07</v>
       </c>
       <c r="EP6" t="n">
-        <v>8.162987508164576e-10</v>
+        <v>3.373376955551066e-07</v>
       </c>
       <c r="EQ6" t="n">
-        <v>4.098788530804143e-10</v>
+        <v>1.048271585091243e-07</v>
       </c>
       <c r="ER6" t="n">
-        <v>1.57108115406146e-09</v>
+        <v>3.876363052768284e-07</v>
       </c>
       <c r="ES6" t="n">
-        <v>1.024020757078858e-09</v>
+        <v>1.396141442455701e-07</v>
       </c>
       <c r="ET6" t="n">
-        <v>1.222459466987402e-09</v>
+        <v>8.787206411398074e-07</v>
       </c>
       <c r="EU6" t="n">
-        <v>1.553715822666391e-09</v>
+        <v>3.136617010568443e-07</v>
       </c>
       <c r="EV6" t="n">
-        <v>3.155365080331762e-09</v>
+        <v>1.79036675262978e-07</v>
       </c>
       <c r="EW6" t="n">
-        <v>1.164067731096452e-09</v>
+        <v>4.317108448503859e-09</v>
       </c>
       <c r="EX6" t="n">
-        <v>4.779839857249613e-10</v>
+        <v>3.760415268061479e-08</v>
       </c>
       <c r="EY6" t="n">
-        <v>9.507931109098422e-10</v>
+        <v>1.395289643824071e-07</v>
       </c>
       <c r="EZ6" t="n">
-        <v>1.315576536597973e-09</v>
+        <v>5.379661160986871e-08</v>
       </c>
       <c r="FA6" t="n">
-        <v>6.796566642819357e-10</v>
+        <v>2.479983152170462e-08</v>
       </c>
       <c r="FB6" t="n">
-        <v>1.121406745241416e-09</v>
+        <v>2.775890663997416e-07</v>
       </c>
       <c r="FC6" t="n">
-        <v>2.652493502619535e-10</v>
+        <v>7.991904737991717e-08</v>
       </c>
       <c r="FD6" t="n">
-        <v>9.740797057844475e-10</v>
+        <v>1.597597076852253e-07</v>
       </c>
       <c r="FE6" t="n">
-        <v>2.033577750637505e-09</v>
+        <v>5.694981197734705e-08</v>
       </c>
       <c r="FF6" t="n">
-        <v>7.343173291651794e-10</v>
+        <v>2.292707961260021e-07</v>
       </c>
       <c r="FG6" t="n">
-        <v>3.774783818855099e-10</v>
+        <v>7.210717001271405e-08</v>
       </c>
       <c r="FH6" t="n">
-        <v>7.125391943141324e-10</v>
+        <v>2.307081459207438e-08</v>
       </c>
       <c r="FI6" t="n">
-        <v>5.673382874604727e-10</v>
+        <v>8.745341517624183e-08</v>
       </c>
       <c r="FJ6" t="n">
-        <v>4.31933724898137e-11</v>
+        <v>5.296637937135529e-07</v>
       </c>
       <c r="FK6" t="n">
-        <v>2.141484989337528e-09</v>
+        <v>3.624030284754554e-07</v>
       </c>
       <c r="FL6" t="n">
-        <v>5.915454792670971e-10</v>
+        <v>3.913103512331872e-07</v>
       </c>
       <c r="FM6" t="n">
-        <v>5.556684556928815e-10</v>
+        <v>4.137564246775582e-08</v>
       </c>
       <c r="FN6" t="n">
-        <v>2.37244157652583e-09</v>
+        <v>1.951144952272443e-07</v>
       </c>
       <c r="FO6" t="n">
-        <v>7.392394474337038e-10</v>
+        <v>7.234012855406036e-07</v>
       </c>
       <c r="FP6" t="n">
-        <v>8.159560804799071e-10</v>
+        <v>5.726196832256392e-07</v>
       </c>
       <c r="FQ6" t="n">
-        <v>5.074376474567543e-10</v>
+        <v>3.19253786074114e-07</v>
       </c>
       <c r="FR6" t="n">
-        <v>1.499629087575727e-09</v>
+        <v>3.082923569763807e-07</v>
       </c>
       <c r="FS6" t="n">
-        <v>2.689059419580531e-09</v>
+        <v>1.200880035412411e-07</v>
       </c>
       <c r="FT6" t="n">
-        <v>4.866016034554832e-09</v>
+        <v>7.871648222135263e-07</v>
       </c>
       <c r="FU6" t="n">
-        <v>4.252752816569227e-09</v>
+        <v>1.046596366904851e-06</v>
       </c>
       <c r="FV6" t="n">
-        <v>3.201089393556344e-10</v>
+        <v>4.079847713001072e-07</v>
       </c>
       <c r="FW6" t="n">
-        <v>1.213331879412749e-09</v>
+        <v>3.332657740884315e-07</v>
       </c>
       <c r="FX6" t="n">
-        <v>6.746966318971204e-10</v>
+        <v>4.560525042052177e-07</v>
       </c>
       <c r="FY6" t="n">
-        <v>5.167148930951271e-10</v>
+        <v>3.15342333578883e-07</v>
       </c>
       <c r="FZ6" t="n">
-        <v>1.084850431709583e-09</v>
+        <v>3.645234016858012e-07</v>
       </c>
       <c r="GA6" t="n">
-        <v>3.962895844811243e-10</v>
+        <v>3.299061290817917e-07</v>
       </c>
       <c r="GB6" t="n">
-        <v>1.19394272246609e-09</v>
+        <v>2.566396801739756e-07</v>
       </c>
       <c r="GC6" t="n">
-        <v>2.999574366668867e-09</v>
+        <v>2.806575878366857e-07</v>
       </c>
       <c r="GD6" t="n">
-        <v>3.211213739362506e-09</v>
+        <v>3.523401232996548e-07</v>
       </c>
       <c r="GE6" t="n">
-        <v>1.182683284639552e-09</v>
+        <v>3.00195040381368e-07</v>
       </c>
       <c r="GF6" t="n">
-        <v>7.582589001131623e-10</v>
+        <v>3.587207970667805e-07</v>
       </c>
       <c r="GG6" t="n">
-        <v>1.125053036843404e-10</v>
+        <v>9.752750429470325e-07</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3.662707968032919e-05</v>
+        <v>3.887209629738209e-07</v>
       </c>
       <c r="B7" t="n">
-        <v>5.536121534532867e-06</v>
+        <v>2.315330448254826e-06</v>
       </c>
       <c r="C7" t="n">
-        <v>2.242170739918947e-05</v>
+        <v>3.523122984461224e-07</v>
       </c>
       <c r="D7" t="n">
-        <v>8.963447180576622e-05</v>
+        <v>6.033442900843511e-07</v>
       </c>
       <c r="E7" t="n">
-        <v>3.339609247632325e-05</v>
+        <v>5.739791220094048e-08</v>
       </c>
       <c r="F7" t="n">
-        <v>6.585733353858814e-05</v>
+        <v>6.643278993578861e-07</v>
       </c>
       <c r="G7" t="n">
-        <v>1.933582461788319e-05</v>
+        <v>2.712313573738356e-08</v>
       </c>
       <c r="H7" t="n">
-        <v>3.626882971730083e-08</v>
+        <v>3.086364017690357e-07</v>
       </c>
       <c r="I7" t="n">
-        <v>3.158067920594476e-05</v>
+        <v>1.124434220400872e-06</v>
       </c>
       <c r="J7" t="n">
-        <v>8.926182999857701e-06</v>
+        <v>4.193219353965105e-07</v>
       </c>
       <c r="K7" t="n">
-        <v>4.811342660104856e-05</v>
+        <v>1.27971543406602e-06</v>
       </c>
       <c r="L7" t="n">
-        <v>4.005224764114246e-05</v>
+        <v>2.07260086426686e-07</v>
       </c>
       <c r="M7" t="n">
-        <v>5.036402581026778e-05</v>
+        <v>1.080761649063788e-06</v>
       </c>
       <c r="N7" t="n">
-        <v>9.367304301122203e-05</v>
+        <v>4.02811508593004e-07</v>
       </c>
       <c r="O7" t="n">
-        <v>1.490350950916763e-05</v>
+        <v>2.588626557553653e-07</v>
       </c>
       <c r="P7" t="n">
-        <v>2.144772588508204e-05</v>
+        <v>2.804385417221056e-07</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.006757131312042e-05</v>
+        <v>2.352834798102776e-07</v>
       </c>
       <c r="R7" t="n">
-        <v>5.064420292910654e-06</v>
+        <v>8.181694397535466e-07</v>
       </c>
       <c r="S7" t="n">
-        <v>3.356585511937737e-05</v>
+        <v>1.091095782612683e-07</v>
       </c>
       <c r="T7" t="n">
-        <v>3.290776658104733e-05</v>
+        <v>2.614515324239619e-07</v>
       </c>
       <c r="U7" t="n">
-        <v>3.552265479811467e-05</v>
+        <v>3.957993754966083e-08</v>
       </c>
       <c r="V7" t="n">
-        <v>3.277304494986311e-05</v>
+        <v>4.359752665550332e-07</v>
       </c>
       <c r="W7" t="n">
-        <v>0.0001230276975547895</v>
+        <v>8.543476042177645e-07</v>
       </c>
       <c r="X7" t="n">
-        <v>6.824711817898788e-08</v>
+        <v>8.302225751322112e-08</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.742297899909317e-05</v>
+        <v>9.796031008590944e-08</v>
       </c>
       <c r="Z7" t="n">
-        <v>3.061206371057779e-05</v>
+        <v>7.071925267609913e-09</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.04666914921836e-05</v>
+        <v>2.873060722663467e-08</v>
       </c>
       <c r="AB7" t="n">
-        <v>4.168457962805405e-05</v>
+        <v>5.308478279175688e-08</v>
       </c>
       <c r="AC7" t="n">
-        <v>2.181697709602304e-05</v>
+        <v>2.668719218945625e-07</v>
       </c>
       <c r="AD7" t="n">
-        <v>2.952012800960802e-05</v>
+        <v>3.535758992256888e-07</v>
       </c>
       <c r="AE7" t="n">
-        <v>1.283797246287577e-05</v>
+        <v>2.805727206123265e-07</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.409401324461214e-05</v>
+        <v>1.964832705425579e-07</v>
       </c>
       <c r="AG7" t="n">
-        <v>6.96578035785933e-06</v>
+        <v>6.789563258280396e-07</v>
       </c>
       <c r="AH7" t="n">
-        <v>1.374286512145773e-05</v>
+        <v>1.088395151782606e-09</v>
       </c>
       <c r="AI7" t="n">
-        <v>3.234740870539099e-05</v>
+        <v>1.703859879853553e-07</v>
       </c>
       <c r="AJ7" t="n">
-        <v>2.451346517773345e-05</v>
+        <v>3.195430622326967e-07</v>
       </c>
       <c r="AK7" t="n">
-        <v>1.196539506054251e-05</v>
+        <v>1.413016548212909e-07</v>
       </c>
       <c r="AL7" t="n">
-        <v>1.324753884546226e-05</v>
+        <v>3.37285882778815e-07</v>
       </c>
       <c r="AM7" t="n">
-        <v>8.19024171505589e-06</v>
+        <v>1.492849754924919e-08</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.411253030411899e-05</v>
+        <v>2.335985271884056e-08</v>
       </c>
       <c r="AO7" t="n">
-        <v>2.304912413819693e-05</v>
+        <v>3.17654155423952e-07</v>
       </c>
       <c r="AP7" t="n">
-        <v>3.578488758648746e-05</v>
+        <v>5.749560045842372e-07</v>
       </c>
       <c r="AQ7" t="n">
-        <v>2.3398376924888e-06</v>
+        <v>6.334786917250312e-08</v>
       </c>
       <c r="AR7" t="n">
-        <v>1.063471700035734e-05</v>
+        <v>4.278195717688504e-07</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.322191221537651e-07</v>
+        <v>1.805365457130392e-07</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.793982391973259e-06</v>
+        <v>2.026680192557251e-07</v>
       </c>
       <c r="AU7" t="n">
-        <v>1.815246832848061e-06</v>
+        <v>1.698077085166005e-06</v>
       </c>
       <c r="AV7" t="n">
-        <v>4.118127435503993e-06</v>
+        <v>1.757650522904441e-07</v>
       </c>
       <c r="AW7" t="n">
-        <v>8.764542872086167e-05</v>
+        <v>1.025791718234359e-07</v>
       </c>
       <c r="AX7" t="n">
-        <v>5.95955498283729e-05</v>
+        <v>7.247120379361149e-07</v>
       </c>
       <c r="AY7" t="n">
-        <v>3.070069942623377e-05</v>
+        <v>8.333449841302354e-07</v>
       </c>
       <c r="AZ7" t="n">
-        <v>2.099186895065941e-05</v>
+        <v>4.216871047901805e-07</v>
       </c>
       <c r="BA7" t="n">
-        <v>3.734348138095811e-05</v>
+        <v>4.733729497274908e-07</v>
       </c>
       <c r="BB7" t="n">
-        <v>3.862485391437076e-05</v>
+        <v>5.454408125160626e-08</v>
       </c>
       <c r="BC7" t="n">
-        <v>4.358355727163143e-05</v>
+        <v>7.010071811919261e-08</v>
       </c>
       <c r="BD7" t="n">
-        <v>2.087360826408258e-07</v>
+        <v>5.979609341011383e-08</v>
       </c>
       <c r="BE7" t="n">
-        <v>2.038614547927864e-05</v>
+        <v>1.10505240513703e-08</v>
       </c>
       <c r="BF7" t="n">
-        <v>3.300201933598146e-05</v>
+        <v>5.482222036334861e-07</v>
       </c>
       <c r="BG7" t="n">
-        <v>5.97436010139063e-05</v>
+        <v>5.198797907723929e-07</v>
       </c>
       <c r="BH7" t="n">
-        <v>2.099829180224333e-05</v>
+        <v>1.497601971323093e-07</v>
       </c>
       <c r="BI7" t="n">
-        <v>2.720613110795966e-06</v>
+        <v>2.958801204044903e-09</v>
       </c>
       <c r="BJ7" t="n">
-        <v>1.559120210004039e-05</v>
+        <v>1.4686781923956e-07</v>
       </c>
       <c r="BK7" t="n">
-        <v>2.184279992434313e-06</v>
+        <v>8.406818210460187e-07</v>
       </c>
       <c r="BL7" t="n">
-        <v>3.695791019708849e-05</v>
+        <v>2.283073570197303e-07</v>
       </c>
       <c r="BM7" t="n">
-        <v>6.42679697193671e-06</v>
+        <v>5.365384581068611e-08</v>
       </c>
       <c r="BN7" t="n">
-        <v>2.482633681211155e-05</v>
+        <v>2.337173441446794e-07</v>
       </c>
       <c r="BO7" t="n">
-        <v>2.731152562773786e-06</v>
+        <v>4.296489919397573e-08</v>
       </c>
       <c r="BP7" t="n">
-        <v>2.76176469924394e-05</v>
+        <v>5.591369927060441e-07</v>
       </c>
       <c r="BQ7" t="n">
-        <v>2.08659257623367e-05</v>
+        <v>1.476652329301942e-07</v>
       </c>
       <c r="BR7" t="n">
-        <v>1.651770617172588e-06</v>
+        <v>8.427532804944349e-08</v>
       </c>
       <c r="BS7" t="n">
-        <v>8.121563951135613e-06</v>
+        <v>3.255162539517187e-07</v>
       </c>
       <c r="BT7" t="n">
-        <v>1.128630447055912e-05</v>
+        <v>5.535952851687398e-08</v>
       </c>
       <c r="BU7" t="n">
-        <v>9.703915566205978e-06</v>
+        <v>2.888815942014844e-08</v>
       </c>
       <c r="BV7" t="n">
-        <v>3.482015381450765e-05</v>
+        <v>9.036779147209018e-07</v>
       </c>
       <c r="BW7" t="n">
-        <v>1.222475134454726e-06</v>
+        <v>2.282191928770771e-07</v>
       </c>
       <c r="BX7" t="n">
-        <v>7.024877413641661e-05</v>
+        <v>1.245359726453898e-07</v>
       </c>
       <c r="BY7" t="n">
-        <v>6.086289067752659e-05</v>
+        <v>1.801197413442424e-09</v>
       </c>
       <c r="BZ7" t="n">
-        <v>6.70478111715056e-05</v>
+        <v>9.047252547134121e-08</v>
       </c>
       <c r="CA7" t="n">
-        <v>3.4087679523509e-06</v>
+        <v>3.260694256823626e-07</v>
       </c>
       <c r="CB7" t="n">
-        <v>4.76007153338287e-06</v>
+        <v>4.058101694681682e-07</v>
       </c>
       <c r="CC7" t="n">
-        <v>2.066387423838023e-06</v>
+        <v>1.433658951555117e-07</v>
       </c>
       <c r="CD7" t="n">
-        <v>9.281836810259847e-08</v>
+        <v>5.843814321337959e-08</v>
       </c>
       <c r="CE7" t="n">
-        <v>1.534960756544024e-05</v>
+        <v>3.802961145993322e-07</v>
       </c>
       <c r="CF7" t="n">
-        <v>3.240179466956761e-07</v>
+        <v>5.637375011247059e-08</v>
       </c>
       <c r="CG7" t="n">
-        <v>2.265671537315939e-05</v>
+        <v>7.694780634892595e-08</v>
       </c>
       <c r="CH7" t="n">
-        <v>7.917513357824646e-06</v>
+        <v>3.8248362699278e-08</v>
       </c>
       <c r="CI7" t="n">
-        <v>8.969149121185183e-07</v>
+        <v>2.333637283413736e-09</v>
       </c>
       <c r="CJ7" t="n">
-        <v>1.257221356354421e-06</v>
+        <v>5.178289441687411e-08</v>
       </c>
       <c r="CK7" t="n">
-        <v>6.879353350086603e-06</v>
+        <v>1.806581622076919e-07</v>
       </c>
       <c r="CL7" t="n">
-        <v>5.064104698249139e-06</v>
+        <v>2.013152169411114e-07</v>
       </c>
       <c r="CM7" t="n">
-        <v>1.765528213582002e-05</v>
+        <v>1.715771418275835e-07</v>
       </c>
       <c r="CN7" t="n">
-        <v>7.302933227038011e-06</v>
+        <v>3.431535944287134e-08</v>
       </c>
       <c r="CO7" t="n">
-        <v>1.051463732437696e-05</v>
+        <v>9.071649031966444e-08</v>
       </c>
       <c r="CP7" t="n">
-        <v>5.660482565872371e-05</v>
+        <v>3.769062217884311e-08</v>
       </c>
       <c r="CQ7" t="n">
-        <v>3.918739457731135e-05</v>
+        <v>2.707300836846116e-07</v>
       </c>
       <c r="CR7" t="n">
-        <v>3.139908949378878e-05</v>
+        <v>5.697131655324483e-09</v>
       </c>
       <c r="CS7" t="n">
-        <v>1.76674311660463e-05</v>
+        <v>4.633448611457425e-07</v>
       </c>
       <c r="CT7" t="n">
-        <v>1.93452160601737e-06</v>
+        <v>2.653558226484165e-07</v>
       </c>
       <c r="CU7" t="n">
-        <v>6.904866495460737e-06</v>
+        <v>4.795608532504048e-08</v>
       </c>
       <c r="CV7" t="n">
-        <v>9.964214768842794e-07</v>
+        <v>5.718214168837221e-08</v>
       </c>
       <c r="CW7" t="n">
-        <v>7.152882062655408e-06</v>
+        <v>3.999917339569947e-07</v>
       </c>
       <c r="CX7" t="n">
-        <v>3.312649823783431e-06</v>
+        <v>4.76402348681404e-08</v>
       </c>
       <c r="CY7" t="n">
-        <v>1.565497586852871e-05</v>
+        <v>9.447197157896881e-08</v>
       </c>
       <c r="CZ7" t="n">
-        <v>1.38077966767014e-05</v>
+        <v>1.257912458640931e-07</v>
       </c>
       <c r="DA7" t="n">
-        <v>6.194139132276177e-06</v>
+        <v>4.215691262743348e-08</v>
       </c>
       <c r="DB7" t="n">
-        <v>4.882267148786923e-06</v>
+        <v>8.886399172070014e-09</v>
       </c>
       <c r="DC7" t="n">
-        <v>4.501372131926473e-06</v>
+        <v>9.167392533981911e-08</v>
       </c>
       <c r="DD7" t="n">
-        <v>9.04732496564975e-06</v>
+        <v>1.038690200516612e-07</v>
       </c>
       <c r="DE7" t="n">
-        <v>2.304440749867354e-05</v>
+        <v>5.077560558675032e-07</v>
       </c>
       <c r="DF7" t="n">
-        <v>1.687945041339844e-05</v>
+        <v>4.213873978642368e-07</v>
       </c>
       <c r="DG7" t="n">
-        <v>5.484311259351671e-06</v>
+        <v>4.837211236008443e-07</v>
       </c>
       <c r="DH7" t="n">
-        <v>4.585678107105196e-05</v>
+        <v>7.585470029880526e-07</v>
       </c>
       <c r="DI7" t="n">
-        <v>5.933361535426229e-06</v>
+        <v>8.822326549307036e-07</v>
       </c>
       <c r="DJ7" t="n">
-        <v>2.265760122099891e-05</v>
+        <v>2.704242945128499e-07</v>
       </c>
       <c r="DK7" t="n">
-        <v>1.997427170863375e-05</v>
+        <v>4.838362599457469e-08</v>
       </c>
       <c r="DL7" t="n">
-        <v>1.346631688647904e-05</v>
+        <v>8.340524004779581e-08</v>
       </c>
       <c r="DM7" t="n">
-        <v>5.204921762924641e-06</v>
+        <v>5.106883804728568e-09</v>
       </c>
       <c r="DN7" t="n">
-        <v>2.36673658946529e-05</v>
+        <v>1.825279980494088e-07</v>
       </c>
       <c r="DO7" t="n">
-        <v>2.69787178694969e-05</v>
+        <v>1.63829554367112e-08</v>
       </c>
       <c r="DP7" t="n">
-        <v>1.573148097122612e-06</v>
+        <v>5.36924247285242e-08</v>
       </c>
       <c r="DQ7" t="n">
-        <v>3.707790529006161e-05</v>
+        <v>2.560997813816357e-08</v>
       </c>
       <c r="DR7" t="n">
-        <v>1.422954665031284e-05</v>
+        <v>1.40087379918441e-07</v>
       </c>
       <c r="DS7" t="n">
-        <v>2.108603439410217e-05</v>
+        <v>3.255753426856245e-07</v>
       </c>
       <c r="DT7" t="n">
-        <v>1.137150889007899e-06</v>
+        <v>2.241693835003389e-07</v>
       </c>
       <c r="DU7" t="n">
-        <v>4.770184386870824e-05</v>
+        <v>1.13386725786313e-07</v>
       </c>
       <c r="DV7" t="n">
-        <v>5.886431608814746e-06</v>
+        <v>8.780494908933179e-08</v>
       </c>
       <c r="DW7" t="n">
-        <v>9.096891517401673e-06</v>
+        <v>2.436649637616028e-08</v>
       </c>
       <c r="DX7" t="n">
-        <v>2.664762905624229e-05</v>
+        <v>2.84047246168484e-07</v>
       </c>
       <c r="DY7" t="n">
-        <v>1.200481528940145e-05</v>
+        <v>1.886638401060736e-08</v>
       </c>
       <c r="DZ7" t="n">
-        <v>3.348607424413785e-05</v>
+        <v>9.842377579616368e-08</v>
       </c>
       <c r="EA7" t="n">
-        <v>1.033597800415009e-05</v>
+        <v>1.548925467886875e-07</v>
       </c>
       <c r="EB7" t="n">
-        <v>3.062721589230932e-05</v>
+        <v>1.106251090732258e-08</v>
       </c>
       <c r="EC7" t="n">
-        <v>1.153774064732715e-06</v>
+        <v>3.651598490250763e-08</v>
       </c>
       <c r="ED7" t="n">
-        <v>3.816447133431211e-05</v>
+        <v>2.216637682295186e-07</v>
       </c>
       <c r="EE7" t="n">
-        <v>2.992473127960693e-06</v>
+        <v>1.868152850192928e-07</v>
       </c>
       <c r="EF7" t="n">
-        <v>1.79102539732412e-06</v>
+        <v>7.788653988427541e-08</v>
       </c>
       <c r="EG7" t="n">
-        <v>4.874266323895426e-06</v>
+        <v>3.272616595495492e-07</v>
       </c>
       <c r="EH7" t="n">
-        <v>1.060122485796455e-06</v>
+        <v>3.713034146812788e-08</v>
       </c>
       <c r="EI7" t="n">
-        <v>1.846329359977972e-05</v>
+        <v>1.338130317662944e-07</v>
       </c>
       <c r="EJ7" t="n">
-        <v>1.782513550097065e-06</v>
+        <v>1.446065880372771e-07</v>
       </c>
       <c r="EK7" t="n">
-        <v>2.700856566661969e-05</v>
+        <v>3.245343904723086e-08</v>
       </c>
       <c r="EL7" t="n">
-        <v>2.312017841177294e-06</v>
+        <v>9.828691815982893e-08</v>
       </c>
       <c r="EM7" t="n">
-        <v>2.026879883487709e-06</v>
+        <v>2.607028193324368e-07</v>
       </c>
       <c r="EN7" t="n">
-        <v>1.287954546569381e-06</v>
+        <v>1.101495570310362e-07</v>
       </c>
       <c r="EO7" t="n">
-        <v>4.065103712491691e-05</v>
+        <v>1.886337344103595e-07</v>
       </c>
       <c r="EP7" t="n">
-        <v>2.467979720677249e-05</v>
+        <v>6.589188501493481e-07</v>
       </c>
       <c r="EQ7" t="n">
-        <v>1.427314714419481e-06</v>
+        <v>2.112941217546904e-07</v>
       </c>
       <c r="ER7" t="n">
-        <v>8.588233413320268e-07</v>
+        <v>7.95246322127241e-08</v>
       </c>
       <c r="ES7" t="n">
-        <v>1.253220307262382e-05</v>
+        <v>1.151464203985597e-07</v>
       </c>
       <c r="ET7" t="n">
-        <v>1.156913367594825e-05</v>
+        <v>5.851014179825142e-07</v>
       </c>
       <c r="EU7" t="n">
-        <v>4.023778274131473e-06</v>
+        <v>2.925496858097176e-07</v>
       </c>
       <c r="EV7" t="n">
-        <v>9.47800072026439e-06</v>
+        <v>2.67475712689702e-07</v>
       </c>
       <c r="EW7" t="n">
-        <v>2.004080670303665e-07</v>
+        <v>2.125102867012174e-07</v>
       </c>
       <c r="EX7" t="n">
-        <v>2.660847712832037e-06</v>
+        <v>6.659741202952318e-09</v>
       </c>
       <c r="EY7" t="n">
-        <v>1.479269667470362e-05</v>
+        <v>4.922389962302987e-07</v>
       </c>
       <c r="EZ7" t="n">
-        <v>2.718217729125172e-06</v>
+        <v>1.957774600214179e-07</v>
       </c>
       <c r="FA7" t="n">
-        <v>8.033387530304026e-06</v>
+        <v>6.239852723410877e-08</v>
       </c>
       <c r="FB7" t="n">
-        <v>1.225233972945716e-05</v>
+        <v>7.937092050269712e-08</v>
       </c>
       <c r="FC7" t="n">
-        <v>1.079277171811555e-05</v>
+        <v>8.371129922579712e-08</v>
       </c>
       <c r="FD7" t="n">
-        <v>1.832592488426599e-06</v>
+        <v>6.734875768188431e-09</v>
       </c>
       <c r="FE7" t="n">
-        <v>5.266404059511842e-06</v>
+        <v>1.443797970068772e-07</v>
       </c>
       <c r="FF7" t="n">
-        <v>2.271205175929936e-06</v>
+        <v>4.581356449762097e-08</v>
       </c>
       <c r="FG7" t="n">
-        <v>1.871894710347988e-05</v>
+        <v>1.474778343890648e-07</v>
       </c>
       <c r="FH7" t="n">
-        <v>1.035957393469289e-05</v>
+        <v>4.301562910313805e-07</v>
       </c>
       <c r="FI7" t="n">
-        <v>3.70373254554579e-06</v>
+        <v>1.280567687445e-07</v>
       </c>
       <c r="FJ7" t="n">
-        <v>1.432062890671659e-05</v>
+        <v>3.772630918774666e-08</v>
       </c>
       <c r="FK7" t="n">
-        <v>1.087713917513611e-05</v>
+        <v>1.654223922287201e-07</v>
       </c>
       <c r="FL7" t="n">
-        <v>1.243551378138363e-05</v>
+        <v>2.364076294725237e-07</v>
       </c>
       <c r="FM7" t="n">
-        <v>1.790423630154692e-05</v>
+        <v>9.80527232741224e-08</v>
       </c>
       <c r="FN7" t="n">
-        <v>1.882366996142082e-05</v>
+        <v>4.461921321308182e-08</v>
       </c>
       <c r="FO7" t="n">
-        <v>1.81148607225623e-07</v>
+        <v>3.534549080086435e-07</v>
       </c>
       <c r="FP7" t="n">
-        <v>1.701973246781563e-06</v>
+        <v>1.087030057078664e-07</v>
       </c>
       <c r="FQ7" t="n">
-        <v>4.13122761528939e-05</v>
+        <v>1.102474470826564e-06</v>
       </c>
       <c r="FR7" t="n">
-        <v>3.714437070811982e-06</v>
+        <v>5.305274797251514e-08</v>
       </c>
       <c r="FS7" t="n">
-        <v>1.818142118281685e-05</v>
+        <v>1.407374128348238e-08</v>
       </c>
       <c r="FT7" t="n">
-        <v>1.48147955769673e-05</v>
+        <v>8.69114444412844e-07</v>
       </c>
       <c r="FU7" t="n">
-        <v>2.894884801207809e-06</v>
+        <v>1.875681761021042e-07</v>
       </c>
       <c r="FV7" t="n">
-        <v>8.727282875042874e-06</v>
+        <v>3.142299362934864e-07</v>
       </c>
       <c r="FW7" t="n">
-        <v>1.166850506706396e-05</v>
+        <v>1.362311934371974e-07</v>
       </c>
       <c r="FX7" t="n">
-        <v>2.696137380553409e-05</v>
+        <v>3.600960951644083e-07</v>
       </c>
       <c r="FY7" t="n">
-        <v>1.860207703430206e-05</v>
+        <v>2.926927891166997e-07</v>
       </c>
       <c r="FZ7" t="n">
-        <v>1.581457945576403e-05</v>
+        <v>3.717861147833901e-07</v>
       </c>
       <c r="GA7" t="n">
-        <v>3.567701241991017e-06</v>
+        <v>3.718093566362768e-08</v>
       </c>
       <c r="GB7" t="n">
-        <v>3.089912934228778e-05</v>
+        <v>1.720542144312276e-07</v>
       </c>
       <c r="GC7" t="n">
-        <v>1.467160836909898e-05</v>
+        <v>7.753134241283988e-07</v>
       </c>
       <c r="GD7" t="n">
-        <v>7.970329534146003e-06</v>
+        <v>2.634722022776259e-07</v>
       </c>
       <c r="GE7" t="n">
-        <v>6.029153610143112e-06</v>
+        <v>1.852267530466634e-07</v>
       </c>
       <c r="GF7" t="n">
-        <v>1.134229387389496e-05</v>
+        <v>8.399109674428473e-08</v>
       </c>
       <c r="GG7" t="n">
-        <v>2.489088001311757e-05</v>
+        <v>2.413865161088324e-07</v>
       </c>
     </row>
     <row r="8">
@@ -4987,5123 +4987,5123 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.0001251724024768919</v>
+        <v>0.0006512075779028237</v>
       </c>
       <c r="B9" t="n">
-        <v>0.000134474306832999</v>
+        <v>0.005317140836268663</v>
       </c>
       <c r="C9" t="n">
-        <v>7.382967851299327e-06</v>
+        <v>0.0003693675971589983</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0001588731975061819</v>
+        <v>0.004718473646789789</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0001758072467055172</v>
+        <v>0.002968274988234043</v>
       </c>
       <c r="F9" t="n">
-        <v>7.213088974822313e-05</v>
+        <v>0.001759112812578678</v>
       </c>
       <c r="G9" t="n">
-        <v>3.013259265571833e-05</v>
+        <v>0.0005268803797662258</v>
       </c>
       <c r="H9" t="n">
-        <v>2.823633076332044e-05</v>
+        <v>0.0002277616295032203</v>
       </c>
       <c r="I9" t="n">
-        <v>7.188622839748859e-05</v>
+        <v>0.001683470327407122</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0001071380756911822</v>
+        <v>0.001066432800143957</v>
       </c>
       <c r="K9" t="n">
-        <v>7.454437582055107e-05</v>
+        <v>0.00417618453502655</v>
       </c>
       <c r="L9" t="n">
-        <v>3.318567178212106e-05</v>
+        <v>0.0001735893019940704</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0001354406122118235</v>
+        <v>0.00353641202673316</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0002179810835514218</v>
+        <v>0.003348757745698094</v>
       </c>
       <c r="O9" t="n">
-        <v>4.801848990609869e-05</v>
+        <v>0.002333198674023151</v>
       </c>
       <c r="P9" t="n">
-        <v>1.219831028720364e-05</v>
+        <v>0.001037425361573696</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.0001726720802253112</v>
+        <v>0.0005592547822743654</v>
       </c>
       <c r="R9" t="n">
-        <v>2.872362529160455e-05</v>
+        <v>0.001544812577776611</v>
       </c>
       <c r="S9" t="n">
-        <v>2.227333607152104e-05</v>
+        <v>0.0002453179622534662</v>
       </c>
       <c r="T9" t="n">
-        <v>1.444951067242073e-05</v>
+        <v>0.0004799829912371933</v>
       </c>
       <c r="U9" t="n">
-        <v>8.396191333304159e-06</v>
+        <v>0.0004502465890254825</v>
       </c>
       <c r="V9" t="n">
-        <v>1.627720121177845e-05</v>
+        <v>0.001518726348876953</v>
       </c>
       <c r="W9" t="n">
-        <v>0.0002002687106141821</v>
+        <v>0.002501139417290688</v>
       </c>
       <c r="X9" t="n">
-        <v>7.873830327298492e-05</v>
+        <v>0.0004529670695774257</v>
       </c>
       <c r="Y9" t="n">
-        <v>7.050475687719882e-07</v>
+        <v>0.001185848843306303</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.0001420290936948732</v>
+        <v>0.001148523995652795</v>
       </c>
       <c r="AA9" t="n">
-        <v>4.195435758447275e-05</v>
+        <v>0.001042815507389605</v>
       </c>
       <c r="AB9" t="n">
-        <v>3.897903661709279e-05</v>
+        <v>0.0007121103117242455</v>
       </c>
       <c r="AC9" t="n">
-        <v>4.115923366043717e-05</v>
+        <v>0.0003130733966827393</v>
       </c>
       <c r="AD9" t="n">
-        <v>3.324744466226548e-05</v>
+        <v>0.0005574298556894064</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.0001032811560435221</v>
+        <v>0.0007845967775210738</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.769078466575593e-05</v>
+        <v>0.001378012006171048</v>
       </c>
       <c r="AG9" t="n">
-        <v>5.469575262395665e-05</v>
+        <v>0.00153528549708426</v>
       </c>
       <c r="AH9" t="n">
-        <v>4.060447463416494e-05</v>
+        <v>0.0003908709622919559</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.0001121687673730776</v>
+        <v>0.0003556936571840197</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1.654031984799076e-05</v>
+        <v>0.000457148824352771</v>
       </c>
       <c r="AK9" t="n">
-        <v>1.986170536838472e-05</v>
+        <v>6.512441905215383e-05</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.0001050451028277166</v>
+        <v>0.0006140697514638305</v>
       </c>
       <c r="AM9" t="n">
-        <v>1.876808164524846e-05</v>
+        <v>0.0003461820015218109</v>
       </c>
       <c r="AN9" t="n">
-        <v>7.458979962393641e-05</v>
+        <v>2.889574534492567e-05</v>
       </c>
       <c r="AO9" t="n">
-        <v>2.636616954987403e-05</v>
+        <v>0.001301411539316177</v>
       </c>
       <c r="AP9" t="n">
-        <v>2.57318934018258e-05</v>
+        <v>0.0006529064849019051</v>
       </c>
       <c r="AQ9" t="n">
-        <v>2.507226054149214e-05</v>
+        <v>0.0001817268057493493</v>
       </c>
       <c r="AR9" t="n">
-        <v>2.898084130720235e-05</v>
+        <v>0.0004656121891457587</v>
       </c>
       <c r="AS9" t="n">
-        <v>5.085773227619939e-05</v>
+        <v>0.001191844115965068</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.255206007044762e-05</v>
+        <v>0.0005614012479782104</v>
       </c>
       <c r="AU9" t="n">
-        <v>4.272258229320869e-05</v>
+        <v>0.002150889253243804</v>
       </c>
       <c r="AV9" t="n">
-        <v>1.937252454808913e-05</v>
+        <v>0.000490246107801795</v>
       </c>
       <c r="AW9" t="n">
-        <v>1.660465932218358e-05</v>
+        <v>0.001964777708053589</v>
       </c>
       <c r="AX9" t="n">
-        <v>5.044164572609589e-05</v>
+        <v>0.002089235233142972</v>
       </c>
       <c r="AY9" t="n">
-        <v>8.813735621515661e-05</v>
+        <v>0.002329185605049133</v>
       </c>
       <c r="AZ9" t="n">
-        <v>6.410112109733745e-05</v>
+        <v>0.001105255680158734</v>
       </c>
       <c r="BA9" t="n">
-        <v>4.727652412839234e-05</v>
+        <v>0.001760349958203733</v>
       </c>
       <c r="BB9" t="n">
-        <v>4.32814376836177e-05</v>
+        <v>0.001283469144254923</v>
       </c>
       <c r="BC9" t="n">
-        <v>6.005561226629652e-05</v>
+        <v>0.001096403691917658</v>
       </c>
       <c r="BD9" t="n">
-        <v>1.841150515247136e-05</v>
+        <v>0.0009568204404786229</v>
       </c>
       <c r="BE9" t="n">
-        <v>2.598040373413824e-05</v>
+        <v>0.001154001103714108</v>
       </c>
       <c r="BF9" t="n">
-        <v>0.000176988571183756</v>
+        <v>0.0007535754702985287</v>
       </c>
       <c r="BG9" t="n">
-        <v>8.37676489027217e-05</v>
+        <v>0.001445222413167357</v>
       </c>
       <c r="BH9" t="n">
-        <v>1.216362215927802e-05</v>
+        <v>0.0004899103660136461</v>
       </c>
       <c r="BI9" t="n">
-        <v>3.738172381417826e-05</v>
+        <v>0.001432474004104733</v>
       </c>
       <c r="BJ9" t="n">
-        <v>1.627755409572273e-05</v>
+        <v>0.00030024244915694</v>
       </c>
       <c r="BK9" t="n">
-        <v>9.76101728156209e-05</v>
+        <v>0.0009584336075931787</v>
       </c>
       <c r="BL9" t="n">
-        <v>1.156401413027197e-05</v>
+        <v>0.0006218990311026573</v>
       </c>
       <c r="BM9" t="n">
-        <v>4.401977639645338e-05</v>
+        <v>0.0002315830352017656</v>
       </c>
       <c r="BN9" t="n">
-        <v>3.921539973816834e-05</v>
+        <v>0.0004743939207401127</v>
       </c>
       <c r="BO9" t="n">
-        <v>2.691219742700923e-05</v>
+        <v>9.914743714034557e-05</v>
       </c>
       <c r="BP9" t="n">
-        <v>4.462882134248503e-05</v>
+        <v>0.0001314244436798617</v>
       </c>
       <c r="BQ9" t="n">
-        <v>3.69466288248077e-05</v>
+        <v>0.0005168041680008173</v>
       </c>
       <c r="BR9" t="n">
-        <v>1.698645064607263e-06</v>
+        <v>0.0002589107607491314</v>
       </c>
       <c r="BS9" t="n">
-        <v>3.029052459169179e-05</v>
+        <v>0.0006083599291741848</v>
       </c>
       <c r="BT9" t="n">
-        <v>2.414842674625106e-05</v>
+        <v>0.0002467186423018575</v>
       </c>
       <c r="BU9" t="n">
-        <v>6.522862349811476e-06</v>
+        <v>0.0004378681187517941</v>
       </c>
       <c r="BV9" t="n">
-        <v>4.996555071556941e-05</v>
+        <v>0.001512240269221365</v>
       </c>
       <c r="BW9" t="n">
-        <v>3.236685006413609e-05</v>
+        <v>0.0004206711892038584</v>
       </c>
       <c r="BX9" t="n">
-        <v>9.794758807402104e-05</v>
+        <v>0.002173557179048657</v>
       </c>
       <c r="BY9" t="n">
-        <v>6.101436156313866e-06</v>
+        <v>0.001998206367716193</v>
       </c>
       <c r="BZ9" t="n">
-        <v>7.969609214342199e-06</v>
+        <v>0.0004330850497353822</v>
       </c>
       <c r="CA9" t="n">
-        <v>4.264289600541815e-05</v>
+        <v>0.0004853187710978091</v>
       </c>
       <c r="CB9" t="n">
-        <v>9.393606887897477e-05</v>
+        <v>0.001211583032272756</v>
       </c>
       <c r="CC9" t="n">
-        <v>1.98983216250781e-05</v>
+        <v>0.00140829652082175</v>
       </c>
       <c r="CD9" t="n">
-        <v>1.344122483715182e-05</v>
+        <v>9.823198342928663e-05</v>
       </c>
       <c r="CE9" t="n">
-        <v>2.457993468851782e-05</v>
+        <v>0.0008282314520329237</v>
       </c>
       <c r="CF9" t="n">
-        <v>1.272792542295065e-05</v>
+        <v>0.0006525097996927798</v>
       </c>
       <c r="CG9" t="n">
-        <v>3.554343493306078e-05</v>
+        <v>0.0007600377430208027</v>
       </c>
       <c r="CH9" t="n">
-        <v>5.967179095023312e-05</v>
+        <v>0.0004986735293641686</v>
       </c>
       <c r="CI9" t="n">
-        <v>3.575529262889177e-05</v>
+        <v>0.0002970092464238405</v>
       </c>
       <c r="CJ9" t="n">
-        <v>5.268479071673937e-06</v>
+        <v>0.00017558217223268</v>
       </c>
       <c r="CK9" t="n">
-        <v>1.672389225859661e-05</v>
+        <v>6.584226503036916e-05</v>
       </c>
       <c r="CL9" t="n">
-        <v>1.178559614345431e-06</v>
+        <v>0.0003004223690368235</v>
       </c>
       <c r="CM9" t="n">
-        <v>2.826468517014291e-05</v>
+        <v>0.0006440261495299637</v>
       </c>
       <c r="CN9" t="n">
-        <v>0.0001089235738618299</v>
+        <v>0.001045005046762526</v>
       </c>
       <c r="CO9" t="n">
-        <v>2.996974399138708e-05</v>
+        <v>8.581403380958363e-05</v>
       </c>
       <c r="CP9" t="n">
-        <v>0.0001554305345052853</v>
+        <v>4.600382089847699e-05</v>
       </c>
       <c r="CQ9" t="n">
-        <v>4.434397123986855e-05</v>
+        <v>0.000690838904120028</v>
       </c>
       <c r="CR9" t="n">
-        <v>0.0001168379531009123</v>
+        <v>0.0009057614952325821</v>
       </c>
       <c r="CS9" t="n">
-        <v>2.87526345346123e-05</v>
+        <v>0.001083614537492394</v>
       </c>
       <c r="CT9" t="n">
-        <v>3.377351822564378e-05</v>
+        <v>0.001682557049207389</v>
       </c>
       <c r="CU9" t="n">
-        <v>9.892295202007517e-05</v>
+        <v>0.0004714973038062453</v>
       </c>
       <c r="CV9" t="n">
-        <v>2.413486799923703e-05</v>
+        <v>4.74790831503924e-05</v>
       </c>
       <c r="CW9" t="n">
-        <v>4.223701398586854e-05</v>
+        <v>0.0008532745414413512</v>
       </c>
       <c r="CX9" t="n">
-        <v>1.089171928470023e-05</v>
+        <v>0.0005855370545759797</v>
       </c>
       <c r="CY9" t="n">
-        <v>2.149965439457446e-05</v>
+        <v>0.0008117466350086033</v>
       </c>
       <c r="CZ9" t="n">
-        <v>5.09825513290707e-05</v>
+        <v>0.0005019387463107705</v>
       </c>
       <c r="DA9" t="n">
-        <v>3.694126644404605e-05</v>
+        <v>0.0003340294933877885</v>
       </c>
       <c r="DB9" t="n">
-        <v>3.560619461495662e-06</v>
+        <v>0.0002918751270044595</v>
       </c>
       <c r="DC9" t="n">
-        <v>2.665970896487124e-06</v>
+        <v>0.0001565915299579501</v>
       </c>
       <c r="DD9" t="n">
-        <v>1.393092861690093e-05</v>
+        <v>0.0002806236443575472</v>
       </c>
       <c r="DE9" t="n">
-        <v>9.388440230395645e-05</v>
+        <v>0.0002298519393661991</v>
       </c>
       <c r="DF9" t="n">
-        <v>2.256863263028208e-05</v>
+        <v>0.001032380270771682</v>
       </c>
       <c r="DG9" t="n">
-        <v>5.206022979109548e-05</v>
+        <v>0.0003260562370996922</v>
       </c>
       <c r="DH9" t="n">
-        <v>8.740831981413066e-05</v>
+        <v>0.002979034557938576</v>
       </c>
       <c r="DI9" t="n">
-        <v>6.523384945467114e-05</v>
+        <v>0.0007504353416152298</v>
       </c>
       <c r="DJ9" t="n">
-        <v>0.0001302923483308405</v>
+        <v>0.00112054031342268</v>
       </c>
       <c r="DK9" t="n">
-        <v>3.407971962587908e-05</v>
+        <v>0.0001225023588631302</v>
       </c>
       <c r="DL9" t="n">
-        <v>0.000165971607202664</v>
+        <v>0.0003889749059453607</v>
       </c>
       <c r="DM9" t="n">
-        <v>3.247292625019327e-05</v>
+        <v>0.0004538687062449753</v>
       </c>
       <c r="DN9" t="n">
-        <v>2.383857645327225e-05</v>
+        <v>0.0001676344982115552</v>
       </c>
       <c r="DO9" t="n">
-        <v>9.38007578952238e-05</v>
+        <v>0.0005945259472355247</v>
       </c>
       <c r="DP9" t="n">
-        <v>2.735727321123704e-05</v>
+        <v>0.0002262795460410416</v>
       </c>
       <c r="DQ9" t="n">
-        <v>7.327481398533564e-06</v>
+        <v>0.000800914189312607</v>
       </c>
       <c r="DR9" t="n">
-        <v>6.223865784704685e-05</v>
+        <v>0.0001348202058579773</v>
       </c>
       <c r="DS9" t="n">
-        <v>3.63537128578173e-06</v>
+        <v>0.0005945572629570961</v>
       </c>
       <c r="DT9" t="n">
-        <v>2.127460902556777e-06</v>
+        <v>0.0003654505708254874</v>
       </c>
       <c r="DU9" t="n">
-        <v>4.343888576840982e-06</v>
+        <v>3.770742296183016e-06</v>
       </c>
       <c r="DV9" t="n">
-        <v>5.387845158111304e-05</v>
+        <v>0.001196440425701439</v>
       </c>
       <c r="DW9" t="n">
-        <v>2.340379433007911e-05</v>
+        <v>0.0004709769273176789</v>
       </c>
       <c r="DX9" t="n">
-        <v>6.676675548078492e-05</v>
+        <v>0.0002744577650446445</v>
       </c>
       <c r="DY9" t="n">
-        <v>9.684094038675539e-06</v>
+        <v>0.0004440620832610875</v>
       </c>
       <c r="DZ9" t="n">
-        <v>2.72622437478276e-05</v>
+        <v>0.0008987128967419267</v>
       </c>
       <c r="EA9" t="n">
-        <v>7.987789285834879e-05</v>
+        <v>0.001027771388180554</v>
       </c>
       <c r="EB9" t="n">
-        <v>1.460325074731372e-05</v>
+        <v>6.384820881066844e-05</v>
       </c>
       <c r="EC9" t="n">
-        <v>1.917070403578691e-05</v>
+        <v>0.0004895346355624497</v>
       </c>
       <c r="ED9" t="n">
-        <v>2.49964723479934e-05</v>
+        <v>0.0001156118596554734</v>
       </c>
       <c r="EE9" t="n">
-        <v>3.650456710602157e-05</v>
+        <v>0.0002945471205748618</v>
       </c>
       <c r="EF9" t="n">
-        <v>3.371356069692411e-05</v>
+        <v>0.0004067406116519123</v>
       </c>
       <c r="EG9" t="n">
-        <v>5.951877938059624e-06</v>
+        <v>0.0002048835303867236</v>
       </c>
       <c r="EH9" t="n">
-        <v>7.91615093476139e-06</v>
+        <v>0.0006816113600507379</v>
       </c>
       <c r="EI9" t="n">
-        <v>4.55891240562778e-05</v>
+        <v>0.0001961294037755579</v>
       </c>
       <c r="EJ9" t="n">
-        <v>8.251435065176338e-05</v>
+        <v>0.0009884771425276995</v>
       </c>
       <c r="EK9" t="n">
-        <v>5.80015403102152e-05</v>
+        <v>0.000362158811185509</v>
       </c>
       <c r="EL9" t="n">
-        <v>2.856596984202042e-05</v>
+        <v>0.0003282413817942142</v>
       </c>
       <c r="EM9" t="n">
-        <v>2.635634336911608e-05</v>
+        <v>8.975847595138475e-05</v>
       </c>
       <c r="EN9" t="n">
-        <v>2.71274820988765e-05</v>
+        <v>3.315089270472527e-05</v>
       </c>
       <c r="EO9" t="n">
-        <v>6.820946873631328e-05</v>
+        <v>3.088396624661982e-06</v>
       </c>
       <c r="EP9" t="n">
-        <v>5.9081896324642e-05</v>
+        <v>0.0007543032406829298</v>
       </c>
       <c r="EQ9" t="n">
-        <v>3.699515946209431e-05</v>
+        <v>0.0003911229141522199</v>
       </c>
       <c r="ER9" t="n">
-        <v>2.475405926816165e-05</v>
+        <v>0.0001485457760281861</v>
       </c>
       <c r="ES9" t="n">
-        <v>2.361229962843936e-05</v>
+        <v>1.761190651450306e-05</v>
       </c>
       <c r="ET9" t="n">
-        <v>6.263369414227782e-06</v>
+        <v>0.0018222585786134</v>
       </c>
       <c r="EU9" t="n">
-        <v>2.084654443024192e-05</v>
+        <v>0.001244345679879189</v>
       </c>
       <c r="EV9" t="n">
-        <v>8.998079283628613e-05</v>
+        <v>0.0006717739161103964</v>
       </c>
       <c r="EW9" t="n">
-        <v>3.85769599233754e-05</v>
+        <v>0.0001177300291601568</v>
       </c>
       <c r="EX9" t="n">
-        <v>2.027610935328994e-05</v>
+        <v>0.0002003542322199792</v>
       </c>
       <c r="EY9" t="n">
-        <v>1.179649098048685e-05</v>
+        <v>0.0006659762584604323</v>
       </c>
       <c r="EZ9" t="n">
-        <v>1.031972715281881e-05</v>
+        <v>0.0004330913652665913</v>
       </c>
       <c r="FA9" t="n">
-        <v>2.561578912718687e-05</v>
+        <v>0.0009912218665704131</v>
       </c>
       <c r="FB9" t="n">
-        <v>6.871260120533407e-05</v>
+        <v>0.0003946488432120532</v>
       </c>
       <c r="FC9" t="n">
-        <v>2.458306153130252e-05</v>
+        <v>0.0003738651284947991</v>
       </c>
       <c r="FD9" t="n">
-        <v>7.703443770878948e-06</v>
+        <v>0.0004029172705486417</v>
       </c>
       <c r="FE9" t="n">
-        <v>4.633582648239098e-06</v>
+        <v>0.0002305373200215399</v>
       </c>
       <c r="FF9" t="n">
-        <v>2.688676977413706e-05</v>
+        <v>0.0006178484763950109</v>
       </c>
       <c r="FG9" t="n">
-        <v>4.169621388427913e-05</v>
+        <v>5.379799767979421e-05</v>
       </c>
       <c r="FH9" t="n">
-        <v>2.759711787803099e-05</v>
+        <v>0.0002395112678641453</v>
       </c>
       <c r="FI9" t="n">
-        <v>5.99267877987586e-06</v>
+        <v>0.0001520969090051949</v>
       </c>
       <c r="FJ9" t="n">
-        <v>2.670775938895531e-05</v>
+        <v>0.0003741365508176386</v>
       </c>
       <c r="FK9" t="n">
-        <v>8.314593287650496e-05</v>
+        <v>0.001161472173407674</v>
       </c>
       <c r="FL9" t="n">
-        <v>6.029921496519819e-05</v>
+        <v>0.0003318012459203601</v>
       </c>
       <c r="FM9" t="n">
-        <v>4.38422939623706e-05</v>
+        <v>6.382644642144442e-05</v>
       </c>
       <c r="FN9" t="n">
-        <v>4.64962467958685e-05</v>
+        <v>0.0004004788352176547</v>
       </c>
       <c r="FO9" t="n">
-        <v>4.988461660104804e-05</v>
+        <v>0.000105117738712579</v>
       </c>
       <c r="FP9" t="n">
-        <v>1.015526504488662e-05</v>
+        <v>0.0006595187587663531</v>
       </c>
       <c r="FQ9" t="n">
-        <v>4.45236437371932e-05</v>
+        <v>0.0007639754330739379</v>
       </c>
       <c r="FR9" t="n">
-        <v>4.052031727042049e-06</v>
+        <v>0.0009276457712985575</v>
       </c>
       <c r="FS9" t="n">
-        <v>2.329584094695747e-05</v>
+        <v>2.076791133731604e-05</v>
       </c>
       <c r="FT9" t="n">
-        <v>0.0002287066163262352</v>
+        <v>0.000351494294591248</v>
       </c>
       <c r="FU9" t="n">
-        <v>4.861246998189017e-05</v>
+        <v>0.0005283195059746504</v>
       </c>
       <c r="FV9" t="n">
-        <v>4.294044629205018e-06</v>
+        <v>0.0004888145485892892</v>
       </c>
       <c r="FW9" t="n">
-        <v>1.94426866073627e-05</v>
+        <v>0.0002304695663042367</v>
       </c>
       <c r="FX9" t="n">
-        <v>1.661050191614777e-06</v>
+        <v>0.0002035351644735783</v>
       </c>
       <c r="FY9" t="n">
-        <v>3.483871842036024e-05</v>
+        <v>0.000962808495387435</v>
       </c>
       <c r="FZ9" t="n">
-        <v>4.126718704355881e-05</v>
+        <v>0.0002567066985648125</v>
       </c>
       <c r="GA9" t="n">
-        <v>3.927825309801847e-05</v>
+        <v>0.0007662284187972546</v>
       </c>
       <c r="GB9" t="n">
-        <v>3.768226815736853e-05</v>
+        <v>0.0001176474906969815</v>
       </c>
       <c r="GC9" t="n">
-        <v>3.406519681448117e-05</v>
+        <v>0.001317539252340794</v>
       </c>
       <c r="GD9" t="n">
-        <v>1.171375333797187e-05</v>
+        <v>0.0005642649484798312</v>
       </c>
       <c r="GE9" t="n">
-        <v>9.486981980444398e-06</v>
+        <v>0.002702484140172601</v>
       </c>
       <c r="GF9" t="n">
-        <v>6.373464566422626e-05</v>
+        <v>0.0006377914687618613</v>
       </c>
       <c r="GG9" t="n">
-        <v>3.401602953090332e-05</v>
+        <v>0.0002861536631826311</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.003273052629083395</v>
+        <v>0.01261211186647415</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0001051012659445405</v>
+        <v>0.02086189948022366</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002336289267987013</v>
+        <v>0.005579558201134205</v>
       </c>
       <c r="D10" t="n">
-        <v>0.00073643634095788</v>
+        <v>0.009372102096676826</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01693328283727169</v>
+        <v>0.01700983755290508</v>
       </c>
       <c r="F10" t="n">
-        <v>0.03386006504297256</v>
+        <v>0.0169663168489933</v>
       </c>
       <c r="G10" t="n">
-        <v>0.003895699512213469</v>
+        <v>0.001231450471095741</v>
       </c>
       <c r="H10" t="n">
-        <v>0.009951645508408546</v>
+        <v>0.00921245664358139</v>
       </c>
       <c r="I10" t="n">
-        <v>0.007063374388962984</v>
+        <v>0.001458343933336437</v>
       </c>
       <c r="J10" t="n">
-        <v>0.003225449472665787</v>
+        <v>0.01375800743699074</v>
       </c>
       <c r="K10" t="n">
-        <v>0.006823109928518534</v>
+        <v>0.02015603147447109</v>
       </c>
       <c r="L10" t="n">
-        <v>0.003927361220121384</v>
+        <v>0.003394978120923042</v>
       </c>
       <c r="M10" t="n">
-        <v>0.008730378001928329</v>
+        <v>0.003421136178076267</v>
       </c>
       <c r="N10" t="n">
-        <v>0.01362430304288864</v>
+        <v>0.005181808024644852</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01650212705135345</v>
+        <v>0.007416102103888988</v>
       </c>
       <c r="P10" t="n">
-        <v>0.002030333038419485</v>
+        <v>0.005298207979649305</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.008624838665127754</v>
+        <v>0.01064077951014042</v>
       </c>
       <c r="R10" t="n">
-        <v>0.001454593846574426</v>
+        <v>0.001538942684419453</v>
       </c>
       <c r="S10" t="n">
-        <v>0.001916730543598533</v>
+        <v>0.003538226243108511</v>
       </c>
       <c r="T10" t="n">
-        <v>0.001089311903342605</v>
+        <v>0.0006516468711197376</v>
       </c>
       <c r="U10" t="n">
-        <v>0.004135352559387684</v>
+        <v>0.0005258283345028758</v>
       </c>
       <c r="V10" t="n">
-        <v>0.004695834126323462</v>
+        <v>0.005418590735644102</v>
       </c>
       <c r="W10" t="n">
-        <v>0.001743342494592071</v>
+        <v>0.01064282841980457</v>
       </c>
       <c r="X10" t="n">
-        <v>0.009535178542137146</v>
+        <v>0.0004799099115189165</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.007764639798551798</v>
+        <v>0.005394387990236282</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.005931468680500984</v>
+        <v>0.0007034171721898019</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.0006854289094917476</v>
+        <v>0.0004427664680406451</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.0005807768902741373</v>
+        <v>0.004401856567710638</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.004942222498357296</v>
+        <v>0.001626859069801867</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.00101390341296792</v>
+        <v>0.0007457607425749302</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.009742503985762596</v>
+        <v>0.0009809683542698622</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.003559362841770053</v>
+        <v>0.001694524195045233</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.0002136424591299146</v>
+        <v>0.006105479784309864</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.0001281676813960075</v>
+        <v>0.001004792982712388</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.008749173022806644</v>
+        <v>0.006167308893054724</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.003143847920000553</v>
+        <v>0.001560391159728169</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.0001282153534702957</v>
+        <v>0.001913659740239382</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.006418388802558184</v>
+        <v>0.0008657005382701755</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.003153841476887465</v>
+        <v>0.001638478832319379</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.00722595676779747</v>
+        <v>0.001251121866516769</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.003626305377110839</v>
+        <v>0.003300145268440247</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.005201276857405901</v>
+        <v>0.006428420078009367</v>
       </c>
       <c r="AQ10" t="n">
-        <v>3.375735832378268e-05</v>
+        <v>0.001901969430036843</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.002209650119766593</v>
+        <v>0.001787934568710625</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.0005777856567874551</v>
+        <v>0.003231678623706102</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.0005571120418608189</v>
+        <v>5.897425580769777e-05</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.000586796784773469</v>
+        <v>0.001714420970529318</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.006802467629313469</v>
+        <v>0.005820406135171652</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.009778492152690887</v>
+        <v>0.0004207227320875973</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.0193092655390501</v>
+        <v>0.0175697673112154</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.01021456718444824</v>
+        <v>0.02003978192806244</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.01068268902599812</v>
+        <v>0.002028929768130183</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.01444223430007696</v>
+        <v>0.004406161606311798</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.004297834821045399</v>
+        <v>0.01011479645967484</v>
       </c>
       <c r="BC10" t="n">
-        <v>0.0008036247454583645</v>
+        <v>0.01412829849869013</v>
       </c>
       <c r="BD10" t="n">
-        <v>0.005367432720959187</v>
+        <v>0.004727558232843876</v>
       </c>
       <c r="BE10" t="n">
-        <v>0.0002072026254609227</v>
+        <v>0.002696714131161571</v>
       </c>
       <c r="BF10" t="n">
-        <v>0.005587429739534855</v>
+        <v>0.001293038716539741</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.001148082199506462</v>
+        <v>0.003922367002815008</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.0009286224376410246</v>
+        <v>2.394337207078934e-05</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.004433920606970787</v>
+        <v>0.00160495878662914</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.004160829354077578</v>
+        <v>0.008673660457134247</v>
       </c>
       <c r="BK10" t="n">
-        <v>0.001179200829938054</v>
+        <v>0.002625187393277884</v>
       </c>
       <c r="BL10" t="n">
-        <v>0.0008295416482724249</v>
+        <v>0.00599181279540062</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.005136991385370493</v>
+        <v>0.0032549649477005</v>
       </c>
       <c r="BN10" t="n">
-        <v>0.004898872226476669</v>
+        <v>0.00453563965857029</v>
       </c>
       <c r="BO10" t="n">
-        <v>0.0009365745354443789</v>
+        <v>0.003920399118214846</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.0007166719296947122</v>
+        <v>0.005489237606525421</v>
       </c>
       <c r="BQ10" t="n">
-        <v>0.004623814951628447</v>
+        <v>0.00352163752540946</v>
       </c>
       <c r="BR10" t="n">
-        <v>0.002501756884157658</v>
+        <v>0.001701253466308117</v>
       </c>
       <c r="BS10" t="n">
-        <v>0.003823010250926018</v>
+        <v>0.0002339586499147117</v>
       </c>
       <c r="BT10" t="n">
-        <v>0.00447140634059906</v>
+        <v>0.005430013407021761</v>
       </c>
       <c r="BU10" t="n">
-        <v>0.001418337225914001</v>
+        <v>4.846032243221998e-05</v>
       </c>
       <c r="BV10" t="n">
-        <v>0.002031580545008183</v>
+        <v>0.004069952294230461</v>
       </c>
       <c r="BW10" t="n">
-        <v>0.001088274177163839</v>
+        <v>0.002218362409621477</v>
       </c>
       <c r="BX10" t="n">
-        <v>0.01208722684532404</v>
+        <v>0.006636807229369879</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.02471576444804668</v>
+        <v>0.01480857655405998</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0.01259374152868986</v>
+        <v>0.00466585299000144</v>
       </c>
       <c r="CA10" t="n">
-        <v>0.003011971013620496</v>
+        <v>0.0007924600504338741</v>
       </c>
       <c r="CB10" t="n">
-        <v>0.007950608618557453</v>
+        <v>2.462649717926979e-06</v>
       </c>
       <c r="CC10" t="n">
-        <v>0.002624151762574911</v>
+        <v>0.003464786801487207</v>
       </c>
       <c r="CD10" t="n">
-        <v>0.0003564820508472621</v>
+        <v>0.0001494198804721236</v>
       </c>
       <c r="CE10" t="n">
-        <v>0.005807557608932257</v>
+        <v>0.003645357210189104</v>
       </c>
       <c r="CF10" t="n">
-        <v>0.00121054716873914</v>
+        <v>0.001059207250364125</v>
       </c>
       <c r="CG10" t="n">
-        <v>0.001427304581739008</v>
+        <v>0.001608257880434394</v>
       </c>
       <c r="CH10" t="n">
-        <v>0.003429970005527139</v>
+        <v>0.0002339251950616017</v>
       </c>
       <c r="CI10" t="n">
-        <v>0.001800743280909956</v>
+        <v>0.002362794242799282</v>
       </c>
       <c r="CJ10" t="n">
-        <v>0.0007442097412422299</v>
+        <v>3.782883868552744e-05</v>
       </c>
       <c r="CK10" t="n">
-        <v>0.003920869901776314</v>
+        <v>0.0005565386964008212</v>
       </c>
       <c r="CL10" t="n">
-        <v>0.0003545778163243085</v>
+        <v>0.004565517418086529</v>
       </c>
       <c r="CM10" t="n">
-        <v>0.001849635620601475</v>
+        <v>0.0005923693533986807</v>
       </c>
       <c r="CN10" t="n">
-        <v>0.002640849445015192</v>
+        <v>0.007437196094542742</v>
       </c>
       <c r="CO10" t="n">
-        <v>0.006775091867893934</v>
+        <v>0.00030486736795865</v>
       </c>
       <c r="CP10" t="n">
-        <v>0.01131323631852865</v>
+        <v>0.001548717613331974</v>
       </c>
       <c r="CQ10" t="n">
-        <v>0.0152680603787303</v>
+        <v>0.002085122046992183</v>
       </c>
       <c r="CR10" t="n">
-        <v>0.003429067321121693</v>
+        <v>0.005000034347176552</v>
       </c>
       <c r="CS10" t="n">
-        <v>0.001569752581417561</v>
+        <v>0.002689558081328869</v>
       </c>
       <c r="CT10" t="n">
-        <v>0.005252309143543243</v>
+        <v>0.002334419172257185</v>
       </c>
       <c r="CU10" t="n">
-        <v>0.0006205574609339237</v>
+        <v>0.0036944430321455</v>
       </c>
       <c r="CV10" t="n">
-        <v>0.0001905170502141118</v>
+        <v>0.0001355161366518587</v>
       </c>
       <c r="CW10" t="n">
-        <v>0.00512749282643199</v>
+        <v>0.003523144405335188</v>
       </c>
       <c r="CX10" t="n">
-        <v>0.001725300680845976</v>
+        <v>0.001523561892099679</v>
       </c>
       <c r="CY10" t="n">
-        <v>8.455011993646622e-06</v>
+        <v>0.002825658302754164</v>
       </c>
       <c r="CZ10" t="n">
-        <v>0.0040761549025774</v>
+        <v>0.000233349681366235</v>
       </c>
       <c r="DA10" t="n">
-        <v>0.002616799902170897</v>
+        <v>0.003284589853137732</v>
       </c>
       <c r="DB10" t="n">
-        <v>0.001294289599172771</v>
+        <v>0.0007672603824175894</v>
       </c>
       <c r="DC10" t="n">
-        <v>0.003327984362840652</v>
+        <v>0.0001646059681661427</v>
       </c>
       <c r="DD10" t="n">
-        <v>0.000744517776183784</v>
+        <v>0.003703937865793705</v>
       </c>
       <c r="DE10" t="n">
-        <v>0.000744363758713007</v>
+        <v>0.0002849160227924585</v>
       </c>
       <c r="DF10" t="n">
-        <v>0.007510367780923843</v>
+        <v>0.00831426028162241</v>
       </c>
       <c r="DG10" t="n">
-        <v>0.003769322298467159</v>
+        <v>0.005683512892574072</v>
       </c>
       <c r="DH10" t="n">
-        <v>0.000267554190941155</v>
+        <v>0.01491609122604132</v>
       </c>
       <c r="DI10" t="n">
-        <v>0.001268058316782117</v>
+        <v>0.006365072913467884</v>
       </c>
       <c r="DJ10" t="n">
-        <v>0.0005959696718491614</v>
+        <v>0.004716724157333374</v>
       </c>
       <c r="DK10" t="n">
-        <v>0.002896817633882165</v>
+        <v>0.003928417339920998</v>
       </c>
       <c r="DL10" t="n">
-        <v>0.007402649614959955</v>
+        <v>0.0009726742282509804</v>
       </c>
       <c r="DM10" t="n">
-        <v>0.0005293862195685506</v>
+        <v>0.003486963920295238</v>
       </c>
       <c r="DN10" t="n">
-        <v>0.004136269446462393</v>
+        <v>0.003399946261197329</v>
       </c>
       <c r="DO10" t="n">
-        <v>0.003486295230686665</v>
+        <v>0.003138530999422073</v>
       </c>
       <c r="DP10" t="n">
-        <v>0.004509381018579006</v>
+        <v>0.001235708827152848</v>
       </c>
       <c r="DQ10" t="n">
-        <v>0.01117005571722984</v>
+        <v>0.001945373602211475</v>
       </c>
       <c r="DR10" t="n">
-        <v>0.001216339878737926</v>
+        <v>0.001661101821810007</v>
       </c>
       <c r="DS10" t="n">
-        <v>0.006298088002949953</v>
+        <v>0.006354961544275284</v>
       </c>
       <c r="DT10" t="n">
-        <v>0.001075323321856558</v>
+        <v>0.002573724370449781</v>
       </c>
       <c r="DU10" t="n">
-        <v>0.009369044564664364</v>
+        <v>0.003139378037303686</v>
       </c>
       <c r="DV10" t="n">
-        <v>0.004476467147469521</v>
+        <v>0.004127972759306431</v>
       </c>
       <c r="DW10" t="n">
-        <v>0.0009103133343160152</v>
+        <v>0.003218674566596746</v>
       </c>
       <c r="DX10" t="n">
-        <v>0.003436670871451497</v>
+        <v>0.003918435424566269</v>
       </c>
       <c r="DY10" t="n">
-        <v>0.00492591317743063</v>
+        <v>0.002574522281065583</v>
       </c>
       <c r="DZ10" t="n">
-        <v>0.004108909517526627</v>
+        <v>0.004576947074383497</v>
       </c>
       <c r="EA10" t="n">
-        <v>0.00792422890663147</v>
+        <v>0.009656960144639015</v>
       </c>
       <c r="EB10" t="n">
-        <v>0.005435207393020391</v>
+        <v>0.001132793491706252</v>
       </c>
       <c r="EC10" t="n">
-        <v>0.001907770871184766</v>
+        <v>0.0009605757659301162</v>
       </c>
       <c r="ED10" t="n">
-        <v>0.00371090741828084</v>
+        <v>0.002778152469545603</v>
       </c>
       <c r="EE10" t="n">
-        <v>0.001380262430757284</v>
+        <v>0.002013708697631955</v>
       </c>
       <c r="EF10" t="n">
-        <v>0.0001342911564279348</v>
+        <v>0.00186068587936461</v>
       </c>
       <c r="EG10" t="n">
-        <v>0.001415925566107035</v>
+        <v>0.001167395617812872</v>
       </c>
       <c r="EH10" t="n">
-        <v>0.00305362488143146</v>
+        <v>0.002600627485662699</v>
       </c>
       <c r="EI10" t="n">
-        <v>0.003059353679418564</v>
+        <v>0.0008866009884513915</v>
       </c>
       <c r="EJ10" t="n">
-        <v>0.001168271759524941</v>
+        <v>0.002997845411300659</v>
       </c>
       <c r="EK10" t="n">
-        <v>0.007635264657437801</v>
+        <v>0.00500181270763278</v>
       </c>
       <c r="EL10" t="n">
-        <v>0.001071756239980459</v>
+        <v>0.001188177731819451</v>
       </c>
       <c r="EM10" t="n">
-        <v>0.001318042166531086</v>
+        <v>0.001657054526731372</v>
       </c>
       <c r="EN10" t="n">
-        <v>0.001814418472349644</v>
+        <v>0.003036731388419867</v>
       </c>
       <c r="EO10" t="n">
-        <v>0.001020255265757442</v>
+        <v>0.002570291748270392</v>
       </c>
       <c r="EP10" t="n">
-        <v>0.01050723344087601</v>
+        <v>0.003329304279759526</v>
       </c>
       <c r="EQ10" t="n">
-        <v>0.00044223852455616</v>
+        <v>0.003089454025030136</v>
       </c>
       <c r="ER10" t="n">
-        <v>0.00243327347561717</v>
+        <v>0.0005008401349186897</v>
       </c>
       <c r="ES10" t="n">
-        <v>0.001766550121828914</v>
+        <v>0.001976937055587769</v>
       </c>
       <c r="ET10" t="n">
-        <v>0.004781242925673723</v>
+        <v>0.009437747299671173</v>
       </c>
       <c r="EU10" t="n">
-        <v>0.004355593118816614</v>
+        <v>0.003581826807931066</v>
       </c>
       <c r="EV10" t="n">
-        <v>0.003871812950819731</v>
+        <v>0.0004518232308328152</v>
       </c>
       <c r="EW10" t="n">
-        <v>0.00263401260599494</v>
+        <v>0.001075286651030183</v>
       </c>
       <c r="EX10" t="n">
-        <v>0.0008400153601542115</v>
+        <v>0.0004372001276351511</v>
       </c>
       <c r="EY10" t="n">
-        <v>0.004656893201172352</v>
+        <v>0.003530543996021152</v>
       </c>
       <c r="EZ10" t="n">
-        <v>0.001711928518489003</v>
+        <v>0.0003347480378579348</v>
       </c>
       <c r="FA10" t="n">
-        <v>0.0007035949965938926</v>
+        <v>0.003379771020263433</v>
       </c>
       <c r="FB10" t="n">
-        <v>0.003849565517157316</v>
+        <v>0.0004486741963773966</v>
       </c>
       <c r="FC10" t="n">
-        <v>0.002286033239215612</v>
+        <v>0.00157585518900305</v>
       </c>
       <c r="FD10" t="n">
-        <v>0.0003852906520478427</v>
+        <v>0.0008715866133570671</v>
       </c>
       <c r="FE10" t="n">
-        <v>0.003960292786359787</v>
+        <v>5.993252852931619e-05</v>
       </c>
       <c r="FF10" t="n">
-        <v>0.0001864364458015189</v>
+        <v>0.005088153760880232</v>
       </c>
       <c r="FG10" t="n">
-        <v>0.001856341958045959</v>
+        <v>0.0001392281847074628</v>
       </c>
       <c r="FH10" t="n">
-        <v>0.00384885398671031</v>
+        <v>0.001150951022282243</v>
       </c>
       <c r="FI10" t="n">
-        <v>0.002774480497464538</v>
+        <v>0.0003057583817280829</v>
       </c>
       <c r="FJ10" t="n">
-        <v>0.002050447510555387</v>
+        <v>0.005065246019512415</v>
       </c>
       <c r="FK10" t="n">
-        <v>0.000212336890399456</v>
+        <v>0.002614571247249842</v>
       </c>
       <c r="FL10" t="n">
-        <v>0.007288051303476095</v>
+        <v>0.002393143717199564</v>
       </c>
       <c r="FM10" t="n">
-        <v>0.006007582880556583</v>
+        <v>0.001375501626171172</v>
       </c>
       <c r="FN10" t="n">
-        <v>0.006991991773247719</v>
+        <v>0.001202861778438091</v>
       </c>
       <c r="FO10" t="n">
-        <v>0.002145640552043915</v>
+        <v>0.004021634813398123</v>
       </c>
       <c r="FP10" t="n">
-        <v>0.003658510744571686</v>
+        <v>0.003812053008005023</v>
       </c>
       <c r="FQ10" t="n">
-        <v>0.006614046636968851</v>
+        <v>0.001782719162292778</v>
       </c>
       <c r="FR10" t="n">
-        <v>0.002283746143803</v>
+        <v>0.007809720933437347</v>
       </c>
       <c r="FS10" t="n">
-        <v>0.01846906170248985</v>
+        <v>0.00466391583904624</v>
       </c>
       <c r="FT10" t="n">
-        <v>0.001853262772783637</v>
+        <v>0.002407592022791505</v>
       </c>
       <c r="FU10" t="n">
-        <v>0.002233406063169241</v>
+        <v>0.001686635310761631</v>
       </c>
       <c r="FV10" t="n">
-        <v>0.003294144291430712</v>
+        <v>0.008450483903288841</v>
       </c>
       <c r="FW10" t="n">
-        <v>0.001449571922421455</v>
+        <v>0.007658449932932854</v>
       </c>
       <c r="FX10" t="n">
-        <v>0.001016217400319874</v>
+        <v>0.004342363215982914</v>
       </c>
       <c r="FY10" t="n">
-        <v>0.000724440033081919</v>
+        <v>0.006209857761859894</v>
       </c>
       <c r="FZ10" t="n">
-        <v>0.003418789943680167</v>
+        <v>0.0001583025732543319</v>
       </c>
       <c r="GA10" t="n">
-        <v>0.006271396297961473</v>
+        <v>0.00288439285941422</v>
       </c>
       <c r="GB10" t="n">
-        <v>0.001204519532620907</v>
+        <v>0.001512664719484746</v>
       </c>
       <c r="GC10" t="n">
-        <v>0.004758122842758894</v>
+        <v>0.01269388198852539</v>
       </c>
       <c r="GD10" t="n">
-        <v>0.009472450241446495</v>
+        <v>0.005838713608682156</v>
       </c>
       <c r="GE10" t="n">
-        <v>0.002008279785513878</v>
+        <v>0.009164412505924702</v>
       </c>
       <c r="GF10" t="n">
-        <v>0.001314810244366527</v>
+        <v>0.002617175690829754</v>
       </c>
       <c r="GG10" t="n">
-        <v>0.00445507001131773</v>
+        <v>0.001351840444840491</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>7.230316345641086e-11</v>
+        <v>3.394663872313686e-05</v>
       </c>
       <c r="B11" t="n">
-        <v>1.319660825060964e-09</v>
+        <v>8.934246125136269e-07</v>
       </c>
       <c r="C11" t="n">
-        <v>2.064635751253263e-08</v>
+        <v>2.628714537422638e-05</v>
       </c>
       <c r="D11" t="n">
-        <v>2.144576072282689e-09</v>
+        <v>3.847391053568572e-05</v>
       </c>
       <c r="E11" t="n">
-        <v>2.927661002516402e-09</v>
+        <v>0.0001052429433912039</v>
       </c>
       <c r="F11" t="n">
-        <v>3.379248880719388e-08</v>
+        <v>4.267694021109492e-05</v>
       </c>
       <c r="G11" t="n">
-        <v>1.993011622403174e-08</v>
+        <v>2.047951966233086e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>1.095623924918243e-09</v>
+        <v>3.753424243768677e-05</v>
       </c>
       <c r="I11" t="n">
-        <v>8.473584500734432e-09</v>
+        <v>5.997864718665369e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>6.137723662646977e-09</v>
+        <v>6.3622064772062e-06</v>
       </c>
       <c r="K11" t="n">
-        <v>2.192039438853044e-09</v>
+        <v>7.074377936078236e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>6.70641497890756e-09</v>
+        <v>5.741970016970299e-05</v>
       </c>
       <c r="M11" t="n">
-        <v>1.278968575491035e-08</v>
+        <v>4.348366928752512e-06</v>
       </c>
       <c r="N11" t="n">
-        <v>1.385991232893957e-08</v>
+        <v>0.0001069838035618886</v>
       </c>
       <c r="O11" t="n">
-        <v>1.200739419005004e-08</v>
+        <v>3.729201125679538e-05</v>
       </c>
       <c r="P11" t="n">
-        <v>7.70520447446188e-09</v>
+        <v>7.624682621099055e-05</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.264751148255527e-08</v>
+        <v>4.907939728582278e-05</v>
       </c>
       <c r="R11" t="n">
-        <v>9.115456833796998e-09</v>
+        <v>2.510043668735307e-05</v>
       </c>
       <c r="S11" t="n">
-        <v>1.745045996592864e-09</v>
+        <v>1.799858728190884e-05</v>
       </c>
       <c r="T11" t="n">
-        <v>2.457941405964448e-09</v>
+        <v>2.539607521612197e-05</v>
       </c>
       <c r="U11" t="n">
-        <v>5.283713022663505e-09</v>
+        <v>4.041067768412177e-06</v>
       </c>
       <c r="V11" t="n">
-        <v>1.658936454873583e-08</v>
+        <v>1.355945096292999e-05</v>
       </c>
       <c r="W11" t="n">
-        <v>8.305253373919186e-09</v>
+        <v>5.980589776299894e-05</v>
       </c>
       <c r="X11" t="n">
-        <v>7.602973361997556e-09</v>
+        <v>2.791785391309531e-06</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.269862970332269e-08</v>
+        <v>1.511640948592685e-05</v>
       </c>
       <c r="Z11" t="n">
-        <v>2.300412638156502e-10</v>
+        <v>6.192582532094093e-06</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.989790110457079e-09</v>
+        <v>3.351859049871564e-05</v>
       </c>
       <c r="AB11" t="n">
-        <v>8.960789887879628e-10</v>
+        <v>2.646417669893708e-05</v>
       </c>
       <c r="AC11" t="n">
-        <v>6.740629387991248e-09</v>
+        <v>5.084245640318841e-05</v>
       </c>
       <c r="AD11" t="n">
-        <v>1.140658412168705e-08</v>
+        <v>4.468148836167529e-05</v>
       </c>
       <c r="AE11" t="n">
-        <v>1.03155137765043e-08</v>
+        <v>1.043116571963765e-05</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.55142636515393e-08</v>
+        <v>6.476786802522838e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>1.533237536932575e-08</v>
+        <v>1.07456544355955e-05</v>
       </c>
       <c r="AH11" t="n">
-        <v>1.546165506738362e-08</v>
+        <v>5.927625170443207e-05</v>
       </c>
       <c r="AI11" t="n">
-        <v>3.509572188420407e-09</v>
+        <v>4.2584644688759e-05</v>
       </c>
       <c r="AJ11" t="n">
-        <v>3.1832878555349e-09</v>
+        <v>5.783157394034788e-05</v>
       </c>
       <c r="AK11" t="n">
-        <v>5.118684587301914e-09</v>
+        <v>1.531527959741652e-05</v>
       </c>
       <c r="AL11" t="n">
-        <v>9.692302072039638e-09</v>
+        <v>2.649201451276895e-05</v>
       </c>
       <c r="AM11" t="n">
-        <v>5.529036339879667e-09</v>
+        <v>4.568410986394156e-06</v>
       </c>
       <c r="AN11" t="n">
-        <v>1.993117670906486e-08</v>
+        <v>2.833995677065104e-05</v>
       </c>
       <c r="AO11" t="n">
-        <v>3.371123380446761e-10</v>
+        <v>6.129793473519385e-05</v>
       </c>
       <c r="AP11" t="n">
-        <v>9.293233738105755e-09</v>
+        <v>1.854903348430526e-05</v>
       </c>
       <c r="AQ11" t="n">
-        <v>4.102315376286469e-09</v>
+        <v>6.6794391386793e-06</v>
       </c>
       <c r="AR11" t="n">
-        <v>6.802136631733902e-09</v>
+        <v>1.863950456026942e-05</v>
       </c>
       <c r="AS11" t="n">
-        <v>4.123371089015393e-11</v>
+        <v>1.654118568694685e-05</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.979486352610138e-09</v>
+        <v>2.453497290844098e-05</v>
       </c>
       <c r="AU11" t="n">
-        <v>2.476195426481809e-08</v>
+        <v>1.422330842615338e-05</v>
       </c>
       <c r="AV11" t="n">
-        <v>2.775287999412512e-09</v>
+        <v>2.438600859022699e-06</v>
       </c>
       <c r="AW11" t="n">
-        <v>1.614125189064453e-08</v>
+        <v>4.114030889468268e-05</v>
       </c>
       <c r="AX11" t="n">
-        <v>2.84736199063218e-08</v>
+        <v>0.0001119834269047715</v>
       </c>
       <c r="AY11" t="n">
-        <v>2.465243120752802e-08</v>
+        <v>2.055914228549227e-05</v>
       </c>
       <c r="AZ11" t="n">
-        <v>1.328827714530689e-09</v>
+        <v>2.870488788175862e-05</v>
       </c>
       <c r="BA11" t="n">
-        <v>7.687957825908143e-09</v>
+        <v>9.210484131472185e-05</v>
       </c>
       <c r="BB11" t="n">
-        <v>1.312428743460714e-08</v>
+        <v>1.738299397402443e-05</v>
       </c>
       <c r="BC11" t="n">
-        <v>6.425945997534654e-09</v>
+        <v>2.655150819919072e-05</v>
       </c>
       <c r="BD11" t="n">
-        <v>5.059852092870187e-09</v>
+        <v>5.659205271513201e-06</v>
       </c>
       <c r="BE11" t="n">
-        <v>1.050987652462254e-08</v>
+        <v>2.832031714206096e-05</v>
       </c>
       <c r="BF11" t="n">
-        <v>6.776792016438549e-09</v>
+        <v>4.169910607743077e-05</v>
       </c>
       <c r="BG11" t="n">
-        <v>1.587913267542262e-08</v>
+        <v>1.561667158966884e-05</v>
       </c>
       <c r="BH11" t="n">
-        <v>1.293384510603346e-08</v>
+        <v>4.635296863853e-05</v>
       </c>
       <c r="BI11" t="n">
-        <v>1.48615155737275e-08</v>
+        <v>4.05768514610827e-05</v>
       </c>
       <c r="BJ11" t="n">
-        <v>7.280949176902141e-09</v>
+        <v>3.887168713845313e-05</v>
       </c>
       <c r="BK11" t="n">
-        <v>3.045047325400674e-09</v>
+        <v>2.218172994616907e-05</v>
       </c>
       <c r="BL11" t="n">
-        <v>5.467708064088583e-09</v>
+        <v>9.172859790851362e-06</v>
       </c>
       <c r="BM11" t="n">
-        <v>1.584841702317874e-09</v>
+        <v>2.391361158515792e-05</v>
       </c>
       <c r="BN11" t="n">
-        <v>1.234864566157512e-08</v>
+        <v>3.28031528624706e-05</v>
       </c>
       <c r="BO11" t="n">
-        <v>1.576301866812457e-09</v>
+        <v>4.243498551659286e-05</v>
       </c>
       <c r="BP11" t="n">
-        <v>1.264025684122316e-08</v>
+        <v>2.255083745694719e-05</v>
       </c>
       <c r="BQ11" t="n">
-        <v>9.814503876270919e-09</v>
+        <v>3.919646405847743e-05</v>
       </c>
       <c r="BR11" t="n">
-        <v>8.97171226199589e-09</v>
+        <v>7.873190952523146e-06</v>
       </c>
       <c r="BS11" t="n">
-        <v>7.139624891294716e-09</v>
+        <v>2.913138268922921e-05</v>
       </c>
       <c r="BT11" t="n">
-        <v>2.130758236518204e-09</v>
+        <v>4.715512477559969e-05</v>
       </c>
       <c r="BU11" t="n">
-        <v>2.911751284528918e-09</v>
+        <v>2.223974661319517e-05</v>
       </c>
       <c r="BV11" t="n">
-        <v>2.691051381731313e-09</v>
+        <v>1.550221895740833e-05</v>
       </c>
       <c r="BW11" t="n">
-        <v>4.754352467273293e-10</v>
+        <v>2.869762283808086e-05</v>
       </c>
       <c r="BX11" t="n">
-        <v>2.594765291519252e-08</v>
+        <v>2.391201451246161e-05</v>
       </c>
       <c r="BY11" t="n">
-        <v>1.007036765088287e-08</v>
+        <v>4.699408964370377e-05</v>
       </c>
       <c r="BZ11" t="n">
-        <v>1.45052183597727e-08</v>
+        <v>5.574686383624794e-06</v>
       </c>
       <c r="CA11" t="n">
-        <v>1.066131893878719e-08</v>
+        <v>1.407265699526761e-05</v>
       </c>
       <c r="CB11" t="n">
-        <v>4.058934965911476e-09</v>
+        <v>3.770473995245993e-05</v>
       </c>
       <c r="CC11" t="n">
-        <v>9.949256529750983e-09</v>
+        <v>4.904107845504768e-05</v>
       </c>
       <c r="CD11" t="n">
-        <v>3.667276038399336e-09</v>
+        <v>6.961486178624909e-07</v>
       </c>
       <c r="CE11" t="n">
-        <v>2.212798833056695e-09</v>
+        <v>1.661585883994121e-05</v>
       </c>
       <c r="CF11" t="n">
-        <v>1.649751890653306e-09</v>
+        <v>1.970313405763591e-06</v>
       </c>
       <c r="CG11" t="n">
-        <v>1.039327290897063e-09</v>
+        <v>2.431042594253086e-05</v>
       </c>
       <c r="CH11" t="n">
-        <v>8.387315841851262e-10</v>
+        <v>1.976340354303829e-05</v>
       </c>
       <c r="CI11" t="n">
-        <v>3.090816269590846e-09</v>
+        <v>1.198042991745751e-05</v>
       </c>
       <c r="CJ11" t="n">
-        <v>3.46691297892221e-09</v>
+        <v>1.413933205185458e-05</v>
       </c>
       <c r="CK11" t="n">
-        <v>2.594377601639053e-09</v>
+        <v>8.045927643252071e-06</v>
       </c>
       <c r="CL11" t="n">
-        <v>9.091220554147128e-10</v>
+        <v>9.246441550203599e-06</v>
       </c>
       <c r="CM11" t="n">
-        <v>5.845751438471325e-09</v>
+        <v>2.472923733876087e-05</v>
       </c>
       <c r="CN11" t="n">
-        <v>1.174205088716462e-08</v>
+        <v>4.802991679753177e-05</v>
       </c>
       <c r="CO11" t="n">
-        <v>1.088059597975644e-08</v>
+        <v>2.401376150373835e-06</v>
       </c>
       <c r="CP11" t="n">
-        <v>1.640607649733283e-08</v>
+        <v>7.23237099009566e-05</v>
       </c>
       <c r="CQ11" t="n">
-        <v>7.067149088157976e-09</v>
+        <v>3.990130790043622e-05</v>
       </c>
       <c r="CR11" t="n">
-        <v>3.900268552570196e-09</v>
+        <v>3.061388269998133e-05</v>
       </c>
       <c r="CS11" t="n">
-        <v>1.630941603991687e-08</v>
+        <v>2.371576010773424e-05</v>
       </c>
       <c r="CT11" t="n">
-        <v>1.66028257808648e-08</v>
+        <v>1.810944377211854e-05</v>
       </c>
       <c r="CU11" t="n">
-        <v>1.029941021357672e-08</v>
+        <v>3.560016193659976e-05</v>
       </c>
       <c r="CV11" t="n">
-        <v>5.873440844794686e-09</v>
+        <v>3.586985258152708e-06</v>
       </c>
       <c r="CW11" t="n">
-        <v>6.322831147542729e-10</v>
+        <v>2.133924317604396e-05</v>
       </c>
       <c r="CX11" t="n">
-        <v>4.897562355665741e-10</v>
+        <v>3.330333584017353e-06</v>
       </c>
       <c r="CY11" t="n">
-        <v>2.284364697402452e-09</v>
+        <v>2.513373328838497e-05</v>
       </c>
       <c r="CZ11" t="n">
-        <v>2.55915577618282e-09</v>
+        <v>1.769204391166568e-05</v>
       </c>
       <c r="DA11" t="n">
-        <v>5.350644372015267e-09</v>
+        <v>5.890295597055228e-06</v>
       </c>
       <c r="DB11" t="n">
-        <v>5.310412110048901e-10</v>
+        <v>2.546289397287183e-05</v>
       </c>
       <c r="DC11" t="n">
-        <v>2.782971630921338e-09</v>
+        <v>8.827732017380185e-06</v>
       </c>
       <c r="DD11" t="n">
-        <v>1.18045240249387e-09</v>
+        <v>4.903056833427399e-06</v>
       </c>
       <c r="DE11" t="n">
-        <v>1.809864147439555e-09</v>
+        <v>7.087492849677801e-05</v>
       </c>
       <c r="DF11" t="n">
-        <v>8.866248180083858e-09</v>
+        <v>5.689215322490782e-05</v>
       </c>
       <c r="DG11" t="n">
-        <v>3.71223940476284e-10</v>
+        <v>1.50126570588327e-05</v>
       </c>
       <c r="DH11" t="n">
-        <v>2.45946267796171e-08</v>
+        <v>1.204873115057126e-06</v>
       </c>
       <c r="DI11" t="n">
-        <v>1.876795607813619e-08</v>
+        <v>2.417314317426644e-05</v>
       </c>
       <c r="DJ11" t="n">
-        <v>1.953412898103579e-08</v>
+        <v>4.830282705370337e-05</v>
       </c>
       <c r="DK11" t="n">
-        <v>3.102022860801412e-09</v>
+        <v>2.403200596745592e-05</v>
       </c>
       <c r="DL11" t="n">
-        <v>7.06272373918182e-09</v>
+        <v>2.649529415066354e-05</v>
       </c>
       <c r="DM11" t="n">
-        <v>5.062044561299217e-09</v>
+        <v>4.521122536971234e-05</v>
       </c>
       <c r="DN11" t="n">
-        <v>4.84244555565283e-09</v>
+        <v>9.480527296545915e-06</v>
       </c>
       <c r="DO11" t="n">
-        <v>5.280369919091754e-09</v>
+        <v>2.570514334365726e-05</v>
       </c>
       <c r="DP11" t="n">
-        <v>3.41235573131371e-09</v>
+        <v>1.136409809987526e-05</v>
       </c>
       <c r="DQ11" t="n">
-        <v>2.275853949740281e-09</v>
+        <v>2.77626677416265e-05</v>
       </c>
       <c r="DR11" t="n">
-        <v>3.017803962279686e-08</v>
+        <v>1.61421558004804e-05</v>
       </c>
       <c r="DS11" t="n">
-        <v>2.95829027940897e-10</v>
+        <v>1.629157850402407e-05</v>
       </c>
       <c r="DT11" t="n">
-        <v>4.309057999307697e-09</v>
+        <v>9.871095244307071e-06</v>
       </c>
       <c r="DU11" t="n">
-        <v>9.203954931535918e-09</v>
+        <v>2.26643678615801e-05</v>
       </c>
       <c r="DV11" t="n">
-        <v>7.65919938583437e-10</v>
+        <v>5.606054764939472e-05</v>
       </c>
       <c r="DW11" t="n">
-        <v>4.070788151011584e-09</v>
+        <v>9.917131137626711e-06</v>
       </c>
       <c r="DX11" t="n">
-        <v>4.739378667295568e-09</v>
+        <v>1.434512705600355e-05</v>
       </c>
       <c r="DY11" t="n">
-        <v>4.947494858242862e-09</v>
+        <v>1.000732663669623e-05</v>
       </c>
       <c r="DZ11" t="n">
-        <v>4.445807277875247e-09</v>
+        <v>4.394162533571944e-05</v>
       </c>
       <c r="EA11" t="n">
-        <v>9.191262861918403e-09</v>
+        <v>2.079941623378545e-05</v>
       </c>
       <c r="EB11" t="n">
-        <v>3.797411829431496e-10</v>
+        <v>5.823885658173822e-06</v>
       </c>
       <c r="EC11" t="n">
-        <v>1.066372057323406e-08</v>
+        <v>4.600327429216122e-06</v>
       </c>
       <c r="ED11" t="n">
-        <v>2.393213405227357e-09</v>
+        <v>2.928662070189603e-05</v>
       </c>
       <c r="EE11" t="n">
-        <v>2.502963170059047e-09</v>
+        <v>1.444991721655242e-05</v>
       </c>
       <c r="EF11" t="n">
-        <v>2.21469442784894e-09</v>
+        <v>1.437996979802847e-05</v>
       </c>
       <c r="EG11" t="n">
-        <v>5.837220151683198e-10</v>
+        <v>1.728508323139977e-06</v>
       </c>
       <c r="EH11" t="n">
-        <v>1.416130324116693e-09</v>
+        <v>5.482450887939194e-06</v>
       </c>
       <c r="EI11" t="n">
-        <v>9.465219719118068e-09</v>
+        <v>4.415614603203721e-05</v>
       </c>
       <c r="EJ11" t="n">
-        <v>7.331801388232861e-09</v>
+        <v>1.901468567666598e-05</v>
       </c>
       <c r="EK11" t="n">
-        <v>7.986181493890854e-09</v>
+        <v>3.356541583343642e-06</v>
       </c>
       <c r="EL11" t="n">
-        <v>3.671103199209824e-09</v>
+        <v>1.982048161153216e-06</v>
       </c>
       <c r="EM11" t="n">
-        <v>4.006318832239231e-09</v>
+        <v>2.135691465809941e-05</v>
       </c>
       <c r="EN11" t="n">
-        <v>8.706619425424833e-09</v>
+        <v>1.074013198376633e-07</v>
       </c>
       <c r="EO11" t="n">
-        <v>9.995445582333673e-10</v>
+        <v>1.1077353519795e-05</v>
       </c>
       <c r="EP11" t="n">
-        <v>1.613931566168958e-08</v>
+        <v>3.924188149539987e-06</v>
       </c>
       <c r="EQ11" t="n">
-        <v>1.095472823564592e-09</v>
+        <v>4.735143647849327e-06</v>
       </c>
       <c r="ER11" t="n">
-        <v>1.747475719682257e-09</v>
+        <v>1.265456376131624e-06</v>
       </c>
       <c r="ES11" t="n">
-        <v>5.907284883477359e-09</v>
+        <v>3.430547803873196e-05</v>
       </c>
       <c r="ET11" t="n">
-        <v>2.607516869090887e-09</v>
+        <v>4.362115760159213e-06</v>
       </c>
       <c r="EU11" t="n">
-        <v>3.93559229650009e-09</v>
+        <v>1.785821586963721e-05</v>
       </c>
       <c r="EV11" t="n">
-        <v>1.80652044434737e-08</v>
+        <v>1.597562004462816e-05</v>
       </c>
       <c r="EW11" t="n">
-        <v>4.90951612697188e-10</v>
+        <v>3.331063635414466e-05</v>
       </c>
       <c r="EX11" t="n">
-        <v>5.423658411274346e-09</v>
+        <v>6.173266228870489e-06</v>
       </c>
       <c r="EY11" t="n">
-        <v>2.057243708719625e-09</v>
+        <v>1.333331510977587e-05</v>
       </c>
       <c r="EZ11" t="n">
-        <v>1.462872267765647e-09</v>
+        <v>3.048046664844151e-06</v>
       </c>
       <c r="FA11" t="n">
-        <v>6.86955159423519e-10</v>
+        <v>2.004480666073505e-05</v>
       </c>
       <c r="FB11" t="n">
-        <v>8.903691117723156e-10</v>
+        <v>2.092534668918233e-05</v>
       </c>
       <c r="FC11" t="n">
-        <v>3.797905101521337e-09</v>
+        <v>5.660611350322142e-06</v>
       </c>
       <c r="FD11" t="n">
-        <v>1.245977321318037e-09</v>
+        <v>1.926804179674946e-05</v>
       </c>
       <c r="FE11" t="n">
-        <v>1.402342242329269e-09</v>
+        <v>7.656381058041006e-06</v>
       </c>
       <c r="FF11" t="n">
-        <v>1.980234198839526e-09</v>
+        <v>1.932462055265205e-06</v>
       </c>
       <c r="FG11" t="n">
-        <v>1.2939297633352e-08</v>
+        <v>3.461966480244882e-05</v>
       </c>
       <c r="FH11" t="n">
-        <v>4.073072545907053e-09</v>
+        <v>2.153561217710376e-05</v>
       </c>
       <c r="FI11" t="n">
-        <v>1.228225299243491e-09</v>
+        <v>2.084316838590894e-05</v>
       </c>
       <c r="FJ11" t="n">
-        <v>1.033935070893222e-08</v>
+        <v>3.903812103089876e-05</v>
       </c>
       <c r="FK11" t="n">
-        <v>1.404456373421681e-08</v>
+        <v>1.842411074903794e-05</v>
       </c>
       <c r="FL11" t="n">
-        <v>4.94072072143581e-09</v>
+        <v>1.937085107783787e-05</v>
       </c>
       <c r="FM11" t="n">
-        <v>3.908997570079009e-10</v>
+        <v>2.385420339123812e-05</v>
       </c>
       <c r="FN11" t="n">
-        <v>1.85327664325996e-08</v>
+        <v>1.400350902258651e-05</v>
       </c>
       <c r="FO11" t="n">
-        <v>5.87474846547309e-10</v>
+        <v>2.206393764936365e-05</v>
       </c>
       <c r="FP11" t="n">
-        <v>3.094613454379669e-09</v>
+        <v>2.703888094401918e-05</v>
       </c>
       <c r="FQ11" t="n">
-        <v>2.349186623007427e-09</v>
+        <v>1.446265969207161e-06</v>
       </c>
       <c r="FR11" t="n">
-        <v>5.278911086037397e-09</v>
+        <v>1.928293568198569e-05</v>
       </c>
       <c r="FS11" t="n">
-        <v>1.736548682629291e-10</v>
+        <v>2.272572601214051e-05</v>
       </c>
       <c r="FT11" t="n">
-        <v>1.356947265662711e-08</v>
+        <v>0.0001319566072197631</v>
       </c>
       <c r="FU11" t="n">
-        <v>1.781265801525933e-08</v>
+        <v>4.319816798670217e-05</v>
       </c>
       <c r="FV11" t="n">
-        <v>3.076244592392641e-09</v>
+        <v>2.008868250413798e-06</v>
       </c>
       <c r="FW11" t="n">
-        <v>3.775260104532663e-09</v>
+        <v>4.426655868883245e-05</v>
       </c>
       <c r="FX11" t="n">
-        <v>2.781092911519067e-09</v>
+        <v>1.794638956198469e-05</v>
       </c>
       <c r="FY11" t="n">
-        <v>1.356696754939435e-09</v>
+        <v>1.85261778824497e-05</v>
       </c>
       <c r="FZ11" t="n">
-        <v>5.588436824410792e-09</v>
+        <v>2.66994447883917e-07</v>
       </c>
       <c r="GA11" t="n">
-        <v>7.190688045000115e-09</v>
+        <v>1.633980718906969e-05</v>
       </c>
       <c r="GB11" t="n">
-        <v>1.288516937592021e-08</v>
+        <v>2.044149732682854e-05</v>
       </c>
       <c r="GC11" t="n">
-        <v>1.783546821343407e-08</v>
+        <v>1.983334368560463e-05</v>
       </c>
       <c r="GD11" t="n">
-        <v>5.929621238465188e-09</v>
+        <v>1.767966568877455e-05</v>
       </c>
       <c r="GE11" t="n">
-        <v>1.601022425745668e-08</v>
+        <v>7.823632040526718e-05</v>
       </c>
       <c r="GF11" t="n">
-        <v>9.224399022400576e-11</v>
+        <v>6.171852874103934e-05</v>
       </c>
       <c r="GG11" t="n">
-        <v>1.935264837271689e-09</v>
+        <v>7.67214223742485e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.0007007402018643916</v>
+        <v>0.001058163121342659</v>
       </c>
       <c r="B12" t="n">
-        <v>4.696403630077839e-05</v>
+        <v>0.0325981006026268</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001469473470933735</v>
+        <v>0.001274352427572012</v>
       </c>
       <c r="D12" t="n">
-        <v>0.005062667652964592</v>
+        <v>0.02953633666038513</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0008674675482325256</v>
+        <v>0.009747804142534733</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001745263580232859</v>
+        <v>0.01253620069473982</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0007065462414175272</v>
+        <v>0.005245243199169636</v>
       </c>
       <c r="H12" t="n">
-        <v>0.001389599870890379</v>
+        <v>0.004158651456236839</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0003188046684954315</v>
+        <v>0.01124388910830021</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0003656295302789658</v>
+        <v>0.0006517297588288784</v>
       </c>
       <c r="K12" t="n">
-        <v>7.701697904849425e-05</v>
+        <v>0.02794810011982918</v>
       </c>
       <c r="L12" t="n">
-        <v>0.001228302833624184</v>
+        <v>0.001365106203593314</v>
       </c>
       <c r="M12" t="n">
-        <v>0.004956141114234924</v>
+        <v>0.02386867254972458</v>
       </c>
       <c r="N12" t="n">
-        <v>0.000593298755120486</v>
+        <v>0.00698493979871273</v>
       </c>
       <c r="O12" t="n">
-        <v>0.0005465511931106448</v>
+        <v>0.01269766502082348</v>
       </c>
       <c r="P12" t="n">
-        <v>0.001287291990593076</v>
+        <v>0.00732224527746439</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.00327655510045588</v>
+        <v>0.006064710207283497</v>
       </c>
       <c r="R12" t="n">
-        <v>0.0003540106699801981</v>
+        <v>0.01172416284680367</v>
       </c>
       <c r="S12" t="n">
-        <v>3.262666723458096e-05</v>
+        <v>0.0003954110434278846</v>
       </c>
       <c r="T12" t="n">
-        <v>0.001336252316832542</v>
+        <v>0.002582596614956856</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0006106226937845349</v>
+        <v>0.0004595146747305989</v>
       </c>
       <c r="V12" t="n">
-        <v>0.0008460166864097118</v>
+        <v>0.007192709483206272</v>
       </c>
       <c r="W12" t="n">
-        <v>0.002043226035311818</v>
+        <v>0.01743965037167072</v>
       </c>
       <c r="X12" t="n">
-        <v>0.0004224322328809649</v>
+        <v>0.001786401262506843</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.000237513188039884</v>
+        <v>0.004949433729052544</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.001772808143869042</v>
+        <v>0.004639888182282448</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.0001704895403236151</v>
+        <v>0.003584787482395768</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.0004126879503019154</v>
+        <v>0.003108196426182985</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.0008504921570420265</v>
+        <v>3.862869925796986e-05</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.0004968743887729943</v>
+        <v>0.004109714180231094</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.000252997619099915</v>
+        <v>0.004811378661543131</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.0007635856745764613</v>
+        <v>0.006231477484107018</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.0005210154340602458</v>
+        <v>0.006925559137016535</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.0007009963155724108</v>
+        <v>0.002813074504956603</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.001261400175280869</v>
+        <v>0.001415531383827329</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.0007050615386106074</v>
+        <v>0.005087140947580338</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.0001630796905374154</v>
+        <v>0.001036156085319817</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.0006068567163310945</v>
+        <v>0.002978038508445024</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.0001603438577149063</v>
+        <v>0.001620020950213075</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.0018909708596766</v>
+        <v>0.0007800678722560406</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.0004957545315846801</v>
+        <v>0.004811256658285856</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.001181812607683241</v>
+        <v>0.005403168965131044</v>
       </c>
       <c r="AQ12" t="n">
-        <v>8.444980630883947e-05</v>
+        <v>0.003289316780865192</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.0005096731474623084</v>
+        <v>0.0008500887779518962</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.0001685878523858264</v>
+        <v>0.001510899979621172</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.0005032244953326881</v>
+        <v>0.0003465055488049984</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.0004526888951659203</v>
+        <v>0.01153315789997578</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.0004902544897049665</v>
+        <v>0.002896623453125358</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.00247419741936028</v>
+        <v>0.01571409590542316</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.0008167462074197829</v>
+        <v>0.01374744344502687</v>
       </c>
       <c r="AY12" t="n">
-        <v>0.001418914180248976</v>
+        <v>0.002713065361604095</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0.0006200617644935846</v>
+        <v>0.01455347798764706</v>
       </c>
       <c r="BA12" t="n">
-        <v>0.0005601150332950056</v>
+        <v>0.01614325121045113</v>
       </c>
       <c r="BB12" t="n">
-        <v>0.0003103635972365737</v>
+        <v>0.001953891711309552</v>
       </c>
       <c r="BC12" t="n">
-        <v>0.0006347349262796342</v>
+        <v>0.0001672033686190844</v>
       </c>
       <c r="BD12" t="n">
-        <v>0.0003550821566022933</v>
+        <v>0.007865395396947861</v>
       </c>
       <c r="BE12" t="n">
-        <v>0.0003696575877256691</v>
+        <v>0.003144192975014448</v>
       </c>
       <c r="BF12" t="n">
-        <v>0.002142869401723146</v>
+        <v>0.0008877333020791411</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.0004920355859212577</v>
+        <v>0.001988973934203386</v>
       </c>
       <c r="BH12" t="n">
-        <v>0.0005447145667858422</v>
+        <v>0.002017925959080458</v>
       </c>
       <c r="BI12" t="n">
-        <v>0.0004825529758818448</v>
+        <v>0.007621346041560173</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.0003095877182204276</v>
+        <v>0.002967298496514559</v>
       </c>
       <c r="BK12" t="n">
-        <v>0.0003744194400496781</v>
+        <v>0.01061340235173702</v>
       </c>
       <c r="BL12" t="n">
-        <v>0.0005482292617671192</v>
+        <v>0.0003919436712749302</v>
       </c>
       <c r="BM12" t="n">
-        <v>0.000253716018050909</v>
+        <v>0.004286863841116428</v>
       </c>
       <c r="BN12" t="n">
-        <v>0.0007812984986230731</v>
+        <v>0.001716644153930247</v>
       </c>
       <c r="BO12" t="n">
-        <v>0.0002933127689175308</v>
+        <v>0.007750103250145912</v>
       </c>
       <c r="BP12" t="n">
-        <v>0.000187764031579718</v>
+        <v>0.004551974590867758</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0.0002361272345297039</v>
+        <v>0.001613222644664347</v>
       </c>
       <c r="BR12" t="n">
-        <v>4.191076732240617e-05</v>
+        <v>0.0009990604594349861</v>
       </c>
       <c r="BS12" t="n">
-        <v>0.0006298541557043791</v>
+        <v>0.008320778608322144</v>
       </c>
       <c r="BT12" t="n">
-        <v>0.0001793437986634672</v>
+        <v>0.004150996915996075</v>
       </c>
       <c r="BU12" t="n">
-        <v>5.02819602843374e-06</v>
+        <v>0.003460538573563099</v>
       </c>
       <c r="BV12" t="n">
-        <v>0.0005122426082380116</v>
+        <v>0.01310601364821196</v>
       </c>
       <c r="BW12" t="n">
-        <v>4.423051723279059e-05</v>
+        <v>0.001919639762490988</v>
       </c>
       <c r="BX12" t="n">
-        <v>0.002686245366930962</v>
+        <v>0.01732892729341984</v>
       </c>
       <c r="BY12" t="n">
-        <v>0.0007137489737942815</v>
+        <v>0.01215100754052401</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0.000634514435660094</v>
+        <v>0.000803910952527076</v>
       </c>
       <c r="CA12" t="n">
-        <v>0.000468695187009871</v>
+        <v>0.006964574567973614</v>
       </c>
       <c r="CB12" t="n">
-        <v>0.001134637626819313</v>
+        <v>0.006459770724177361</v>
       </c>
       <c r="CC12" t="n">
-        <v>0.0007562108803540468</v>
+        <v>0.00583819393068552</v>
       </c>
       <c r="CD12" t="n">
-        <v>0.0004478729970287532</v>
+        <v>0.0005723554641008377</v>
       </c>
       <c r="CE12" t="n">
-        <v>3.87998043152038e-05</v>
+        <v>0.003817454446107149</v>
       </c>
       <c r="CF12" t="n">
-        <v>0.000409771513659507</v>
+        <v>0.001372020808048546</v>
       </c>
       <c r="CG12" t="n">
-        <v>0.001153240213170648</v>
+        <v>0.004315732512623072</v>
       </c>
       <c r="CH12" t="n">
-        <v>0.0003037620626855642</v>
+        <v>0.000338454294251278</v>
       </c>
       <c r="CI12" t="n">
-        <v>0.0001555152703076601</v>
+        <v>0.001135424943640828</v>
       </c>
       <c r="CJ12" t="n">
-        <v>1.107178104575723e-05</v>
+        <v>0.002336329780519009</v>
       </c>
       <c r="CK12" t="n">
-        <v>0.0001790124078979716</v>
+        <v>0.001064903568476439</v>
       </c>
       <c r="CL12" t="n">
-        <v>0.0001843684149207547</v>
+        <v>0.002037159400060773</v>
       </c>
       <c r="CM12" t="n">
-        <v>0.0001897593756439164</v>
+        <v>0.0008506831363774836</v>
       </c>
       <c r="CN12" t="n">
-        <v>2.403534017503262e-05</v>
+        <v>0.006551722530275583</v>
       </c>
       <c r="CO12" t="n">
-        <v>0.0002906761365011334</v>
+        <v>0.001029538689181209</v>
       </c>
       <c r="CP12" t="n">
-        <v>0.002084641251713037</v>
+        <v>0.0017406438710168</v>
       </c>
       <c r="CQ12" t="n">
-        <v>0.001723629306070507</v>
+        <v>0.001169190974906087</v>
       </c>
       <c r="CR12" t="n">
-        <v>0.001389516168273985</v>
+        <v>0.007489420473575592</v>
       </c>
       <c r="CS12" t="n">
-        <v>0.0001269958738703281</v>
+        <v>0.008626947179436684</v>
       </c>
       <c r="CT12" t="n">
-        <v>0.0001993586192838848</v>
+        <v>0.01326098944991827</v>
       </c>
       <c r="CU12" t="n">
-        <v>0.0001051946892403066</v>
+        <v>0.0007586420979350805</v>
       </c>
       <c r="CV12" t="n">
-        <v>0.0006570217665284872</v>
+        <v>0.0004020250344183296</v>
       </c>
       <c r="CW12" t="n">
-        <v>0.0001799873425625265</v>
+        <v>0.004800880327820778</v>
       </c>
       <c r="CX12" t="n">
-        <v>0.0003719344967976213</v>
+        <v>0.001653520856052637</v>
       </c>
       <c r="CY12" t="n">
-        <v>0.0009520946769043803</v>
+        <v>0.004567191004753113</v>
       </c>
       <c r="CZ12" t="n">
-        <v>0.000259925436694175</v>
+        <v>0.002270280616357923</v>
       </c>
       <c r="DA12" t="n">
-        <v>0.0001270280044991523</v>
+        <v>0.00171766197308898</v>
       </c>
       <c r="DB12" t="n">
-        <v>2.232506085420027e-05</v>
+        <v>0.001787907443940639</v>
       </c>
       <c r="DC12" t="n">
-        <v>0.0002011376927839592</v>
+        <v>0.002055058954283595</v>
       </c>
       <c r="DD12" t="n">
-        <v>0.0002903118438553065</v>
+        <v>0.001529325963929296</v>
       </c>
       <c r="DE12" t="n">
-        <v>0.0004043590743094683</v>
+        <v>0.001001411932520568</v>
       </c>
       <c r="DF12" t="n">
-        <v>0.0002868343435693532</v>
+        <v>0.01155098434537649</v>
       </c>
       <c r="DG12" t="n">
-        <v>0.0006337365484796464</v>
+        <v>0.0009872135706245899</v>
       </c>
       <c r="DH12" t="n">
-        <v>0.0005988479824736714</v>
+        <v>0.01649469137191772</v>
       </c>
       <c r="DI12" t="n">
-        <v>0.001154705183580518</v>
+        <v>0.01137128937989473</v>
       </c>
       <c r="DJ12" t="n">
-        <v>0.000207236036658287</v>
+        <v>0.006233073770999908</v>
       </c>
       <c r="DK12" t="n">
-        <v>0.0007439938490279019</v>
+        <v>0.005630412138998508</v>
       </c>
       <c r="DL12" t="n">
-        <v>0.001311379950493574</v>
+        <v>0.002747527090832591</v>
       </c>
       <c r="DM12" t="n">
-        <v>5.038366361986846e-05</v>
+        <v>0.003120802342891693</v>
       </c>
       <c r="DN12" t="n">
-        <v>2.904548455262557e-05</v>
+        <v>0.005000813864171505</v>
       </c>
       <c r="DO12" t="n">
-        <v>0.0009485965711064637</v>
+        <v>0.00790452491492033</v>
       </c>
       <c r="DP12" t="n">
-        <v>0.0003608980623539537</v>
+        <v>0.001208784291520715</v>
       </c>
       <c r="DQ12" t="n">
-        <v>3.920184099115431e-06</v>
+        <v>0.01040263473987579</v>
       </c>
       <c r="DR12" t="n">
-        <v>0.0006551967235282063</v>
+        <v>0.001958871958777308</v>
       </c>
       <c r="DS12" t="n">
-        <v>0.000779557682108134</v>
+        <v>0.00467623071745038</v>
       </c>
       <c r="DT12" t="n">
-        <v>0.0002853351761586964</v>
+        <v>0.001763315289281309</v>
       </c>
       <c r="DU12" t="n">
-        <v>0.0008036356884986162</v>
+        <v>0.001217386568896472</v>
       </c>
       <c r="DV12" t="n">
-        <v>0.0006982128834351897</v>
+        <v>0.002708720741793513</v>
       </c>
       <c r="DW12" t="n">
-        <v>0.0007360950112342834</v>
+        <v>0.002411442808806896</v>
       </c>
       <c r="DX12" t="n">
-        <v>0.0006797118694521487</v>
+        <v>0.001326095778495073</v>
       </c>
       <c r="DY12" t="n">
-        <v>0.0001332117681158707</v>
+        <v>0.001696811057627201</v>
       </c>
       <c r="DZ12" t="n">
-        <v>0.0006410468486137688</v>
+        <v>0.003467323491349816</v>
       </c>
       <c r="EA12" t="n">
-        <v>0.000223234441364184</v>
+        <v>0.007677836343646049</v>
       </c>
       <c r="EB12" t="n">
-        <v>0.0001989877928281203</v>
+        <v>0.001505661755800247</v>
       </c>
       <c r="EC12" t="n">
-        <v>0.0002092794602504</v>
+        <v>0.002382309408858418</v>
       </c>
       <c r="ED12" t="n">
-        <v>4.532529055722989e-05</v>
+        <v>0.003890274092555046</v>
       </c>
       <c r="EE12" t="n">
-        <v>0.0004552215395960957</v>
+        <v>0.001978117972612381</v>
       </c>
       <c r="EF12" t="n">
-        <v>0.0002376980846747756</v>
+        <v>0.002316638361662626</v>
       </c>
       <c r="EG12" t="n">
-        <v>0.0001370500249322504</v>
+        <v>0.0006408252520486712</v>
       </c>
       <c r="EH12" t="n">
-        <v>0.0003228927089367062</v>
+        <v>0.002543563256040215</v>
       </c>
       <c r="EI12" t="n">
-        <v>0.001766825793311</v>
+        <v>0.0006872301455587149</v>
       </c>
       <c r="EJ12" t="n">
-        <v>1.544653423479758e-05</v>
+        <v>0.00336262839846313</v>
       </c>
       <c r="EK12" t="n">
-        <v>0.0002568739873822778</v>
+        <v>0.001609214465133846</v>
       </c>
       <c r="EL12" t="n">
-        <v>1.702044210105669e-05</v>
+        <v>0.001176030375063419</v>
       </c>
       <c r="EM12" t="n">
-        <v>0.0006833917577750981</v>
+        <v>8.862093091011047e-05</v>
       </c>
       <c r="EN12" t="n">
-        <v>0.000272748846327886</v>
+        <v>0.0005689177778549492</v>
       </c>
       <c r="EO12" t="n">
-        <v>0.0008344572852365673</v>
+        <v>0.0006549315294250846</v>
       </c>
       <c r="EP12" t="n">
-        <v>0.00111291790381074</v>
+        <v>0.0002442157128825784</v>
       </c>
       <c r="EQ12" t="n">
-        <v>0.0008121567079797387</v>
+        <v>0.001385969575494528</v>
       </c>
       <c r="ER12" t="n">
-        <v>0.0003429372445680201</v>
+        <v>0.007275568321347237</v>
       </c>
       <c r="ES12" t="n">
-        <v>0.0002962950384244323</v>
+        <v>0.001418279018253088</v>
       </c>
       <c r="ET12" t="n">
-        <v>0.0002018256927840412</v>
+        <v>0.01725956983864307</v>
       </c>
       <c r="EU12" t="n">
-        <v>0.0001046232064254582</v>
+        <v>0.008172120898962021</v>
       </c>
       <c r="EV12" t="n">
-        <v>0.0001142600667662919</v>
+        <v>0.004076036624610424</v>
       </c>
       <c r="EW12" t="n">
-        <v>0.0005079970578663051</v>
+        <v>0.006632940843701363</v>
       </c>
       <c r="EX12" t="n">
-        <v>0.0004669723566621542</v>
+        <v>0.0009177425527013838</v>
       </c>
       <c r="EY12" t="n">
-        <v>1.743763095873874e-05</v>
+        <v>0.003289230167865753</v>
       </c>
       <c r="EZ12" t="n">
-        <v>0.0004416535375639796</v>
+        <v>0.001063589006662369</v>
       </c>
       <c r="FA12" t="n">
-        <v>0.0009234125027433038</v>
+        <v>0.005504495464265347</v>
       </c>
       <c r="FB12" t="n">
-        <v>0.000293388933641836</v>
+        <v>0.0002648752997629344</v>
       </c>
       <c r="FC12" t="n">
-        <v>0.0002041803381871432</v>
+        <v>0.001803194405511022</v>
       </c>
       <c r="FD12" t="n">
-        <v>0.0001182806081487797</v>
+        <v>0.004331076983362436</v>
       </c>
       <c r="FE12" t="n">
-        <v>0.0003354073851369321</v>
+        <v>0.002110350877046585</v>
       </c>
       <c r="FF12" t="n">
-        <v>3.60417107003741e-05</v>
+        <v>0.002077612094581127</v>
       </c>
       <c r="FG12" t="n">
-        <v>0.000159762756084092</v>
+        <v>0.001071743201464415</v>
       </c>
       <c r="FH12" t="n">
-        <v>0.0006430697394534945</v>
+        <v>0.00119915627874434</v>
       </c>
       <c r="FI12" t="n">
-        <v>0.0006005025352351367</v>
+        <v>0.003208521986380219</v>
       </c>
       <c r="FJ12" t="n">
-        <v>0.000604884815402329</v>
+        <v>0.001827192259952426</v>
       </c>
       <c r="FK12" t="n">
-        <v>0.0006130731198936701</v>
+        <v>0.008373686112463474</v>
       </c>
       <c r="FL12" t="n">
-        <v>0.0004095397307537496</v>
+        <v>0.009836652316153049</v>
       </c>
       <c r="FM12" t="n">
-        <v>0.0001130723248934373</v>
+        <v>0.0001994573976844549</v>
       </c>
       <c r="FN12" t="n">
-        <v>0.0001620036637177691</v>
+        <v>0.002591200405731797</v>
       </c>
       <c r="FO12" t="n">
-        <v>0.0001087877972167917</v>
+        <v>0.004514273721724749</v>
       </c>
       <c r="FP12" t="n">
-        <v>0.0007278426201082766</v>
+        <v>0.002092852257192135</v>
       </c>
       <c r="FQ12" t="n">
-        <v>0.0006978494930081069</v>
+        <v>0.006577638909220695</v>
       </c>
       <c r="FR12" t="n">
-        <v>0.0003571333363652229</v>
+        <v>0.005429370794445276</v>
       </c>
       <c r="FS12" t="n">
-        <v>0.001529005938209593</v>
+        <v>0.005199276376515627</v>
       </c>
       <c r="FT12" t="n">
-        <v>0.0004921135841868818</v>
+        <v>0.01485535129904747</v>
       </c>
       <c r="FU12" t="n">
-        <v>0.0002983039885293692</v>
+        <v>0.006101537030190229</v>
       </c>
       <c r="FV12" t="n">
-        <v>0.0001659318222664297</v>
+        <v>0.006036578211933374</v>
       </c>
       <c r="FW12" t="n">
-        <v>0.000293519493425265</v>
+        <v>0.002561157336458564</v>
       </c>
       <c r="FX12" t="n">
-        <v>0.001022729440592229</v>
+        <v>0.002029638970270753</v>
       </c>
       <c r="FY12" t="n">
-        <v>0.0004003756330348551</v>
+        <v>0.002521112561225891</v>
       </c>
       <c r="FZ12" t="n">
-        <v>0.001160526997409761</v>
+        <v>0.0005882009281776845</v>
       </c>
       <c r="GA12" t="n">
-        <v>0.0005009759915992618</v>
+        <v>0.0004745844344142824</v>
       </c>
       <c r="GB12" t="n">
-        <v>0.0007412940030917525</v>
+        <v>0.002769857412204146</v>
       </c>
       <c r="GC12" t="n">
-        <v>0.0004033291479572654</v>
+        <v>0.01191836781799793</v>
       </c>
       <c r="GD12" t="n">
-        <v>0.001325680408626795</v>
+        <v>0.003397874301299453</v>
       </c>
       <c r="GE12" t="n">
-        <v>0.0001671776117291301</v>
+        <v>0.008050678297877312</v>
       </c>
       <c r="GF12" t="n">
-        <v>0.0003649445134215057</v>
+        <v>0.006050070282071829</v>
       </c>
       <c r="GG12" t="n">
-        <v>0.001034970744512975</v>
+        <v>0.002868095645681024</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2.669531568244565e-06</v>
+        <v>0.0002036989462794736</v>
       </c>
       <c r="B13" t="n">
-        <v>1.50493842738797e-05</v>
+        <v>0.002836824860423803</v>
       </c>
       <c r="C13" t="n">
-        <v>7.63942750836577e-07</v>
+        <v>4.675790842156857e-05</v>
       </c>
       <c r="D13" t="n">
-        <v>4.473672015592456e-05</v>
+        <v>0.002617910737171769</v>
       </c>
       <c r="E13" t="n">
-        <v>1.479184902564157e-05</v>
+        <v>0.0003143416251987219</v>
       </c>
       <c r="F13" t="n">
-        <v>1.738971150189172e-05</v>
+        <v>0.002282236469909549</v>
       </c>
       <c r="G13" t="n">
-        <v>5.647753823723178e-06</v>
+        <v>1.107229036279023e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>7.717771950410679e-06</v>
+        <v>0.0005424183327704668</v>
       </c>
       <c r="I13" t="n">
-        <v>9.83863264991669e-06</v>
+        <v>0.001683037960901856</v>
       </c>
       <c r="J13" t="n">
-        <v>2.669002583388647e-07</v>
+        <v>0.0007689876947551966</v>
       </c>
       <c r="K13" t="n">
-        <v>1.057913232216379e-05</v>
+        <v>0.002041820203885436</v>
       </c>
       <c r="L13" t="n">
-        <v>4.059088212216011e-07</v>
+        <v>0.0003677647036965936</v>
       </c>
       <c r="M13" t="n">
-        <v>3.962450136896223e-05</v>
+        <v>0.001142104738391936</v>
       </c>
       <c r="N13" t="n">
-        <v>4.981297024642117e-06</v>
+        <v>0.0007533474126830697</v>
       </c>
       <c r="O13" t="n">
-        <v>6.042625500413124e-06</v>
+        <v>0.001297987764701247</v>
       </c>
       <c r="P13" t="n">
-        <v>9.209748895955272e-06</v>
+        <v>0.001556470524519682</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.803366214720882e-07</v>
+        <v>0.001116166589781642</v>
       </c>
       <c r="R13" t="n">
-        <v>9.482886525802314e-06</v>
+        <v>0.0001746552006807178</v>
       </c>
       <c r="S13" t="n">
-        <v>3.040489104932931e-07</v>
+        <v>3.256615673308261e-05</v>
       </c>
       <c r="T13" t="n">
-        <v>2.866454167360644e-07</v>
+        <v>0.000747480196878314</v>
       </c>
       <c r="U13" t="n">
-        <v>1.231276200996945e-06</v>
+        <v>0.000154127279529348</v>
       </c>
       <c r="V13" t="n">
-        <v>1.449488081561867e-06</v>
+        <v>0.001720797969028354</v>
       </c>
       <c r="W13" t="n">
-        <v>1.512649760115892e-05</v>
+        <v>0.003002300625666976</v>
       </c>
       <c r="X13" t="n">
-        <v>1.078576133295428e-06</v>
+        <v>0.0004930007271468639</v>
       </c>
       <c r="Y13" t="n">
-        <v>6.84599967826216e-08</v>
+        <v>0.0001083170936908573</v>
       </c>
       <c r="Z13" t="n">
-        <v>8.053884812397882e-06</v>
+        <v>0.001374969491735101</v>
       </c>
       <c r="AA13" t="n">
-        <v>2.295010062880465e-06</v>
+        <v>5.159949068911374e-06</v>
       </c>
       <c r="AB13" t="n">
-        <v>1.903911311273987e-06</v>
+        <v>0.0007853375282138586</v>
       </c>
       <c r="AC13" t="n">
-        <v>2.829751792887691e-07</v>
+        <v>0.0002407857391517609</v>
       </c>
       <c r="AD13" t="n">
-        <v>1.014558847600711e-06</v>
+        <v>0.001014329725876451</v>
       </c>
       <c r="AE13" t="n">
-        <v>2.661310873008915e-06</v>
+        <v>0.0004379929159767926</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.1929328138649e-05</v>
+        <v>0.0004104194522369653</v>
       </c>
       <c r="AG13" t="n">
-        <v>7.315837592614116e-06</v>
+        <v>0.0005345538957044482</v>
       </c>
       <c r="AH13" t="n">
-        <v>2.597615775812301e-06</v>
+        <v>0.0007414416177198291</v>
       </c>
       <c r="AI13" t="n">
-        <v>8.154330316756386e-06</v>
+        <v>0.0006302330293692648</v>
       </c>
       <c r="AJ13" t="n">
-        <v>2.444809751978028e-06</v>
+        <v>0.0004837824963033199</v>
       </c>
       <c r="AK13" t="n">
-        <v>2.706994564505294e-06</v>
+        <v>0.0001662802242208272</v>
       </c>
       <c r="AL13" t="n">
-        <v>2.965015482914168e-06</v>
+        <v>5.086063174530864e-05</v>
       </c>
       <c r="AM13" t="n">
-        <v>4.487004048314702e-07</v>
+        <v>4.70881350338459e-05</v>
       </c>
       <c r="AN13" t="n">
-        <v>1.602470183570404e-05</v>
+        <v>0.001129152486100793</v>
       </c>
       <c r="AO13" t="n">
-        <v>1.824955802476325e-06</v>
+        <v>0.0007759774453006685</v>
       </c>
       <c r="AP13" t="n">
-        <v>9.988169040298089e-06</v>
+        <v>0.0005711475387215614</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.503978523942351e-07</v>
+        <v>0.000189884245628491</v>
       </c>
       <c r="AR13" t="n">
-        <v>1.831074314395664e-06</v>
+        <v>0.0001464839151594788</v>
       </c>
       <c r="AS13" t="n">
-        <v>7.932820267342322e-08</v>
+        <v>0.0002753512235358357</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.023010665652691e-06</v>
+        <v>0.0009263899410143495</v>
       </c>
       <c r="AU13" t="n">
-        <v>5.955545020697173e-06</v>
+        <v>0.0006866721087135375</v>
       </c>
       <c r="AV13" t="n">
-        <v>2.413991069261101e-06</v>
+        <v>0.0003041000454686582</v>
       </c>
       <c r="AW13" t="n">
-        <v>2.882946864701807e-05</v>
+        <v>0.001948188059031963</v>
       </c>
       <c r="AX13" t="n">
-        <v>2.463688360876404e-05</v>
+        <v>0.002824167255312204</v>
       </c>
       <c r="AY13" t="n">
-        <v>7.93971776147373e-06</v>
+        <v>0.002002684399485588</v>
       </c>
       <c r="AZ13" t="n">
-        <v>1.299059931625379e-06</v>
+        <v>0.001433094032108784</v>
       </c>
       <c r="BA13" t="n">
-        <v>1.017730937746819e-05</v>
+        <v>0.001199739519506693</v>
       </c>
       <c r="BB13" t="n">
-        <v>2.956521711894311e-07</v>
+        <v>0.0012489726068452</v>
       </c>
       <c r="BC13" t="n">
-        <v>5.938701178820338e-06</v>
+        <v>0.0003305291756987572</v>
       </c>
       <c r="BD13" t="n">
-        <v>6.770411005163623e-07</v>
+        <v>0.0002038558304775506</v>
       </c>
       <c r="BE13" t="n">
-        <v>1.07779464997293e-06</v>
+        <v>0.0002445272402837873</v>
       </c>
       <c r="BF13" t="n">
-        <v>1.673085716902278e-05</v>
+        <v>0.0009758443338796496</v>
       </c>
       <c r="BG13" t="n">
-        <v>1.236342723132111e-05</v>
+        <v>0.0005560668068937957</v>
       </c>
       <c r="BH13" t="n">
-        <v>1.269409381166042e-06</v>
+        <v>0.0007021003984846175</v>
       </c>
       <c r="BI13" t="n">
-        <v>4.193878339719959e-06</v>
+        <v>0.00148223782889545</v>
       </c>
       <c r="BJ13" t="n">
-        <v>2.546573568906751e-06</v>
+        <v>0.00041834736475721</v>
       </c>
       <c r="BK13" t="n">
-        <v>5.863027581654023e-06</v>
+        <v>0.0003073911066167057</v>
       </c>
       <c r="BL13" t="n">
-        <v>5.43944452147116e-06</v>
+        <v>0.0002269024262204766</v>
       </c>
       <c r="BM13" t="n">
-        <v>1.075857653631829e-05</v>
+        <v>0.0001774208212736994</v>
       </c>
       <c r="BN13" t="n">
-        <v>2.266556066388148e-06</v>
+        <v>5.180164589546621e-05</v>
       </c>
       <c r="BO13" t="n">
-        <v>5.11408052261686e-06</v>
+        <v>0.001308560604229569</v>
       </c>
       <c r="BP13" t="n">
-        <v>3.174082166879089e-06</v>
+        <v>0.0008513026405125856</v>
       </c>
       <c r="BQ13" t="n">
-        <v>1.635160401747271e-06</v>
+        <v>0.0003995338047388941</v>
       </c>
       <c r="BR13" t="n">
-        <v>1.103717295336537e-08</v>
+        <v>0.0002929447218775749</v>
       </c>
       <c r="BS13" t="n">
-        <v>6.163876150822034e-06</v>
+        <v>0.001817741547711194</v>
       </c>
       <c r="BT13" t="n">
-        <v>2.225810362688208e-07</v>
+        <v>0.0008869478479027748</v>
       </c>
       <c r="BU13" t="n">
-        <v>5.537249307963066e-07</v>
+        <v>0.0002341838699067011</v>
       </c>
       <c r="BV13" t="n">
-        <v>6.312845926004229e-07</v>
+        <v>0.0008433657349087298</v>
       </c>
       <c r="BW13" t="n">
-        <v>1.066080812961445e-06</v>
+        <v>0.0001910444116219878</v>
       </c>
       <c r="BX13" t="n">
-        <v>2.505430529708974e-05</v>
+        <v>0.0009979414753615856</v>
       </c>
       <c r="BY13" t="n">
-        <v>1.65159726748243e-05</v>
+        <v>0.001294031389988959</v>
       </c>
       <c r="BZ13" t="n">
-        <v>1.267188508791151e-05</v>
+        <v>0.001282751793041825</v>
       </c>
       <c r="CA13" t="n">
-        <v>1.929347206441889e-07</v>
+        <v>0.001038751215673983</v>
       </c>
       <c r="CB13" t="n">
-        <v>9.401549050380709e-08</v>
+        <v>0.0008923953282646835</v>
       </c>
       <c r="CC13" t="n">
-        <v>5.294441052683396e-06</v>
+        <v>0.0002790738362818956</v>
       </c>
       <c r="CD13" t="n">
-        <v>3.154514160996769e-06</v>
+        <v>6.729693268425763e-05</v>
       </c>
       <c r="CE13" t="n">
-        <v>2.48616561293602e-06</v>
+        <v>0.0003411378711462021</v>
       </c>
       <c r="CF13" t="n">
-        <v>4.01751123035865e-07</v>
+        <v>0.0004603677080012858</v>
       </c>
       <c r="CG13" t="n">
-        <v>8.975318451120984e-06</v>
+        <v>4.601214823196642e-05</v>
       </c>
       <c r="CH13" t="n">
-        <v>2.499726178939454e-06</v>
+        <v>6.563228089362383e-05</v>
       </c>
       <c r="CI13" t="n">
-        <v>2.802657945721876e-06</v>
+        <v>0.0002216965949628502</v>
       </c>
       <c r="CJ13" t="n">
-        <v>1.058689917954325e-06</v>
+        <v>9.566963854013011e-05</v>
       </c>
       <c r="CK13" t="n">
-        <v>1.099262931347766e-06</v>
+        <v>0.0003076515858992934</v>
       </c>
       <c r="CL13" t="n">
-        <v>2.880615738831693e-06</v>
+        <v>0.0003183141816407442</v>
       </c>
       <c r="CM13" t="n">
-        <v>4.586797786032548e-07</v>
+        <v>0.0002051119954558089</v>
       </c>
       <c r="CN13" t="n">
-        <v>7.583235401398269e-06</v>
+        <v>0.001186458510346711</v>
       </c>
       <c r="CO13" t="n">
-        <v>9.612778057999094e-07</v>
+        <v>4.34265130024869e-05</v>
       </c>
       <c r="CP13" t="n">
-        <v>1.856005292211194e-05</v>
+        <v>6.122225022409111e-05</v>
       </c>
       <c r="CQ13" t="n">
-        <v>6.701783377138781e-07</v>
+        <v>0.001557539915665984</v>
       </c>
       <c r="CR13" t="n">
-        <v>9.172900718112942e-06</v>
+        <v>0.0001904097298393026</v>
       </c>
       <c r="CS13" t="n">
-        <v>1.396438392475829e-06</v>
+        <v>0.0009773541241884232</v>
       </c>
       <c r="CT13" t="n">
-        <v>3.185334662703099e-06</v>
+        <v>0.0002561773872002959</v>
       </c>
       <c r="CU13" t="n">
-        <v>3.393771748960717e-06</v>
+        <v>0.001248310669325292</v>
       </c>
       <c r="CV13" t="n">
-        <v>3.656085254988284e-06</v>
+        <v>0.0001282050361623988</v>
       </c>
       <c r="CW13" t="n">
-        <v>2.354795697101508e-06</v>
+        <v>0.0004582046531140804</v>
       </c>
       <c r="CX13" t="n">
-        <v>1.843257905420614e-06</v>
+        <v>0.0003147659881506115</v>
       </c>
       <c r="CY13" t="n">
-        <v>8.396473276661709e-06</v>
+        <v>9.138559107668698e-06</v>
       </c>
       <c r="CZ13" t="n">
-        <v>2.27855093726248e-06</v>
+        <v>0.0001567331200931221</v>
       </c>
       <c r="DA13" t="n">
-        <v>1.624696778890211e-06</v>
+        <v>0.0002751434221863747</v>
       </c>
       <c r="DB13" t="n">
-        <v>1.745205281622475e-06</v>
+        <v>7.598141382914037e-05</v>
       </c>
       <c r="DC13" t="n">
-        <v>1.264742650164408e-06</v>
+        <v>0.0003637423506006598</v>
       </c>
       <c r="DD13" t="n">
-        <v>3.514163154250127e-06</v>
+        <v>0.0001726190675981343</v>
       </c>
       <c r="DE13" t="n">
-        <v>2.638499609020073e-06</v>
+        <v>0.001245217630639672</v>
       </c>
       <c r="DF13" t="n">
-        <v>1.447438307877746e-06</v>
+        <v>0.001819925848394632</v>
       </c>
       <c r="DG13" t="n">
-        <v>5.554870767809916e-06</v>
+        <v>0.0009408819023519754</v>
       </c>
       <c r="DH13" t="n">
-        <v>4.00743283535121e-06</v>
+        <v>0.002466754056513309</v>
       </c>
       <c r="DI13" t="n">
-        <v>1.89430847967742e-05</v>
+        <v>0.001079137204214931</v>
       </c>
       <c r="DJ13" t="n">
-        <v>1.100479767046636e-05</v>
+        <v>0.0007610914763063192</v>
       </c>
       <c r="DK13" t="n">
-        <v>8.194071483558218e-07</v>
+        <v>0.001768299727700651</v>
       </c>
       <c r="DL13" t="n">
-        <v>7.139253739296691e-06</v>
+        <v>0.0001300549483858049</v>
       </c>
       <c r="DM13" t="n">
-        <v>5.006818923902756e-07</v>
+        <v>0.0005764790112152696</v>
       </c>
       <c r="DN13" t="n">
-        <v>3.093637815254624e-06</v>
+        <v>0.0004499624774325639</v>
       </c>
       <c r="DO13" t="n">
-        <v>4.725985945697175e-06</v>
+        <v>0.0008279965841211379</v>
       </c>
       <c r="DP13" t="n">
-        <v>2.716809603953152e-06</v>
+        <v>0.0009031229419633746</v>
       </c>
       <c r="DQ13" t="n">
-        <v>9.243351541954326e-07</v>
+        <v>4.100671503692865e-06</v>
       </c>
       <c r="DR13" t="n">
-        <v>3.231798473279923e-06</v>
+        <v>0.0003681268426589668</v>
       </c>
       <c r="DS13" t="n">
-        <v>5.424107257567812e-06</v>
+        <v>0.0003557784948498011</v>
       </c>
       <c r="DT13" t="n">
-        <v>1.123215270126821e-06</v>
+        <v>0.0001601125113666058</v>
       </c>
       <c r="DU13" t="n">
-        <v>5.89905812375946e-06</v>
+        <v>9.083722397917882e-05</v>
       </c>
       <c r="DV13" t="n">
-        <v>7.368052138190251e-06</v>
+        <v>5.534085357794538e-05</v>
       </c>
       <c r="DW13" t="n">
-        <v>8.684363592692534e-07</v>
+        <v>0.0001018962939269841</v>
       </c>
       <c r="DX13" t="n">
-        <v>3.025299065484433e-06</v>
+        <v>2.632474934216589e-05</v>
       </c>
       <c r="DY13" t="n">
-        <v>6.14248506281001e-07</v>
+        <v>0.0002870211319532245</v>
       </c>
       <c r="DZ13" t="n">
-        <v>4.141828867432196e-06</v>
+        <v>0.0003963134076911956</v>
       </c>
       <c r="EA13" t="n">
-        <v>4.969356268702541e-06</v>
+        <v>0.0007106580305844545</v>
       </c>
       <c r="EB13" t="n">
-        <v>1.355334120489715e-06</v>
+        <v>0.002481643809005618</v>
       </c>
       <c r="EC13" t="n">
-        <v>6.85741383676941e-07</v>
+        <v>6.349787872750312e-05</v>
       </c>
       <c r="ED13" t="n">
-        <v>1.853766207204899e-06</v>
+        <v>8.64646426634863e-06</v>
       </c>
       <c r="EE13" t="n">
-        <v>6.580457466043299e-06</v>
+        <v>0.0007517964113503695</v>
       </c>
       <c r="EF13" t="n">
-        <v>1.443416977053857e-07</v>
+        <v>0.0005056164227426052</v>
       </c>
       <c r="EG13" t="n">
-        <v>4.459548108570743e-06</v>
+        <v>0.0007827987428754568</v>
       </c>
       <c r="EH13" t="n">
-        <v>2.52920017373981e-06</v>
+        <v>0.0004023891233373433</v>
       </c>
       <c r="EI13" t="n">
-        <v>1.355775020783767e-05</v>
+        <v>0.001181201077997684</v>
       </c>
       <c r="EJ13" t="n">
-        <v>5.036415586801013e-06</v>
+        <v>0.0003102882474195212</v>
       </c>
       <c r="EK13" t="n">
-        <v>1.793795036064694e-06</v>
+        <v>0.0001999845553655177</v>
       </c>
       <c r="EL13" t="n">
-        <v>4.033197910757735e-06</v>
+        <v>0.0001837984455050901</v>
       </c>
       <c r="EM13" t="n">
-        <v>2.77609251497779e-06</v>
+        <v>0.0007337210117839277</v>
       </c>
       <c r="EN13" t="n">
-        <v>1.403732312610373e-06</v>
+        <v>0.0001028417173074558</v>
       </c>
       <c r="EO13" t="n">
-        <v>6.153574759082403e-06</v>
+        <v>0.0002826598938554525</v>
       </c>
       <c r="EP13" t="n">
-        <v>4.207444362691604e-06</v>
+        <v>0.0008074374636635184</v>
       </c>
       <c r="EQ13" t="n">
-        <v>1.997852223212249e-06</v>
+        <v>0.0003617999609559774</v>
       </c>
       <c r="ER13" t="n">
-        <v>3.75489298676257e-06</v>
+        <v>0.0003198306949343532</v>
       </c>
       <c r="ES13" t="n">
-        <v>1.779637841536896e-06</v>
+        <v>0.0005001506651751697</v>
       </c>
       <c r="ET13" t="n">
-        <v>4.537912445812253e-08</v>
+        <v>0.001282902318052948</v>
       </c>
       <c r="EU13" t="n">
-        <v>4.590332309817313e-07</v>
+        <v>0.001304773148149252</v>
       </c>
       <c r="EV13" t="n">
-        <v>3.97518124373164e-06</v>
+        <v>0.001445011235773563</v>
       </c>
       <c r="EW13" t="n">
-        <v>6.566742172253726e-07</v>
+        <v>8.563014853280038e-05</v>
       </c>
       <c r="EX13" t="n">
-        <v>3.374431798874866e-06</v>
+        <v>1.416166196577251e-05</v>
       </c>
       <c r="EY13" t="n">
-        <v>2.926296474470291e-06</v>
+        <v>0.000403566547902301</v>
       </c>
       <c r="EZ13" t="n">
-        <v>1.439785819457029e-06</v>
+        <v>0.0001639347901800647</v>
       </c>
       <c r="FA13" t="n">
-        <v>7.607147381349932e-06</v>
+        <v>2.806058910209686e-05</v>
       </c>
       <c r="FB13" t="n">
-        <v>2.291211103511159e-06</v>
+        <v>5.646271165460348e-05</v>
       </c>
       <c r="FC13" t="n">
-        <v>1.64209927788761e-06</v>
+        <v>0.0002145877078874037</v>
       </c>
       <c r="FD13" t="n">
-        <v>2.655289108588477e-06</v>
+        <v>0.0002668289816938341</v>
       </c>
       <c r="FE13" t="n">
-        <v>1.046551233230275e-06</v>
+        <v>0.0006240117945708334</v>
       </c>
       <c r="FF13" t="n">
-        <v>1.019354272102646e-06</v>
+        <v>0.0004989903536625206</v>
       </c>
       <c r="FG13" t="n">
-        <v>8.349657605322136e-07</v>
+        <v>0.0007736979750916362</v>
       </c>
       <c r="FH13" t="n">
-        <v>2.566223429312231e-06</v>
+        <v>7.96648018877022e-05</v>
       </c>
       <c r="FI13" t="n">
-        <v>1.673901920185017e-06</v>
+        <v>0.0002772996376734227</v>
       </c>
       <c r="FJ13" t="n">
-        <v>4.741191787616117e-06</v>
+        <v>0.0008943493594415486</v>
       </c>
       <c r="FK13" t="n">
-        <v>8.70330859470414e-06</v>
+        <v>0.0004643779247999191</v>
       </c>
       <c r="FL13" t="n">
-        <v>5.578475793299731e-06</v>
+        <v>0.002155102323740721</v>
       </c>
       <c r="FM13" t="n">
-        <v>2.388578423051513e-06</v>
+        <v>0.0004186834557913244</v>
       </c>
       <c r="FN13" t="n">
-        <v>2.080040303553687e-06</v>
+        <v>0.0006912390817888081</v>
       </c>
       <c r="FO13" t="n">
-        <v>6.762923931091791e-06</v>
+        <v>3.979222674388438e-05</v>
       </c>
       <c r="FP13" t="n">
-        <v>1.474449277338863e-06</v>
+        <v>0.00060321728233248</v>
       </c>
       <c r="FQ13" t="n">
-        <v>1.250116952178359e-06</v>
+        <v>0.0002164709294447675</v>
       </c>
       <c r="FR13" t="n">
-        <v>3.024324541911483e-06</v>
+        <v>0.0009997736196964979</v>
       </c>
       <c r="FS13" t="n">
-        <v>1.807478111004457e-05</v>
+        <v>0.0009632985456846654</v>
       </c>
       <c r="FT13" t="n">
-        <v>7.392742190859281e-06</v>
+        <v>0.002718340372666717</v>
       </c>
       <c r="FU13" t="n">
-        <v>1.115428221964976e-05</v>
+        <v>0.0002993354864884168</v>
       </c>
       <c r="FV13" t="n">
-        <v>8.80899506228161e-07</v>
+        <v>0.0004714171518571675</v>
       </c>
       <c r="FW13" t="n">
-        <v>2.724440491874702e-06</v>
+        <v>0.001389350509271026</v>
       </c>
       <c r="FX13" t="n">
-        <v>3.206377186870668e-06</v>
+        <v>0.001174184959381819</v>
       </c>
       <c r="FY13" t="n">
-        <v>2.604557721497258e-06</v>
+        <v>0.001441359869204462</v>
       </c>
       <c r="FZ13" t="n">
-        <v>4.147640083829174e-06</v>
+        <v>0.0008471067412756383</v>
       </c>
       <c r="GA13" t="n">
-        <v>3.480076031792123e-07</v>
+        <v>0.001570777501910925</v>
       </c>
       <c r="GB13" t="n">
-        <v>7.909981832199264e-06</v>
+        <v>0.001670281053520739</v>
       </c>
       <c r="GC13" t="n">
-        <v>5.289890850690426e-06</v>
+        <v>0.0003239767393097281</v>
       </c>
       <c r="GD13" t="n">
-        <v>2.380960950176814e-06</v>
+        <v>0.0005411850870586932</v>
       </c>
       <c r="GE13" t="n">
-        <v>1.633612896512204e-06</v>
+        <v>0.0009549543028697371</v>
       </c>
       <c r="GF13" t="n">
-        <v>5.45464490642189e-06</v>
+        <v>0.002041673520579934</v>
       </c>
       <c r="GG13" t="n">
-        <v>7.327209914365085e-06</v>
+        <v>0.0008403090760111809</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3.152343941437152e-10</v>
+        <v>0.0009269759175367653</v>
       </c>
       <c r="B14" t="n">
-        <v>8.477563095965479e-10</v>
+        <v>0.00990923959761858</v>
       </c>
       <c r="C14" t="n">
-        <v>2.005903637636308e-10</v>
+        <v>0.0003934924025088549</v>
       </c>
       <c r="D14" t="n">
-        <v>9.641003551053018e-10</v>
+        <v>0.005040929187089205</v>
       </c>
       <c r="E14" t="n">
-        <v>7.342248475872282e-10</v>
+        <v>0.002022992819547653</v>
       </c>
       <c r="F14" t="n">
-        <v>7.405252799852491e-11</v>
+        <v>0.0002747102989815176</v>
       </c>
       <c r="G14" t="n">
-        <v>1.517184294863583e-10</v>
+        <v>0.0009104807395488024</v>
       </c>
       <c r="H14" t="n">
-        <v>1.54334267588041e-10</v>
+        <v>0.0001436244638171047</v>
       </c>
       <c r="I14" t="n">
-        <v>9.833076713983147e-11</v>
+        <v>0.0002498714602552354</v>
       </c>
       <c r="J14" t="n">
-        <v>2.38443820244072e-10</v>
+        <v>4.788977093994617e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>9.202845707712015e-10</v>
+        <v>0.007348729763180017</v>
       </c>
       <c r="L14" t="n">
-        <v>1.215672701393444e-10</v>
+        <v>0.0005135669489391148</v>
       </c>
       <c r="M14" t="n">
-        <v>9.4845986620129e-10</v>
+        <v>0.004517299588769674</v>
       </c>
       <c r="N14" t="n">
-        <v>6.54014453704832e-10</v>
+        <v>0.002742791548371315</v>
       </c>
       <c r="O14" t="n">
-        <v>8.893782932339889e-11</v>
+        <v>0.001212108181789517</v>
       </c>
       <c r="P14" t="n">
-        <v>7.980084648639973e-11</v>
+        <v>0.0006294770864769816</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.202433097009404e-10</v>
+        <v>0.00112551636993885</v>
       </c>
       <c r="R14" t="n">
-        <v>3.533998094162882e-10</v>
+        <v>0.0002828117285389453</v>
       </c>
       <c r="S14" t="n">
-        <v>1.568895569015183e-10</v>
+        <v>0.0002502978895790875</v>
       </c>
       <c r="T14" t="n">
-        <v>1.065227420160575e-10</v>
+        <v>0.001105646835640073</v>
       </c>
       <c r="U14" t="n">
-        <v>9.91408205530675e-11</v>
+        <v>5.645332203130238e-05</v>
       </c>
       <c r="V14" t="n">
-        <v>3.239959966983008e-10</v>
+        <v>0.001409866148605943</v>
       </c>
       <c r="W14" t="n">
-        <v>4.028786193543965e-10</v>
+        <v>0.002086482010781765</v>
       </c>
       <c r="X14" t="n">
-        <v>9.32099883388382e-12</v>
+        <v>0.0005731991259381175</v>
       </c>
       <c r="Y14" t="n">
-        <v>2.021435796528692e-10</v>
+        <v>0.0002628180955071002</v>
       </c>
       <c r="Z14" t="n">
-        <v>1.692074813597344e-10</v>
+        <v>0.001228803768754005</v>
       </c>
       <c r="AA14" t="n">
-        <v>1.137159810760124e-11</v>
+        <v>0.0001627751043997705</v>
       </c>
       <c r="AB14" t="n">
-        <v>1.995344445226976e-10</v>
+        <v>0.0005280784098431468</v>
       </c>
       <c r="AC14" t="n">
-        <v>1.052250647726183e-10</v>
+        <v>0.0009795252699404955</v>
       </c>
       <c r="AD14" t="n">
-        <v>7.064160888192728e-12</v>
+        <v>0.0005429150187410414</v>
       </c>
       <c r="AE14" t="n">
-        <v>4.446195911445017e-10</v>
+        <v>0.0004966643755324185</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.16294801513861e-10</v>
+        <v>0.0004067823465447873</v>
       </c>
       <c r="AG14" t="n">
-        <v>1.633682989235496e-12</v>
+        <v>0.001426329137757421</v>
       </c>
       <c r="AH14" t="n">
-        <v>4.990931973258839e-11</v>
+        <v>0.0005229896050877869</v>
       </c>
       <c r="AI14" t="n">
-        <v>1.77658721067786e-10</v>
+        <v>0.0008280479232780635</v>
       </c>
       <c r="AJ14" t="n">
-        <v>4.38994812723692e-11</v>
+        <v>2.369662979617715e-05</v>
       </c>
       <c r="AK14" t="n">
-        <v>2.582914992999008e-10</v>
+        <v>0.00147369469050318</v>
       </c>
       <c r="AL14" t="n">
-        <v>5.105280781458887e-11</v>
+        <v>0.0001840022159740329</v>
       </c>
       <c r="AM14" t="n">
-        <v>6.668734314763114e-11</v>
+        <v>0.0002481694391462952</v>
       </c>
       <c r="AN14" t="n">
-        <v>6.438689859056268e-11</v>
+        <v>0.001013796078041196</v>
       </c>
       <c r="AO14" t="n">
-        <v>1.863084270192772e-10</v>
+        <v>0.001619716174900532</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.034319782600157e-10</v>
+        <v>0.001511877868324518</v>
       </c>
       <c r="AQ14" t="n">
-        <v>7.604426116580854e-11</v>
+        <v>0.0002257935120724142</v>
       </c>
       <c r="AR14" t="n">
-        <v>3.257224351349564e-11</v>
+        <v>0.0009253454627469182</v>
       </c>
       <c r="AS14" t="n">
-        <v>5.994348073468103e-11</v>
+        <v>0.0002899147220887244</v>
       </c>
       <c r="AT14" t="n">
-        <v>5.80220593793257e-10</v>
+        <v>7.369332161033526e-05</v>
       </c>
       <c r="AU14" t="n">
-        <v>5.941961922495409e-10</v>
+        <v>0.005777122918516397</v>
       </c>
       <c r="AV14" t="n">
-        <v>1.525988710393555e-11</v>
+        <v>9.344588761450723e-05</v>
       </c>
       <c r="AW14" t="n">
-        <v>2.960454104083965e-11</v>
+        <v>0.002288136398419738</v>
       </c>
       <c r="AX14" t="n">
-        <v>3.489604993855977e-10</v>
+        <v>0.0004365906061138958</v>
       </c>
       <c r="AY14" t="n">
-        <v>8.639141485522472e-11</v>
+        <v>0.0004101636004634202</v>
       </c>
       <c r="AZ14" t="n">
-        <v>4.861391844634966e-11</v>
+        <v>0.0004529230063781142</v>
       </c>
       <c r="BA14" t="n">
-        <v>1.699776153163413e-10</v>
+        <v>0.0001351641549263149</v>
       </c>
       <c r="BB14" t="n">
-        <v>5.581242759622462e-11</v>
+        <v>0.0003242043894715607</v>
       </c>
       <c r="BC14" t="n">
-        <v>7.111820854444062e-11</v>
+        <v>0.0008708255481906235</v>
       </c>
       <c r="BD14" t="n">
-        <v>1.272934119223024e-10</v>
+        <v>0.001756243989802897</v>
       </c>
       <c r="BE14" t="n">
-        <v>5.139225850436802e-12</v>
+        <v>0.001663970411755145</v>
       </c>
       <c r="BF14" t="n">
-        <v>5.629556265596136e-10</v>
+        <v>0.0009383475407958031</v>
       </c>
       <c r="BG14" t="n">
-        <v>3.371950496600107e-10</v>
+        <v>0.002919422462582588</v>
       </c>
       <c r="BH14" t="n">
-        <v>2.742432669844419e-10</v>
+        <v>0.00131233548745513</v>
       </c>
       <c r="BI14" t="n">
-        <v>4.689166763216512e-11</v>
+        <v>0.001478377729654312</v>
       </c>
       <c r="BJ14" t="n">
-        <v>1.433216600954523e-10</v>
+        <v>0.000399839598685503</v>
       </c>
       <c r="BK14" t="n">
-        <v>1.402438443154352e-10</v>
+        <v>4.607136361300945e-07</v>
       </c>
       <c r="BL14" t="n">
-        <v>1.432979152005132e-10</v>
+        <v>0.0001298302668146789</v>
       </c>
       <c r="BM14" t="n">
-        <v>4.98433183615532e-10</v>
+        <v>0.001451467047445476</v>
       </c>
       <c r="BN14" t="n">
-        <v>9.881411661138984e-12</v>
+        <v>0.0007968264981172979</v>
       </c>
       <c r="BO14" t="n">
-        <v>2.433649393118742e-10</v>
+        <v>2.079819205391686e-05</v>
       </c>
       <c r="BP14" t="n">
-        <v>1.981355080005187e-10</v>
+        <v>0.001326716504991055</v>
       </c>
       <c r="BQ14" t="n">
-        <v>9.288048802291726e-11</v>
+        <v>0.001075900392606854</v>
       </c>
       <c r="BR14" t="n">
-        <v>6.888911663338604e-11</v>
+        <v>0.0004369622329249978</v>
       </c>
       <c r="BS14" t="n">
-        <v>1.160964102631112e-10</v>
+        <v>0.0003008726926054806</v>
       </c>
       <c r="BT14" t="n">
-        <v>4.549687709909378e-11</v>
+        <v>0.0007872577989473939</v>
       </c>
       <c r="BU14" t="n">
-        <v>4.039210077522171e-10</v>
+        <v>0.001251990091986954</v>
       </c>
       <c r="BV14" t="n">
-        <v>8.014511970744209e-11</v>
+        <v>0.003229472786188126</v>
       </c>
       <c r="BW14" t="n">
-        <v>2.704504675765662e-10</v>
+        <v>0.0005826179403811693</v>
       </c>
       <c r="BX14" t="n">
-        <v>2.049022063133066e-10</v>
+        <v>0.001084884745068848</v>
       </c>
       <c r="BY14" t="n">
-        <v>2.957149802806924e-10</v>
+        <v>0.0002724955265875906</v>
       </c>
       <c r="BZ14" t="n">
-        <v>6.897527687899085e-11</v>
+        <v>0.0009476900449953973</v>
       </c>
       <c r="CA14" t="n">
-        <v>4.410704440571678e-11</v>
+        <v>0.0004630947660189122</v>
       </c>
       <c r="CB14" t="n">
-        <v>2.843392188367488e-11</v>
+        <v>0.0006566349184140563</v>
       </c>
       <c r="CC14" t="n">
-        <v>7.453363620735232e-11</v>
+        <v>0.0001884716184576973</v>
       </c>
       <c r="CD14" t="n">
-        <v>8.260064854326288e-11</v>
+        <v>0.000506566371768713</v>
       </c>
       <c r="CE14" t="n">
-        <v>2.261775627898643e-10</v>
+        <v>0.001668739947490394</v>
       </c>
       <c r="CF14" t="n">
-        <v>3.616480379053932e-11</v>
+        <v>0.0006324187270365655</v>
       </c>
       <c r="CG14" t="n">
-        <v>1.897189627619866e-10</v>
+        <v>0.0008160257712006569</v>
       </c>
       <c r="CH14" t="n">
-        <v>2.566349910360088e-10</v>
+        <v>0.0002153908717446029</v>
       </c>
       <c r="CI14" t="n">
-        <v>3.279471832984271e-11</v>
+        <v>1.432300632586703e-05</v>
       </c>
       <c r="CJ14" t="n">
-        <v>2.32423420787331e-11</v>
+        <v>0.0005288496613502502</v>
       </c>
       <c r="CK14" t="n">
-        <v>4.643168835527511e-11</v>
+        <v>0.0003700572706293315</v>
       </c>
       <c r="CL14" t="n">
-        <v>6.307097205615619e-11</v>
+        <v>4.851521225646138e-06</v>
       </c>
       <c r="CM14" t="n">
-        <v>3.550011326569624e-11</v>
+        <v>0.003509005298838019</v>
       </c>
       <c r="CN14" t="n">
-        <v>4.219579893827152e-11</v>
+        <v>0.0004230664053466171</v>
       </c>
       <c r="CO14" t="n">
-        <v>6.052850928806031e-12</v>
+        <v>0.0002392250607954338</v>
       </c>
       <c r="CP14" t="n">
-        <v>1.948063516055143e-10</v>
+        <v>0.0002298566250829026</v>
       </c>
       <c r="CQ14" t="n">
-        <v>2.737058635293721e-10</v>
+        <v>0.0005660320748575032</v>
       </c>
       <c r="CR14" t="n">
-        <v>1.972922936133159e-10</v>
+        <v>0.003279546508565545</v>
       </c>
       <c r="CS14" t="n">
-        <v>4.743308870680529e-11</v>
+        <v>0.0005371016450226307</v>
       </c>
       <c r="CT14" t="n">
-        <v>3.221177768963912e-10</v>
+        <v>0.0006366465240716934</v>
       </c>
       <c r="CU14" t="n">
-        <v>2.814220037561377e-11</v>
+        <v>0.001879324438050389</v>
       </c>
       <c r="CV14" t="n">
-        <v>9.225679248325847e-11</v>
+        <v>0.0004044591332785785</v>
       </c>
       <c r="CW14" t="n">
-        <v>2.385107389368812e-10</v>
+        <v>0.001715963589958847</v>
       </c>
       <c r="CX14" t="n">
-        <v>3.135549805910465e-11</v>
+        <v>0.001062344177626073</v>
       </c>
       <c r="CY14" t="n">
-        <v>1.38043104724872e-10</v>
+        <v>0.0009984193602576852</v>
       </c>
       <c r="CZ14" t="n">
-        <v>2.15297654704294e-10</v>
+        <v>0.0001712945086183026</v>
       </c>
       <c r="DA14" t="n">
-        <v>4.264215716642816e-12</v>
+        <v>0.0002512782521080226</v>
       </c>
       <c r="DB14" t="n">
-        <v>3.54038673378021e-12</v>
+        <v>0.0002959732955787331</v>
       </c>
       <c r="DC14" t="n">
-        <v>6.557396986517361e-11</v>
+        <v>0.0006426887703128159</v>
       </c>
       <c r="DD14" t="n">
-        <v>5.687858517511302e-11</v>
+        <v>3.459537401795387e-05</v>
       </c>
       <c r="DE14" t="n">
-        <v>4.655882346327189e-10</v>
+        <v>0.001529542380012572</v>
       </c>
       <c r="DF14" t="n">
-        <v>2.868661419519469e-10</v>
+        <v>0.002684004604816437</v>
       </c>
       <c r="DG14" t="n">
-        <v>4.898118022289566e-11</v>
+        <v>0.002796387765556574</v>
       </c>
       <c r="DH14" t="n">
-        <v>1.837707416796341e-11</v>
+        <v>0.001353677827864885</v>
       </c>
       <c r="DI14" t="n">
-        <v>5.194450425349828e-11</v>
+        <v>0.0005594959948211908</v>
       </c>
       <c r="DJ14" t="n">
-        <v>1.298974539043485e-10</v>
+        <v>0.0006031273514963686</v>
       </c>
       <c r="DK14" t="n">
-        <v>2.25217261506927e-10</v>
+        <v>0.00193965039215982</v>
       </c>
       <c r="DL14" t="n">
-        <v>2.850173985713411e-10</v>
+        <v>0.001785098691470921</v>
       </c>
       <c r="DM14" t="n">
-        <v>1.596592649755202e-11</v>
+        <v>0.000425539561547339</v>
       </c>
       <c r="DN14" t="n">
-        <v>4.273215115091489e-11</v>
+        <v>0.0009103637421503663</v>
       </c>
       <c r="DO14" t="n">
-        <v>2.54540659383462e-11</v>
+        <v>1.976717612706125e-05</v>
       </c>
       <c r="DP14" t="n">
-        <v>1.653726461325888e-11</v>
+        <v>0.000103181075246539</v>
       </c>
       <c r="DQ14" t="n">
-        <v>1.876889754726108e-10</v>
+        <v>0.002077730838209391</v>
       </c>
       <c r="DR14" t="n">
-        <v>1.967802171209954e-10</v>
+        <v>3.192744770785794e-05</v>
       </c>
       <c r="DS14" t="n">
-        <v>1.610110100802586e-10</v>
+        <v>0.000205895077669993</v>
       </c>
       <c r="DT14" t="n">
-        <v>8.320174410547665e-12</v>
+        <v>0.0005351377185434103</v>
       </c>
       <c r="DU14" t="n">
-        <v>2.657248553139535e-11</v>
+        <v>0.0006559262983500957</v>
       </c>
       <c r="DV14" t="n">
-        <v>1.557372147908964e-10</v>
+        <v>0.0008687451481819153</v>
       </c>
       <c r="DW14" t="n">
-        <v>6.842264255180197e-11</v>
+        <v>0.001098933047614992</v>
       </c>
       <c r="DX14" t="n">
-        <v>1.503386304335663e-10</v>
+        <v>0.0008458941010758281</v>
       </c>
       <c r="DY14" t="n">
-        <v>1.268615629212988e-10</v>
+        <v>0.0002020143438130617</v>
       </c>
       <c r="DZ14" t="n">
-        <v>3.191077610487092e-11</v>
+        <v>0.000673678470775485</v>
       </c>
       <c r="EA14" t="n">
-        <v>2.947633109817716e-11</v>
+        <v>0.00112084427382797</v>
       </c>
       <c r="EB14" t="n">
-        <v>2.023654681326814e-11</v>
+        <v>0.001368378172628582</v>
       </c>
       <c r="EC14" t="n">
-        <v>4.645760165455926e-11</v>
+        <v>0.001868485589511693</v>
       </c>
       <c r="ED14" t="n">
-        <v>8.978670584802728e-11</v>
+        <v>0.0003822674043476582</v>
       </c>
       <c r="EE14" t="n">
-        <v>1.270244881501625e-10</v>
+        <v>0.0003745817230083048</v>
       </c>
       <c r="EF14" t="n">
-        <v>1.832749507713061e-10</v>
+        <v>0.00168993475381285</v>
       </c>
       <c r="EG14" t="n">
-        <v>1.352932765819048e-10</v>
+        <v>0.001568076550029218</v>
       </c>
       <c r="EH14" t="n">
-        <v>2.009665003854799e-11</v>
+        <v>0.002162669785320759</v>
       </c>
       <c r="EI14" t="n">
-        <v>3.052045283169491e-10</v>
+        <v>0.001061694929376245</v>
       </c>
       <c r="EJ14" t="n">
-        <v>6.740052266307472e-11</v>
+        <v>0.0002700230979826301</v>
       </c>
       <c r="EK14" t="n">
-        <v>5.881499454130079e-11</v>
+        <v>0.0001137922881753184</v>
       </c>
       <c r="EL14" t="n">
-        <v>9.621525798308994e-12</v>
+        <v>0.0001748102658893913</v>
       </c>
       <c r="EM14" t="n">
-        <v>4.140481013603647e-11</v>
+        <v>0.0001359287707600743</v>
       </c>
       <c r="EN14" t="n">
-        <v>1.073749075763963e-11</v>
+        <v>8.775663445703685e-05</v>
       </c>
       <c r="EO14" t="n">
-        <v>2.007763920397476e-11</v>
+        <v>0.0004200650146231055</v>
       </c>
       <c r="EP14" t="n">
-        <v>1.738617444457802e-10</v>
+        <v>0.001986056799069047</v>
       </c>
       <c r="EQ14" t="n">
-        <v>1.81992858283575e-11</v>
+        <v>0.0002528196782805026</v>
       </c>
       <c r="ER14" t="n">
-        <v>4.434542143216813e-12</v>
+        <v>0.001686095376498997</v>
       </c>
       <c r="ES14" t="n">
-        <v>2.380294572557062e-10</v>
+        <v>0.0007854608120396733</v>
       </c>
       <c r="ET14" t="n">
-        <v>7.848631466966793e-11</v>
+        <v>0.0002907766320277005</v>
       </c>
       <c r="EU14" t="n">
-        <v>5.196598359957783e-11</v>
+        <v>0.001108126947656274</v>
       </c>
       <c r="EV14" t="n">
-        <v>1.31229194177962e-11</v>
+        <v>0.0004775901325047016</v>
       </c>
       <c r="EW14" t="n">
-        <v>3.990623456684439e-11</v>
+        <v>0.0005066010635346174</v>
       </c>
       <c r="EX14" t="n">
-        <v>6.510764843925543e-11</v>
+        <v>0.0008425245760008693</v>
       </c>
       <c r="EY14" t="n">
-        <v>2.165326806746748e-10</v>
+        <v>0.001741907093673944</v>
       </c>
       <c r="EZ14" t="n">
-        <v>1.338596421207594e-11</v>
+        <v>0.000805510557256639</v>
       </c>
       <c r="FA14" t="n">
-        <v>1.557693279918837e-10</v>
+        <v>0.001054974156431854</v>
       </c>
       <c r="FB14" t="n">
-        <v>2.370077745172949e-10</v>
+        <v>0.0001735525293042883</v>
       </c>
       <c r="FC14" t="n">
-        <v>1.523374829059954e-11</v>
+        <v>5.016204522689804e-05</v>
       </c>
       <c r="FD14" t="n">
-        <v>2.271216027749379e-11</v>
+        <v>0.0004741926677525043</v>
       </c>
       <c r="FE14" t="n">
-        <v>9.255055055668038e-12</v>
+        <v>0.0006360029219649732</v>
       </c>
       <c r="FF14" t="n">
-        <v>1.284173895693685e-11</v>
+        <v>0.0002110146451741457</v>
       </c>
       <c r="FG14" t="n">
-        <v>1.304421431980174e-10</v>
+        <v>3.598097828216851e-05</v>
       </c>
       <c r="FH14" t="n">
-        <v>2.126541165381468e-10</v>
+        <v>0.0001881558855529875</v>
       </c>
       <c r="FI14" t="n">
-        <v>9.878134421548168e-11</v>
+        <v>0.0006256980705074966</v>
       </c>
       <c r="FJ14" t="n">
-        <v>1.574792102276845e-10</v>
+        <v>0.001481340616010129</v>
       </c>
       <c r="FK14" t="n">
-        <v>3.446047058819346e-10</v>
+        <v>0.0008406962151639163</v>
       </c>
       <c r="FL14" t="n">
-        <v>2.545321731162176e-10</v>
+        <v>0.0005473954952321947</v>
       </c>
       <c r="FM14" t="n">
-        <v>2.193999495969656e-11</v>
+        <v>0.0003659081703517586</v>
       </c>
       <c r="FN14" t="n">
-        <v>1.600542892665757e-10</v>
+        <v>0.0002485981094650924</v>
       </c>
       <c r="FO14" t="n">
-        <v>1.471054944524042e-10</v>
+        <v>0.0003075600252486765</v>
       </c>
       <c r="FP14" t="n">
-        <v>1.425927292908469e-10</v>
+        <v>0.002734736539423466</v>
       </c>
       <c r="FQ14" t="n">
-        <v>3.32485539100702e-10</v>
+        <v>0.0005036522634327412</v>
       </c>
       <c r="FR14" t="n">
-        <v>3.287770888871222e-10</v>
+        <v>0.003370293183252215</v>
       </c>
       <c r="FS14" t="n">
-        <v>3.149744354224993e-10</v>
+        <v>0.0004270226927474141</v>
       </c>
       <c r="FT14" t="n">
-        <v>1.402457316945771e-10</v>
+        <v>0.0004379418096505105</v>
       </c>
       <c r="FU14" t="n">
-        <v>4.323074884182709e-11</v>
+        <v>0.0008394602336920798</v>
       </c>
       <c r="FV14" t="n">
-        <v>2.757537947983835e-11</v>
+        <v>0.001665729796513915</v>
       </c>
       <c r="FW14" t="n">
-        <v>5.054900942269569e-11</v>
+        <v>0.0008176167029887438</v>
       </c>
       <c r="FX14" t="n">
-        <v>6.704528598966419e-11</v>
+        <v>0.001244687358848751</v>
       </c>
       <c r="FY14" t="n">
-        <v>8.791287836595885e-11</v>
+        <v>0.0005766130634583533</v>
       </c>
       <c r="FZ14" t="n">
-        <v>3.59568902430496e-10</v>
+        <v>0.0005887315492145717</v>
       </c>
       <c r="GA14" t="n">
-        <v>4.415988061334808e-11</v>
+        <v>0.0005112133221700788</v>
       </c>
       <c r="GB14" t="n">
-        <v>4.04231301209812e-11</v>
+        <v>0.0002489428443368524</v>
       </c>
       <c r="GC14" t="n">
-        <v>3.555273020428018e-10</v>
+        <v>0.0005637072026729584</v>
       </c>
       <c r="GD14" t="n">
-        <v>2.081207428616949e-11</v>
+        <v>5.121189315104857e-05</v>
       </c>
       <c r="GE14" t="n">
-        <v>8.43025371732864e-11</v>
+        <v>0.00154905254021287</v>
       </c>
       <c r="GF14" t="n">
-        <v>1.632412260921257e-10</v>
+        <v>0.000383660604711622</v>
       </c>
       <c r="GG14" t="n">
-        <v>1.146775209515116e-11</v>
+        <v>8.10649071354419e-05</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.01150223053991795</v>
+        <v>0.01028784364461899</v>
       </c>
       <c r="B15" t="n">
-        <v>0.03380490839481354</v>
+        <v>0.2407517433166504</v>
       </c>
       <c r="C15" t="n">
-        <v>0.009605538100004196</v>
+        <v>0.07432901114225388</v>
       </c>
       <c r="D15" t="n">
-        <v>0.03697856515645981</v>
+        <v>0.04409849643707275</v>
       </c>
       <c r="E15" t="n">
-        <v>0.01597948744893074</v>
+        <v>0.04622342437505722</v>
       </c>
       <c r="F15" t="n">
-        <v>0.004139780532568693</v>
+        <v>0.0483844168484211</v>
       </c>
       <c r="G15" t="n">
-        <v>0.001302064629271626</v>
+        <v>0.004563890397548676</v>
       </c>
       <c r="H15" t="n">
-        <v>0.004527569748461246</v>
+        <v>0.05089874193072319</v>
       </c>
       <c r="I15" t="n">
-        <v>0.04061752930283546</v>
+        <v>0.03542245551943779</v>
       </c>
       <c r="J15" t="n">
-        <v>0.006955128163099289</v>
+        <v>0.05111562088131905</v>
       </c>
       <c r="K15" t="n">
-        <v>0.02745503187179565</v>
+        <v>0.2298000156879425</v>
       </c>
       <c r="L15" t="n">
-        <v>0.02094192430377007</v>
+        <v>0.05489135533571243</v>
       </c>
       <c r="M15" t="n">
-        <v>0.03441149368882179</v>
+        <v>0.06451290845870972</v>
       </c>
       <c r="N15" t="n">
-        <v>0.0221894159913063</v>
+        <v>0.00620940700173378</v>
       </c>
       <c r="O15" t="n">
-        <v>0.01789073646068573</v>
+        <v>0.001380856614559889</v>
       </c>
       <c r="P15" t="n">
-        <v>0.001642593997530639</v>
+        <v>0.01730671152472496</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.002668240107595921</v>
+        <v>0.05987505614757538</v>
       </c>
       <c r="R15" t="n">
-        <v>0.04162305593490601</v>
+        <v>0.08484338223934174</v>
       </c>
       <c r="S15" t="n">
-        <v>0.008060059510171413</v>
+        <v>0.03126472234725952</v>
       </c>
       <c r="T15" t="n">
-        <v>0.006290076300501823</v>
+        <v>0.03788886964321136</v>
       </c>
       <c r="U15" t="n">
-        <v>0.002353265881538391</v>
+        <v>0.03958923742175102</v>
       </c>
       <c r="V15" t="n">
-        <v>0.01228964515030384</v>
+        <v>0.03579510003328323</v>
       </c>
       <c r="W15" t="n">
-        <v>0.0299097616225481</v>
+        <v>0.009378900751471519</v>
       </c>
       <c r="X15" t="n">
-        <v>0.01094324793666601</v>
+        <v>0.0033971699886024</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.006786002777516842</v>
+        <v>0.0007848972454667091</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.00224387226626277</v>
+        <v>0.02315444312989712</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.005539615638554096</v>
+        <v>0.01174461748450994</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.004390544258058071</v>
+        <v>0.04740123078227043</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.01109676621854305</v>
+        <v>0.03456167504191399</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.005291652865707874</v>
+        <v>0.02159262448549271</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.0015367103042081</v>
+        <v>0.04969463497400284</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.01228461507707834</v>
+        <v>0.02438456378877163</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.01606020703911781</v>
+        <v>0.01098793372511864</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.0006780828116461635</v>
+        <v>0.01679368130862713</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.01737227477133274</v>
+        <v>0.0003366223536431789</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.01097116060554981</v>
+        <v>0.03760354965925217</v>
       </c>
       <c r="AK15" t="n">
-        <v>0.009867171756923199</v>
+        <v>0.005915478803217411</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.01294942386448383</v>
+        <v>0.03053516708314419</v>
       </c>
       <c r="AM15" t="n">
-        <v>0.004985659848898649</v>
+        <v>0.005583522375673056</v>
       </c>
       <c r="AN15" t="n">
-        <v>0.006028004456311464</v>
+        <v>0.01329632475972176</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.001050485880114138</v>
+        <v>0.003269143402576447</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.01462174952030182</v>
+        <v>0.05231895297765732</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.003643804229795933</v>
+        <v>0.01676967367529869</v>
       </c>
       <c r="AR15" t="n">
-        <v>0.004392329137772322</v>
+        <v>0.003590576350688934</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.00215155491605401</v>
+        <v>0.01093422528356314</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.002633955795317888</v>
+        <v>0.0822080671787262</v>
       </c>
       <c r="AU15" t="n">
-        <v>0.005659664981067181</v>
+        <v>0.1083494573831558</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.01305681280791759</v>
+        <v>0.03787557035684586</v>
       </c>
       <c r="AW15" t="n">
-        <v>0.0164857991039753</v>
+        <v>0.02156017161905766</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.005174414720386267</v>
+        <v>0.03609611093997955</v>
       </c>
       <c r="AY15" t="n">
-        <v>0.02017728425562382</v>
+        <v>0.05311716720461845</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0.0047562001273036</v>
+        <v>0.02162483334541321</v>
       </c>
       <c r="BA15" t="n">
-        <v>0.00247629452496767</v>
+        <v>0.002931075170636177</v>
       </c>
       <c r="BB15" t="n">
-        <v>0.01241568010300398</v>
+        <v>0.02283902652561665</v>
       </c>
       <c r="BC15" t="n">
-        <v>0.002756132744252682</v>
+        <v>0.07779607176780701</v>
       </c>
       <c r="BD15" t="n">
-        <v>0.01720604486763477</v>
+        <v>0.05673006549477577</v>
       </c>
       <c r="BE15" t="n">
-        <v>0.0006754735368303955</v>
+        <v>0.02078220061957836</v>
       </c>
       <c r="BF15" t="n">
-        <v>0.009589191526174545</v>
+        <v>0.03376313298940659</v>
       </c>
       <c r="BG15" t="n">
-        <v>0.0107981963083148</v>
+        <v>0.113397441804409</v>
       </c>
       <c r="BH15" t="n">
-        <v>0.003334309905767441</v>
+        <v>0.004828204400837421</v>
       </c>
       <c r="BI15" t="n">
-        <v>0.001274553127586842</v>
+        <v>0.03904921188950539</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0.002231374848634005</v>
+        <v>0.1001574173569679</v>
       </c>
       <c r="BK15" t="n">
-        <v>0.01354246400296688</v>
+        <v>0.02206504158675671</v>
       </c>
       <c r="BL15" t="n">
-        <v>0.0009049446671269834</v>
+        <v>0.03620315343141556</v>
       </c>
       <c r="BM15" t="n">
-        <v>0.0029000174254179</v>
+        <v>0.03093100339174271</v>
       </c>
       <c r="BN15" t="n">
-        <v>0.0126412995159626</v>
+        <v>0.05645762011408806</v>
       </c>
       <c r="BO15" t="n">
-        <v>0.00626014219596982</v>
+        <v>0.001527807209640741</v>
       </c>
       <c r="BP15" t="n">
-        <v>0.003302969504147768</v>
+        <v>0.05069062858819962</v>
       </c>
       <c r="BQ15" t="n">
-        <v>0.0007014651782810688</v>
+        <v>0.01130802277475595</v>
       </c>
       <c r="BR15" t="n">
-        <v>0.004847526550292969</v>
+        <v>0.03771670907735825</v>
       </c>
       <c r="BS15" t="n">
-        <v>0.004760192707180977</v>
+        <v>0.01627601683139801</v>
       </c>
       <c r="BT15" t="n">
-        <v>0.006063719280064106</v>
+        <v>0.019489586353302</v>
       </c>
       <c r="BU15" t="n">
-        <v>0.01091110520064831</v>
+        <v>0.06280241161584854</v>
       </c>
       <c r="BV15" t="n">
-        <v>0.009337548166513443</v>
+        <v>0.06749085336923599</v>
       </c>
       <c r="BW15" t="n">
-        <v>0.005843873135745525</v>
+        <v>0.003132734214887023</v>
       </c>
       <c r="BX15" t="n">
-        <v>0.01428258046507835</v>
+        <v>0.02559966035187244</v>
       </c>
       <c r="BY15" t="n">
-        <v>0.01117012090981007</v>
+        <v>0.02303499542176723</v>
       </c>
       <c r="BZ15" t="n">
-        <v>2.953896182589233e-05</v>
+        <v>0.01015779562294483</v>
       </c>
       <c r="CA15" t="n">
-        <v>0.001989952754229307</v>
+        <v>0.0153284315019846</v>
       </c>
       <c r="CB15" t="n">
-        <v>0.005352966487407684</v>
+        <v>0.03258286416530609</v>
       </c>
       <c r="CC15" t="n">
-        <v>0.02451549284160137</v>
+        <v>0.04085354506969452</v>
       </c>
       <c r="CD15" t="n">
-        <v>0.006765549071133137</v>
+        <v>0.01963960006833076</v>
       </c>
       <c r="CE15" t="n">
-        <v>0.01331536192446947</v>
+        <v>0.03317956626415253</v>
       </c>
       <c r="CF15" t="n">
-        <v>0.00162909273058176</v>
+        <v>0.02316978946328163</v>
       </c>
       <c r="CG15" t="n">
-        <v>0.007469315081834793</v>
+        <v>0.01662617549300194</v>
       </c>
       <c r="CH15" t="n">
-        <v>0.005455767270177603</v>
+        <v>0.01793573796749115</v>
       </c>
       <c r="CI15" t="n">
-        <v>0.001039096736349165</v>
+        <v>0.01743914186954498</v>
       </c>
       <c r="CJ15" t="n">
-        <v>0.0006654493627138436</v>
+        <v>0.0002034036442637444</v>
       </c>
       <c r="CK15" t="n">
-        <v>0.0005382484523579478</v>
+        <v>0.007826090790331364</v>
       </c>
       <c r="CL15" t="n">
-        <v>0.004987252876162529</v>
+        <v>0.01283296104520559</v>
       </c>
       <c r="CM15" t="n">
-        <v>0.0009360117837786674</v>
+        <v>0.002967097796499729</v>
       </c>
       <c r="CN15" t="n">
-        <v>0.01435015257447958</v>
+        <v>0.01389603968709707</v>
       </c>
       <c r="CO15" t="n">
-        <v>6.147613748908043e-05</v>
+        <v>0.0212190393358469</v>
       </c>
       <c r="CP15" t="n">
-        <v>0.01111655682325363</v>
+        <v>0.0208035409450531</v>
       </c>
       <c r="CQ15" t="n">
-        <v>0.02274026535451412</v>
+        <v>0.02986715920269489</v>
       </c>
       <c r="CR15" t="n">
-        <v>0.01720995642244816</v>
+        <v>0.01872923225164413</v>
       </c>
       <c r="CS15" t="n">
-        <v>0.001980897504836321</v>
+        <v>0.01580126769840717</v>
       </c>
       <c r="CT15" t="n">
-        <v>0.00354401464574039</v>
+        <v>0.01872895658016205</v>
       </c>
       <c r="CU15" t="n">
-        <v>0.001598513219505548</v>
+        <v>0.03529863059520721</v>
       </c>
       <c r="CV15" t="n">
-        <v>0.008224521763622761</v>
+        <v>0.0151958242058754</v>
       </c>
       <c r="CW15" t="n">
-        <v>0.01643010228872299</v>
+        <v>0.03569201752543449</v>
       </c>
       <c r="CX15" t="n">
-        <v>0.001895099296234548</v>
+        <v>0.01370015181601048</v>
       </c>
       <c r="CY15" t="n">
-        <v>0.007885673083364964</v>
+        <v>0.01861237175762653</v>
       </c>
       <c r="CZ15" t="n">
-        <v>0.00784541480243206</v>
+        <v>0.007701646536588669</v>
       </c>
       <c r="DA15" t="n">
-        <v>0.002627552021294832</v>
+        <v>0.003463420551270247</v>
       </c>
       <c r="DB15" t="n">
-        <v>0.0009036695118993521</v>
+        <v>0.007906089536845684</v>
       </c>
       <c r="DC15" t="n">
-        <v>0.001288377214223146</v>
+        <v>0.005504528991878033</v>
       </c>
       <c r="DD15" t="n">
-        <v>0.005916960537433624</v>
+        <v>0.00887581892311573</v>
       </c>
       <c r="DE15" t="n">
-        <v>0.01365899853408337</v>
+        <v>0.01527511887252331</v>
       </c>
       <c r="DF15" t="n">
-        <v>0.02873589098453522</v>
+        <v>0.1466143429279327</v>
       </c>
       <c r="DG15" t="n">
-        <v>0.02460332214832306</v>
+        <v>0.03380373492836952</v>
       </c>
       <c r="DH15" t="n">
-        <v>0.005093928892165422</v>
+        <v>0.06096784025430679</v>
       </c>
       <c r="DI15" t="n">
-        <v>0.01476407889276743</v>
+        <v>0.007455742917954922</v>
       </c>
       <c r="DJ15" t="n">
-        <v>0.006010943092405796</v>
+        <v>0.1127905547618866</v>
       </c>
       <c r="DK15" t="n">
-        <v>0.001049150014296174</v>
+        <v>0.0288080982863903</v>
       </c>
       <c r="DL15" t="n">
-        <v>0.007261998485773802</v>
+        <v>0.01197973638772964</v>
       </c>
       <c r="DM15" t="n">
-        <v>0.00373276905156672</v>
+        <v>0.02551935240626335</v>
       </c>
       <c r="DN15" t="n">
-        <v>0.002300720894709229</v>
+        <v>0.03785547614097595</v>
       </c>
       <c r="DO15" t="n">
-        <v>0.004589790944010019</v>
+        <v>0.02744903601706028</v>
       </c>
       <c r="DP15" t="n">
-        <v>0.003100514877587557</v>
+        <v>0.1019902750849724</v>
       </c>
       <c r="DQ15" t="n">
-        <v>0.003110666293650866</v>
+        <v>0.04815464094281197</v>
       </c>
       <c r="DR15" t="n">
-        <v>0.009694953449070454</v>
+        <v>0.05578592047095299</v>
       </c>
       <c r="DS15" t="n">
-        <v>0.006752764340490103</v>
+        <v>0.04981553554534912</v>
       </c>
       <c r="DT15" t="n">
-        <v>0.0006070495583117008</v>
+        <v>0.02779280953109264</v>
       </c>
       <c r="DU15" t="n">
-        <v>0.005944040603935719</v>
+        <v>0.007997935637831688</v>
       </c>
       <c r="DV15" t="n">
-        <v>0.004551075398921967</v>
+        <v>0.01254038140177727</v>
       </c>
       <c r="DW15" t="n">
-        <v>0.002431384986266494</v>
+        <v>0.003297906834632158</v>
       </c>
       <c r="DX15" t="n">
-        <v>0.001694987760856748</v>
+        <v>0.01917126588523388</v>
       </c>
       <c r="DY15" t="n">
-        <v>0.006048276089131832</v>
+        <v>0.02147985622286797</v>
       </c>
       <c r="DZ15" t="n">
-        <v>0.004553236998617649</v>
+        <v>0.04444880783557892</v>
       </c>
       <c r="EA15" t="n">
-        <v>0.003809107001870871</v>
+        <v>0.002678877208381891</v>
       </c>
       <c r="EB15" t="n">
-        <v>0.005770879797637463</v>
+        <v>0.08079768717288971</v>
       </c>
       <c r="EC15" t="n">
-        <v>0.001151182339526713</v>
+        <v>0.01799041032791138</v>
       </c>
       <c r="ED15" t="n">
-        <v>0.005236060824245214</v>
+        <v>0.03529368340969086</v>
       </c>
       <c r="EE15" t="n">
-        <v>0.01258022896945477</v>
+        <v>0.03392127901315689</v>
       </c>
       <c r="EF15" t="n">
-        <v>0.007280724588781595</v>
+        <v>0.01896984130144119</v>
       </c>
       <c r="EG15" t="n">
-        <v>0.01293908152729273</v>
+        <v>0.02269413694739342</v>
       </c>
       <c r="EH15" t="n">
-        <v>0.0001077009073924273</v>
+        <v>0.008205145597457886</v>
       </c>
       <c r="EI15" t="n">
-        <v>0.01007944159209728</v>
+        <v>0.008811358362436295</v>
       </c>
       <c r="EJ15" t="n">
-        <v>0.0007843603380024433</v>
+        <v>0.01473458111286163</v>
       </c>
       <c r="EK15" t="n">
-        <v>0.0006513131083920598</v>
+        <v>0.03971594944596291</v>
       </c>
       <c r="EL15" t="n">
-        <v>0.002242805436253548</v>
+        <v>0.01058596931397915</v>
       </c>
       <c r="EM15" t="n">
-        <v>0.008688222616910934</v>
+        <v>0.02415870316326618</v>
       </c>
       <c r="EN15" t="n">
-        <v>0.006461343262344599</v>
+        <v>0.01720018684864044</v>
       </c>
       <c r="EO15" t="n">
-        <v>0.00570743577554822</v>
+        <v>0.01499779243022203</v>
       </c>
       <c r="EP15" t="n">
-        <v>0.01334770489484072</v>
+        <v>0.005829587578773499</v>
       </c>
       <c r="EQ15" t="n">
-        <v>0.02055049873888493</v>
+        <v>0.00673664128407836</v>
       </c>
       <c r="ER15" t="n">
-        <v>0.0002232722472399473</v>
+        <v>0.0140088964253664</v>
       </c>
       <c r="ES15" t="n">
-        <v>0.01293118018656969</v>
+        <v>0.03059963509440422</v>
       </c>
       <c r="ET15" t="n">
-        <v>0.003877352923154831</v>
+        <v>0.03898577392101288</v>
       </c>
       <c r="EU15" t="n">
-        <v>0.0008006533607840538</v>
+        <v>0.01211908459663391</v>
       </c>
       <c r="EV15" t="n">
-        <v>0.004607866518199444</v>
+        <v>0.03500732779502869</v>
       </c>
       <c r="EW15" t="n">
-        <v>0.004309399053454399</v>
+        <v>0.002179648727178574</v>
       </c>
       <c r="EX15" t="n">
-        <v>0.006203146651387215</v>
+        <v>0.01300917007029057</v>
       </c>
       <c r="EY15" t="n">
-        <v>0.01536631118506193</v>
+        <v>0.0406843014061451</v>
       </c>
       <c r="EZ15" t="n">
-        <v>0.002680463483557105</v>
+        <v>0.02441555261611938</v>
       </c>
       <c r="FA15" t="n">
-        <v>0.005716137588024139</v>
+        <v>0.02086981758475304</v>
       </c>
       <c r="FB15" t="n">
-        <v>0.007608025334775448</v>
+        <v>0.005904517602175474</v>
       </c>
       <c r="FC15" t="n">
-        <v>0.0002326314424863085</v>
+        <v>0.008865168318152428</v>
       </c>
       <c r="FD15" t="n">
-        <v>0.0003976728767156601</v>
+        <v>0.01141947321593761</v>
       </c>
       <c r="FE15" t="n">
-        <v>0.001173892989754677</v>
+        <v>0.004309151321649551</v>
       </c>
       <c r="FF15" t="n">
-        <v>0.007016114890575409</v>
+        <v>0.01653436198830605</v>
       </c>
       <c r="FG15" t="n">
-        <v>0.00181217142380774</v>
+        <v>0.01147788763046265</v>
       </c>
       <c r="FH15" t="n">
-        <v>0.01134147308766842</v>
+        <v>0.02732993476092815</v>
       </c>
       <c r="FI15" t="n">
-        <v>0.009828412905335426</v>
+        <v>0.03054147399961948</v>
       </c>
       <c r="FJ15" t="n">
-        <v>0.007465796545147896</v>
+        <v>0.008271520026028156</v>
       </c>
       <c r="FK15" t="n">
-        <v>0.00560774328187108</v>
+        <v>0.01830568164587021</v>
       </c>
       <c r="FL15" t="n">
-        <v>0.004059828352183104</v>
+        <v>0.0387067086994648</v>
       </c>
       <c r="FM15" t="n">
-        <v>0.002172136679291725</v>
+        <v>0.01871258392930031</v>
       </c>
       <c r="FN15" t="n">
-        <v>0.009143688715994358</v>
+        <v>0.0009703752584755421</v>
       </c>
       <c r="FO15" t="n">
-        <v>0.0005409565637819469</v>
+        <v>0.01685154810547829</v>
       </c>
       <c r="FP15" t="n">
-        <v>0.002337769139558077</v>
+        <v>0.1044961214065552</v>
       </c>
       <c r="FQ15" t="n">
-        <v>0.006807125173509121</v>
+        <v>0.08270071446895599</v>
       </c>
       <c r="FR15" t="n">
-        <v>0.003216786310076714</v>
+        <v>0.07586038112640381</v>
       </c>
       <c r="FS15" t="n">
-        <v>0.003432257566601038</v>
+        <v>0.04868075996637344</v>
       </c>
       <c r="FT15" t="n">
-        <v>0.002662630053237081</v>
+        <v>0.03957310691475868</v>
       </c>
       <c r="FU15" t="n">
-        <v>0.005500566679984331</v>
+        <v>0.02980263531208038</v>
       </c>
       <c r="FV15" t="n">
-        <v>0.003637654706835747</v>
+        <v>0.020555280148983</v>
       </c>
       <c r="FW15" t="n">
-        <v>0.007311977446079254</v>
+        <v>0.005037039984017611</v>
       </c>
       <c r="FX15" t="n">
-        <v>0.01092417631298304</v>
+        <v>0.01933642476797104</v>
       </c>
       <c r="FY15" t="n">
-        <v>0.006157177034765482</v>
+        <v>0.02052573300898075</v>
       </c>
       <c r="FZ15" t="n">
-        <v>0.001001224154606462</v>
+        <v>0.02642740309238434</v>
       </c>
       <c r="GA15" t="n">
-        <v>0.002361525315791368</v>
+        <v>0.0323384702205658</v>
       </c>
       <c r="GB15" t="n">
-        <v>0.001854060916230083</v>
+        <v>0.009398858994245529</v>
       </c>
       <c r="GC15" t="n">
-        <v>0.002531029284000397</v>
+        <v>0.1070182844996452</v>
       </c>
       <c r="GD15" t="n">
-        <v>0.000872128875926137</v>
+        <v>0.06685334444046021</v>
       </c>
       <c r="GE15" t="n">
-        <v>0.0001646850723773241</v>
+        <v>0.0458427295088768</v>
       </c>
       <c r="GF15" t="n">
-        <v>0.002311491873115301</v>
+        <v>0.008065562695264816</v>
       </c>
       <c r="GG15" t="n">
-        <v>0.007237312383949757</v>
+        <v>0.004427622072398663</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.003709147218614817</v>
+        <v>0.001940644928254187</v>
       </c>
       <c r="B16" t="n">
-        <v>0.007832229137420654</v>
+        <v>0.0007836328586563468</v>
       </c>
       <c r="C16" t="n">
-        <v>0.008562072180211544</v>
+        <v>0.005424166098237038</v>
       </c>
       <c r="D16" t="n">
-        <v>0.007730377838015556</v>
+        <v>0.004241309594362974</v>
       </c>
       <c r="E16" t="n">
-        <v>0.01359936594963074</v>
+        <v>0.003430936019867659</v>
       </c>
       <c r="F16" t="n">
-        <v>0.02845134399831295</v>
+        <v>0.001347145065665245</v>
       </c>
       <c r="G16" t="n">
-        <v>0.004425204358994961</v>
+        <v>0.001512803602963686</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0345676988363266</v>
+        <v>0.0004483723314478993</v>
       </c>
       <c r="I16" t="n">
-        <v>0.005369809921830893</v>
+        <v>0.00147357489913702</v>
       </c>
       <c r="J16" t="n">
-        <v>0.001404072856530547</v>
+        <v>0.001678086933679879</v>
       </c>
       <c r="K16" t="n">
-        <v>0.005551812238991261</v>
+        <v>0.0006897248676978052</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01160532981157303</v>
+        <v>0.004336296580731869</v>
       </c>
       <c r="M16" t="n">
-        <v>0.006096124649047852</v>
+        <v>0.004481583368033171</v>
       </c>
       <c r="N16" t="n">
-        <v>0.01796506904065609</v>
+        <v>0.0008620326989330351</v>
       </c>
       <c r="O16" t="n">
-        <v>0.02986393123865128</v>
+        <v>0.001032154308632016</v>
       </c>
       <c r="P16" t="n">
-        <v>0.004008766729384661</v>
+        <v>0.000973094895016402</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.03876607120037079</v>
+        <v>7.907615508884192e-05</v>
       </c>
       <c r="R16" t="n">
-        <v>0.00245174765586853</v>
+        <v>0.00223807105794549</v>
       </c>
       <c r="S16" t="n">
-        <v>0.009658028371632099</v>
+        <v>0.0005754177691414952</v>
       </c>
       <c r="T16" t="n">
-        <v>0.002494918880984187</v>
+        <v>0.0009735169587656856</v>
       </c>
       <c r="U16" t="n">
-        <v>0.001342179952189326</v>
+        <v>0.0009001068538054824</v>
       </c>
       <c r="V16" t="n">
-        <v>0.001858222298324108</v>
+        <v>0.0008529489277862012</v>
       </c>
       <c r="W16" t="n">
-        <v>0.00272562331520021</v>
+        <v>0.0005921403062529862</v>
       </c>
       <c r="X16" t="n">
-        <v>0.008220378309488297</v>
+        <v>0.0003384758601896465</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.001460561994463205</v>
+        <v>0.0006150910048745573</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.01032954081892967</v>
+        <v>0.000615636061411351</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.0006889881333336234</v>
+        <v>0.0001165692301583476</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.003286861348897219</v>
+        <v>0.001733011798933148</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.001393657643347979</v>
+        <v>0.0004186437872704118</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.0007767660426907241</v>
+        <v>0.0001725502515910193</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.007114122156053782</v>
+        <v>0.00169046560768038</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.01462190598249435</v>
+        <v>0.001229697256349027</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.003117543878033757</v>
+        <v>5.100642738398165e-05</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.01101506967097521</v>
+        <v>0.0001107537827920169</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.004997073207050562</v>
+        <v>0.0007400678587146103</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0.001048092963173985</v>
+        <v>0.0008735440205782652</v>
       </c>
       <c r="AK16" t="n">
-        <v>0.001789811532944441</v>
+        <v>0.0005085358279757202</v>
       </c>
       <c r="AL16" t="n">
-        <v>0.002350572263821959</v>
+        <v>3.867701161652803e-05</v>
       </c>
       <c r="AM16" t="n">
-        <v>0.007914350368082523</v>
+        <v>2.867559669539332e-05</v>
       </c>
       <c r="AN16" t="n">
-        <v>0.001199253019876778</v>
+        <v>0.0002893874188885093</v>
       </c>
       <c r="AO16" t="n">
-        <v>0.01711365766823292</v>
+        <v>0.001079939771443605</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.0006767814629711211</v>
+        <v>0.000205748830921948</v>
       </c>
       <c r="AQ16" t="n">
-        <v>7.313938112929463e-06</v>
+        <v>0.0004582849214784801</v>
       </c>
       <c r="AR16" t="n">
-        <v>0.002793849678710103</v>
+        <v>0.0001277374685741961</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.001725370762869716</v>
+        <v>0.0003384562442079186</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.005009320564568043</v>
+        <v>0.001672412035986781</v>
       </c>
       <c r="AU16" t="n">
-        <v>0.009308351203799248</v>
+        <v>0.00197251420468092</v>
       </c>
       <c r="AV16" t="n">
-        <v>0.00467600766569376</v>
+        <v>0.002881304826587439</v>
       </c>
       <c r="AW16" t="n">
-        <v>0.0002090911148115993</v>
+        <v>0.003587491344660521</v>
       </c>
       <c r="AX16" t="n">
-        <v>0.004968264605849981</v>
+        <v>0.0007278397097252309</v>
       </c>
       <c r="AY16" t="n">
-        <v>0.01991700381040573</v>
+        <v>0.0008510386687703431</v>
       </c>
       <c r="AZ16" t="n">
-        <v>0.001872193184681237</v>
+        <v>0.001072114333510399</v>
       </c>
       <c r="BA16" t="n">
-        <v>0.01187743153423071</v>
+        <v>0.001039177644997835</v>
       </c>
       <c r="BB16" t="n">
-        <v>8.389732101932168e-06</v>
+        <v>0.0005490191979333758</v>
       </c>
       <c r="BC16" t="n">
-        <v>0.005405134055763483</v>
+        <v>0.001466139918193221</v>
       </c>
       <c r="BD16" t="n">
-        <v>0.003399609122425318</v>
+        <v>0.002806621138006449</v>
       </c>
       <c r="BE16" t="n">
-        <v>0.004243992269039154</v>
+        <v>0.0008888319716788828</v>
       </c>
       <c r="BF16" t="n">
-        <v>0.008612291887402534</v>
+        <v>0.001535905874334276</v>
       </c>
       <c r="BG16" t="n">
-        <v>0.01006581727415323</v>
+        <v>0.001382606336846948</v>
       </c>
       <c r="BH16" t="n">
-        <v>0.001633366220630705</v>
+        <v>0.002156517235562205</v>
       </c>
       <c r="BI16" t="n">
-        <v>0.008868947625160217</v>
+        <v>0.001204599859192967</v>
       </c>
       <c r="BJ16" t="n">
-        <v>0.008188600651919842</v>
+        <v>0.0003912892425432801</v>
       </c>
       <c r="BK16" t="n">
-        <v>0.0008260984322987497</v>
+        <v>0.001732073491439223</v>
       </c>
       <c r="BL16" t="n">
-        <v>0.0004296077531762421</v>
+        <v>0.0001554047630634159</v>
       </c>
       <c r="BM16" t="n">
-        <v>0.003356072120368481</v>
+        <v>0.0005930118495598435</v>
       </c>
       <c r="BN16" t="n">
-        <v>0.003731162752956152</v>
+        <v>0.000785736832767725</v>
       </c>
       <c r="BO16" t="n">
-        <v>0.002804065123200417</v>
+        <v>5.825109838042408e-05</v>
       </c>
       <c r="BP16" t="n">
-        <v>0.001112964935600758</v>
+        <v>0.0006493370165117085</v>
       </c>
       <c r="BQ16" t="n">
-        <v>0.004873734433203936</v>
+        <v>0.0002448419691063464</v>
       </c>
       <c r="BR16" t="n">
-        <v>0.007030612789094448</v>
+        <v>0.0001440444320905954</v>
       </c>
       <c r="BS16" t="n">
-        <v>0.001366363605484366</v>
+        <v>0.0007715169922448695</v>
       </c>
       <c r="BT16" t="n">
-        <v>5.98034675931558e-05</v>
+        <v>0.0003543170751072466</v>
       </c>
       <c r="BU16" t="n">
-        <v>0.00372272590175271</v>
+        <v>0.0004338709404692054</v>
       </c>
       <c r="BV16" t="n">
-        <v>0.001986254937946796</v>
+        <v>0.001227831817232072</v>
       </c>
       <c r="BW16" t="n">
-        <v>0.001432789955288172</v>
+        <v>0.002005850663408637</v>
       </c>
       <c r="BX16" t="n">
-        <v>0.0009884946048259735</v>
+        <v>0.002415986265987158</v>
       </c>
       <c r="BY16" t="n">
-        <v>0.004634022247046232</v>
+        <v>0.001138628693297505</v>
       </c>
       <c r="BZ16" t="n">
-        <v>0.01597299985587597</v>
+        <v>0.0003573236172087491</v>
       </c>
       <c r="CA16" t="n">
-        <v>0.002761272946372628</v>
+        <v>0.0003665828844532371</v>
       </c>
       <c r="CB16" t="n">
-        <v>0.01192238088697195</v>
+        <v>0.0007240429986268282</v>
       </c>
       <c r="CC16" t="n">
-        <v>0.0006935088895261288</v>
+        <v>0.0008754605078138411</v>
       </c>
       <c r="CD16" t="n">
-        <v>0.0009950915118679404</v>
+        <v>0.0006133487331680954</v>
       </c>
       <c r="CE16" t="n">
-        <v>0.002000160282477736</v>
+        <v>4.437251482158899e-05</v>
       </c>
       <c r="CF16" t="n">
-        <v>0.003094385843724012</v>
+        <v>0.001316740992479026</v>
       </c>
       <c r="CG16" t="n">
-        <v>0.003323424374684691</v>
+        <v>0.0007441614870913327</v>
       </c>
       <c r="CH16" t="n">
-        <v>0.004338542465120554</v>
+        <v>0.000746953533962369</v>
       </c>
       <c r="CI16" t="n">
-        <v>0.006056307349354029</v>
+        <v>0.0002855350612662733</v>
       </c>
       <c r="CJ16" t="n">
-        <v>0.0004977178759872913</v>
+        <v>0.0004948971327394247</v>
       </c>
       <c r="CK16" t="n">
-        <v>0.006011700257658958</v>
+        <v>0.0004280165303498507</v>
       </c>
       <c r="CL16" t="n">
-        <v>7.735582767054439e-05</v>
+        <v>0.0001784911000868306</v>
       </c>
       <c r="CM16" t="n">
-        <v>0.005880558397620916</v>
+        <v>0.001911562983877957</v>
       </c>
       <c r="CN16" t="n">
-        <v>0.01100421883165836</v>
+        <v>0.001580640207976103</v>
       </c>
       <c r="CO16" t="n">
-        <v>0.006287083961069584</v>
+        <v>2.92710610665381e-05</v>
       </c>
       <c r="CP16" t="n">
-        <v>0.009726259857416153</v>
+        <v>0.0008086480665951967</v>
       </c>
       <c r="CQ16" t="n">
-        <v>0.0003338541137054563</v>
+        <v>0.0003918526053894311</v>
       </c>
       <c r="CR16" t="n">
-        <v>0.001852628076449037</v>
+        <v>0.0005399271030910313</v>
       </c>
       <c r="CS16" t="n">
-        <v>0.004058977589011192</v>
+        <v>0.00044848961988464</v>
       </c>
       <c r="CT16" t="n">
-        <v>0.005178778432309628</v>
+        <v>0.001906434074044228</v>
       </c>
       <c r="CU16" t="n">
-        <v>0.002611530013382435</v>
+        <v>0.0004118373326491565</v>
       </c>
       <c r="CV16" t="n">
-        <v>0.002236501313745975</v>
+        <v>0.0004684184968937188</v>
       </c>
       <c r="CW16" t="n">
-        <v>0.002278407569974661</v>
+        <v>0.0004318640858400613</v>
       </c>
       <c r="CX16" t="n">
-        <v>0.003644092241302133</v>
+        <v>0.0009292477043345571</v>
       </c>
       <c r="CY16" t="n">
-        <v>0.003097111126407981</v>
+        <v>0.0008315108134411275</v>
       </c>
       <c r="CZ16" t="n">
-        <v>0.003887511091306806</v>
+        <v>0.0004088668792974204</v>
       </c>
       <c r="DA16" t="n">
-        <v>0.005809321999549866</v>
+        <v>0.0001586735888849944</v>
       </c>
       <c r="DB16" t="n">
-        <v>1.760039594955742e-06</v>
+        <v>0.0004803854390047491</v>
       </c>
       <c r="DC16" t="n">
-        <v>0.007151762023568153</v>
+        <v>0.0003265505947638303</v>
       </c>
       <c r="DD16" t="n">
-        <v>0.0002637940924614668</v>
+        <v>0.0001124227856053039</v>
       </c>
       <c r="DE16" t="n">
-        <v>0.01760639995336533</v>
+        <v>0.0002241733891423792</v>
       </c>
       <c r="DF16" t="n">
-        <v>0.008580216206610203</v>
+        <v>0.001710825366899371</v>
       </c>
       <c r="DG16" t="n">
-        <v>0.006642462685704231</v>
+        <v>0.002068309113383293</v>
       </c>
       <c r="DH16" t="n">
-        <v>0.00372935738414526</v>
+        <v>0.0004453820001799613</v>
       </c>
       <c r="DI16" t="n">
-        <v>0.000797217944636941</v>
+        <v>0.0002310526906512678</v>
       </c>
       <c r="DJ16" t="n">
-        <v>0.00795049499720335</v>
+        <v>0.0001297011040151119</v>
       </c>
       <c r="DK16" t="n">
-        <v>0.001590667758136988</v>
+        <v>0.001772144809365273</v>
       </c>
       <c r="DL16" t="n">
-        <v>0.002240291563794017</v>
+        <v>0.0005076058441773057</v>
       </c>
       <c r="DM16" t="n">
-        <v>0.004543538670986891</v>
+        <v>0.0005948789184913039</v>
       </c>
       <c r="DN16" t="n">
-        <v>0.003815916599705815</v>
+        <v>7.137792999856174e-05</v>
       </c>
       <c r="DO16" t="n">
-        <v>0.003231011563912034</v>
+        <v>0.001346036093309522</v>
       </c>
       <c r="DP16" t="n">
-        <v>0.00268832384608686</v>
+        <v>0.0009215110912919044</v>
       </c>
       <c r="DQ16" t="n">
-        <v>0.003669964615255594</v>
+        <v>0.0001947935670614243</v>
       </c>
       <c r="DR16" t="n">
-        <v>0.006217442452907562</v>
+        <v>0.001768043846823275</v>
       </c>
       <c r="DS16" t="n">
-        <v>0.004489243030548096</v>
+        <v>0.0008334890007972717</v>
       </c>
       <c r="DT16" t="n">
-        <v>0.004720461089164019</v>
+        <v>0.0007154096383601427</v>
       </c>
       <c r="DU16" t="n">
-        <v>0.0007026322418823838</v>
+        <v>3.906944766640663e-05</v>
       </c>
       <c r="DV16" t="n">
-        <v>0.003218081314116716</v>
+        <v>0.001289713196456432</v>
       </c>
       <c r="DW16" t="n">
-        <v>0.002362596802413464</v>
+        <v>0.0003930206003133208</v>
       </c>
       <c r="DX16" t="n">
-        <v>0.0009233560995198786</v>
+        <v>0.001803657622076571</v>
       </c>
       <c r="DY16" t="n">
-        <v>0.005129685625433922</v>
+        <v>0.0004864934307988733</v>
       </c>
       <c r="DZ16" t="n">
-        <v>0.0003942713374271989</v>
+        <v>0.0003506617795210332</v>
       </c>
       <c r="EA16" t="n">
-        <v>0.0006831746431998909</v>
+        <v>0.0009895735420286655</v>
       </c>
       <c r="EB16" t="n">
-        <v>0.001676698215305805</v>
+        <v>0.000986642437055707</v>
       </c>
       <c r="EC16" t="n">
-        <v>0.003364486154168844</v>
+        <v>1.693246667855419e-05</v>
       </c>
       <c r="ED16" t="n">
-        <v>0.0002756287576630712</v>
+        <v>0.0004159039235673845</v>
       </c>
       <c r="EE16" t="n">
-        <v>0.00100422278046608</v>
+        <v>0.0001954190811375156</v>
       </c>
       <c r="EF16" t="n">
-        <v>0.006971246097236872</v>
+        <v>7.124655530788004e-05</v>
       </c>
       <c r="EG16" t="n">
-        <v>0.009880464524030685</v>
+        <v>0.0005429349257610738</v>
       </c>
       <c r="EH16" t="n">
-        <v>9.689164289738983e-05</v>
+        <v>0.001388640492223203</v>
       </c>
       <c r="EI16" t="n">
-        <v>0.003716089762747288</v>
+        <v>0.001580947078764439</v>
       </c>
       <c r="EJ16" t="n">
-        <v>0.001259106211364269</v>
+        <v>1.106459967559204e-05</v>
       </c>
       <c r="EK16" t="n">
-        <v>0.005411095917224884</v>
+        <v>2.320178646186832e-05</v>
       </c>
       <c r="EL16" t="n">
-        <v>8.476518269162625e-05</v>
+        <v>0.0005255861324258149</v>
       </c>
       <c r="EM16" t="n">
-        <v>0.005837674718350172</v>
+        <v>0.0001049562415573746</v>
       </c>
       <c r="EN16" t="n">
-        <v>0.001535952906124294</v>
+        <v>0.0006203787634149194</v>
       </c>
       <c r="EO16" t="n">
-        <v>0.001652927021495998</v>
+        <v>5.860271630808711e-05</v>
       </c>
       <c r="EP16" t="n">
-        <v>0.001603651093319058</v>
+        <v>0.001268016174435616</v>
       </c>
       <c r="EQ16" t="n">
-        <v>0.004173337947577238</v>
+        <v>0.0006558119785040617</v>
       </c>
       <c r="ER16" t="n">
-        <v>0.002028781687840819</v>
+        <v>0.0009180654305964708</v>
       </c>
       <c r="ES16" t="n">
-        <v>0.005226703360676765</v>
+        <v>0.0006899108993820846</v>
       </c>
       <c r="ET16" t="n">
-        <v>0.003022484946995974</v>
+        <v>0.000164582539582625</v>
       </c>
       <c r="EU16" t="n">
-        <v>0.001231769099831581</v>
+        <v>0.0006550580728799105</v>
       </c>
       <c r="EV16" t="n">
-        <v>0.006939699873328209</v>
+        <v>6.432411464629695e-05</v>
       </c>
       <c r="EW16" t="n">
-        <v>0.003164569614455104</v>
+        <v>0.000890774535946548</v>
       </c>
       <c r="EX16" t="n">
-        <v>0.001655382104218006</v>
+        <v>0.000478508765809238</v>
       </c>
       <c r="EY16" t="n">
-        <v>0.002676507690921426</v>
+        <v>0.0005411448073573411</v>
       </c>
       <c r="EZ16" t="n">
-        <v>0.003403082955628633</v>
+        <v>0.001244725310243666</v>
       </c>
       <c r="FA16" t="n">
-        <v>0.004650183487683535</v>
+        <v>0.0007857878226786852</v>
       </c>
       <c r="FB16" t="n">
-        <v>0.005804627668112516</v>
+        <v>0.0005293726571835577</v>
       </c>
       <c r="FC16" t="n">
-        <v>0.006576576270163059</v>
+        <v>8.86127381818369e-05</v>
       </c>
       <c r="FD16" t="n">
-        <v>0.0003792663337662816</v>
+        <v>0.0004357514262665063</v>
       </c>
       <c r="FE16" t="n">
-        <v>0.007073232438415289</v>
+        <v>0.0003281071549281478</v>
       </c>
       <c r="FF16" t="n">
-        <v>8.249357051681727e-05</v>
+        <v>0.0003445648471824825</v>
       </c>
       <c r="FG16" t="n">
-        <v>0.001236147712916136</v>
+        <v>0.0001804527564672753</v>
       </c>
       <c r="FH16" t="n">
-        <v>0.0002135686809197068</v>
+        <v>0.0009862004080787301</v>
       </c>
       <c r="FI16" t="n">
-        <v>0.002977565862238407</v>
+        <v>1.843195059336722e-05</v>
       </c>
       <c r="FJ16" t="n">
-        <v>0.004059064667671919</v>
+        <v>0.0007936906768009067</v>
       </c>
       <c r="FK16" t="n">
-        <v>0.001646635122597218</v>
+        <v>0.0003930855600629002</v>
       </c>
       <c r="FL16" t="n">
-        <v>0.0002118542906828225</v>
+        <v>0.0006974975694902241</v>
       </c>
       <c r="FM16" t="n">
-        <v>0.001272569759748876</v>
+        <v>0.0004099537909496576</v>
       </c>
       <c r="FN16" t="n">
-        <v>0.00324344914406538</v>
+        <v>0.0007143021794036031</v>
       </c>
       <c r="FO16" t="n">
-        <v>0.0004545852716546506</v>
+        <v>0.0004432220885064453</v>
       </c>
       <c r="FP16" t="n">
-        <v>0.004953328520059586</v>
+        <v>0.0009679358918219805</v>
       </c>
       <c r="FQ16" t="n">
-        <v>0.00272555323317647</v>
+        <v>0.0006970454705879092</v>
       </c>
       <c r="FR16" t="n">
-        <v>0.002079922938719392</v>
+        <v>0.00137997476849705</v>
       </c>
       <c r="FS16" t="n">
-        <v>0.0009742783149704337</v>
+        <v>6.945949280634522e-05</v>
       </c>
       <c r="FT16" t="n">
-        <v>0.002273076446726918</v>
+        <v>0.0002660626778379083</v>
       </c>
       <c r="FU16" t="n">
-        <v>0.01029213797301054</v>
+        <v>0.0006493350374512374</v>
       </c>
       <c r="FV16" t="n">
-        <v>0.005766076967120171</v>
+        <v>0.0001854190195444971</v>
       </c>
       <c r="FW16" t="n">
-        <v>0.005315473303198814</v>
+        <v>0.000627756176982075</v>
       </c>
       <c r="FX16" t="n">
-        <v>0.000923645799048245</v>
+        <v>0.0003389260964468122</v>
       </c>
       <c r="FY16" t="n">
-        <v>0.001770794624462724</v>
+        <v>0.0002946047170553356</v>
       </c>
       <c r="FZ16" t="n">
-        <v>0.001065796008333564</v>
+        <v>0.0009633840527385473</v>
       </c>
       <c r="GA16" t="n">
-        <v>0.001227871980518103</v>
+        <v>0.0002214991836808622</v>
       </c>
       <c r="GB16" t="n">
-        <v>0.001408718060702085</v>
+        <v>8.677876758156344e-05</v>
       </c>
       <c r="GC16" t="n">
-        <v>0.003125987248495221</v>
+        <v>0.001028981292620301</v>
       </c>
       <c r="GD16" t="n">
-        <v>0.002014033030718565</v>
+        <v>0.001545144594274461</v>
       </c>
       <c r="GE16" t="n">
-        <v>0.0003294681664556265</v>
+        <v>0.0006669668946415186</v>
       </c>
       <c r="GF16" t="n">
-        <v>0.0001690687495283782</v>
+        <v>0.0001164838613476604</v>
       </c>
       <c r="GG16" t="n">
-        <v>0.002478533890098333</v>
+        <v>4.945537511957809e-06</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.001689949654974043</v>
+        <v>1.144135239883326e-06</v>
       </c>
       <c r="B17" t="n">
-        <v>0.001325268880464137</v>
+        <v>0.0004247194156050682</v>
       </c>
       <c r="C17" t="n">
-        <v>0.006736135110259056</v>
+        <v>7.887799438321963e-05</v>
       </c>
       <c r="D17" t="n">
-        <v>0.01337921340018511</v>
+        <v>0.0001762864267220721</v>
       </c>
       <c r="E17" t="n">
-        <v>0.009800626896321774</v>
+        <v>0.0002668102097231895</v>
       </c>
       <c r="F17" t="n">
-        <v>0.00136296427808702</v>
+        <v>0.0002014251949731261</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0001125960843637586</v>
+        <v>7.921770156826824e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.02097053453326225</v>
+        <v>0.0001100318477256224</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0008662365144118667</v>
+        <v>3.230910078855231e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0003174958401359618</v>
+        <v>4.903999069938436e-06</v>
       </c>
       <c r="K17" t="n">
-        <v>0.002388092689216137</v>
+        <v>0.0003251529997214675</v>
       </c>
       <c r="L17" t="n">
-        <v>0.006473828572779894</v>
+        <v>1.79852268047398e-05</v>
       </c>
       <c r="M17" t="n">
-        <v>0.009874345734715462</v>
+        <v>0.0001134737831307575</v>
       </c>
       <c r="N17" t="n">
-        <v>0.01335799042135477</v>
+        <v>0.0002079705009236932</v>
       </c>
       <c r="O17" t="n">
-        <v>0.003741569118574262</v>
+        <v>0.000195918430108577</v>
       </c>
       <c r="P17" t="n">
-        <v>0.004337522201240063</v>
+        <v>8.533387881470844e-05</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.02588443830609322</v>
+        <v>2.492478779458907e-05</v>
       </c>
       <c r="R17" t="n">
-        <v>0.001561124459840357</v>
+        <v>3.629837738117203e-05</v>
       </c>
       <c r="S17" t="n">
-        <v>0.001016946043819189</v>
+        <v>5.730226348532597e-06</v>
       </c>
       <c r="T17" t="n">
-        <v>0.001855020644143224</v>
+        <v>7.144099799916148e-05</v>
       </c>
       <c r="U17" t="n">
-        <v>0.001173400320112705</v>
+        <v>1.009912466543028e-05</v>
       </c>
       <c r="V17" t="n">
-        <v>0.001117592793889344</v>
+        <v>5.840662197442725e-05</v>
       </c>
       <c r="W17" t="n">
-        <v>0.01011941954493523</v>
+        <v>4.903901208308525e-05</v>
       </c>
       <c r="X17" t="n">
-        <v>0.002690777881070971</v>
+        <v>7.049219129839912e-05</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.0001386901276418939</v>
+        <v>2.532710823288653e-05</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.0055225919932127</v>
+        <v>5.281628182274289e-05</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.0006136558949947357</v>
+        <v>3.047526479349472e-05</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.004030328709632158</v>
+        <v>2.558073174441233e-05</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.001188481459394097</v>
+        <v>6.261312228161842e-05</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.003392369020730257</v>
+        <v>6.156281415314879e-06</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.006539264228194952</v>
+        <v>3.432932135183364e-05</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.001453377306461334</v>
+        <v>1.523613173048943e-05</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.0004018818726763129</v>
+        <v>3.100556932622567e-05</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.005460671149194241</v>
+        <v>4.043735680170357e-05</v>
       </c>
       <c r="AI17" t="n">
-        <v>0.001556529081426561</v>
+        <v>4.865081427851692e-05</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0.001205988810397685</v>
+        <v>6.238335117814131e-06</v>
       </c>
       <c r="AK17" t="n">
-        <v>0.002929960610345006</v>
+        <v>2.912545096478425e-05</v>
       </c>
       <c r="AL17" t="n">
-        <v>0.001573680201545358</v>
+        <v>9.378769755130634e-05</v>
       </c>
       <c r="AM17" t="n">
-        <v>0.001866862294264138</v>
+        <v>5.720271474274341e-07</v>
       </c>
       <c r="AN17" t="n">
-        <v>1.619535032659769e-05</v>
+        <v>1.580961907166056e-05</v>
       </c>
       <c r="AO17" t="n">
-        <v>0.004400959238409996</v>
+        <v>1.023613913275767e-05</v>
       </c>
       <c r="AP17" t="n">
-        <v>0.001896639470942318</v>
+        <v>7.488536357413977e-05</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.002314969198778272</v>
+        <v>5.346679245121777e-06</v>
       </c>
       <c r="AR17" t="n">
-        <v>0.0006005280301906168</v>
+        <v>3.950765676563606e-05</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.0004759912262670696</v>
+        <v>4.432847345015034e-05</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.003003115067258477</v>
+        <v>3.860055221593939e-05</v>
       </c>
       <c r="AU17" t="n">
-        <v>0.0003917115973308682</v>
+        <v>0.0002843094698619097</v>
       </c>
       <c r="AV17" t="n">
-        <v>0.001969968201592565</v>
+        <v>5.668456651619636e-05</v>
       </c>
       <c r="AW17" t="n">
-        <v>0.005468631163239479</v>
+        <v>3.238945282646455e-05</v>
       </c>
       <c r="AX17" t="n">
-        <v>0.00485587352886796</v>
+        <v>0.0001121462701121345</v>
       </c>
       <c r="AY17" t="n">
-        <v>0.001961892237886786</v>
+        <v>0.0001403058122377843</v>
       </c>
       <c r="AZ17" t="n">
-        <v>0.005857399664819241</v>
+        <v>1.395013259752886e-05</v>
       </c>
       <c r="BA17" t="n">
-        <v>0.008835960179567337</v>
+        <v>6.867064803373069e-05</v>
       </c>
       <c r="BB17" t="n">
-        <v>0.001004744553938508</v>
+        <v>1.621017145225778e-05</v>
       </c>
       <c r="BC17" t="n">
-        <v>0.001870946725830436</v>
+        <v>1.03069451142801e-05</v>
       </c>
       <c r="BD17" t="n">
-        <v>3.340555122122169e-05</v>
+        <v>6.203295197337866e-05</v>
       </c>
       <c r="BE17" t="n">
-        <v>0.0004302072338759899</v>
+        <v>6.039233994670212e-05</v>
       </c>
       <c r="BF17" t="n">
-        <v>0.005868806038051844</v>
+        <v>6.840794958407059e-05</v>
       </c>
       <c r="BG17" t="n">
-        <v>0.002892437623813748</v>
+        <v>0.0001745302579365671</v>
       </c>
       <c r="BH17" t="n">
-        <v>0.002460873685777187</v>
+        <v>3.390792699065059e-05</v>
       </c>
       <c r="BI17" t="n">
-        <v>0.004050104878842831</v>
+        <v>7.056917092995718e-05</v>
       </c>
       <c r="BJ17" t="n">
-        <v>0.004842531867325306</v>
+        <v>5.555052484851331e-05</v>
       </c>
       <c r="BK17" t="n">
-        <v>0.001053664600476623</v>
+        <v>2.519765257602558e-05</v>
       </c>
       <c r="BL17" t="n">
-        <v>0.001681643771007657</v>
+        <v>1.958340180863161e-05</v>
       </c>
       <c r="BM17" t="n">
-        <v>0.0002868264564312994</v>
+        <v>7.574875780846924e-05</v>
       </c>
       <c r="BN17" t="n">
-        <v>0.00240195170044899</v>
+        <v>4.345184788689949e-05</v>
       </c>
       <c r="BO17" t="n">
-        <v>0.0009540332830511034</v>
+        <v>7.98931341705611e-06</v>
       </c>
       <c r="BP17" t="n">
-        <v>0.002800711430609226</v>
+        <v>1.117483225243632e-05</v>
       </c>
       <c r="BQ17" t="n">
-        <v>0.0003062233154196292</v>
+        <v>4.080290818819776e-05</v>
       </c>
       <c r="BR17" t="n">
-        <v>0.003392519894987345</v>
+        <v>2.644135565788019e-05</v>
       </c>
       <c r="BS17" t="n">
-        <v>0.003123916685581207</v>
+        <v>2.551536999817472e-05</v>
       </c>
       <c r="BT17" t="n">
-        <v>9.027840860653669e-06</v>
+        <v>2.978403608722147e-05</v>
       </c>
       <c r="BU17" t="n">
-        <v>0.007877368479967117</v>
+        <v>3.429173011681996e-05</v>
       </c>
       <c r="BV17" t="n">
-        <v>0.001202187733724713</v>
+        <v>0.0001781567989382893</v>
       </c>
       <c r="BW17" t="n">
-        <v>0.002225719625130296</v>
+        <v>9.935660636983812e-05</v>
       </c>
       <c r="BX17" t="n">
-        <v>0.001342699397355318</v>
+        <v>4.173601701040752e-05</v>
       </c>
       <c r="BY17" t="n">
-        <v>0.002686690771952271</v>
+        <v>7.465222734026611e-05</v>
       </c>
       <c r="BZ17" t="n">
-        <v>0.001728254021145403</v>
+        <v>1.337911271548364e-05</v>
       </c>
       <c r="CA17" t="n">
-        <v>0.005184795707464218</v>
+        <v>1.794016679923516e-05</v>
       </c>
       <c r="CB17" t="n">
-        <v>0.007337408140301704</v>
+        <v>2.296260026923846e-05</v>
       </c>
       <c r="CC17" t="n">
-        <v>0.0004476455505937338</v>
+        <v>2.960658093797974e-05</v>
       </c>
       <c r="CD17" t="n">
-        <v>0.002644250402227044</v>
+        <v>4.632517629943322e-06</v>
       </c>
       <c r="CE17" t="n">
-        <v>0.0008392644813284278</v>
+        <v>6.798426329623908e-05</v>
       </c>
       <c r="CF17" t="n">
-        <v>0.001357147702947259</v>
+        <v>2.290404336235952e-05</v>
       </c>
       <c r="CG17" t="n">
-        <v>0.002019513631239533</v>
+        <v>3.283534533693455e-05</v>
       </c>
       <c r="CH17" t="n">
-        <v>0.002680196659639478</v>
+        <v>1.318295107921585e-05</v>
       </c>
       <c r="CI17" t="n">
-        <v>0.00113014702219516</v>
+        <v>4.231419006828219e-05</v>
       </c>
       <c r="CJ17" t="n">
-        <v>0.001088616903871298</v>
+        <v>1.810072353691794e-05</v>
       </c>
       <c r="CK17" t="n">
-        <v>0.004357606638222933</v>
+        <v>1.234005048900144e-05</v>
       </c>
       <c r="CL17" t="n">
-        <v>0.0004184918070677668</v>
+        <v>1.548458749311976e-05</v>
       </c>
       <c r="CM17" t="n">
-        <v>6.493262480944395e-05</v>
+        <v>6.054488767404109e-05</v>
       </c>
       <c r="CN17" t="n">
-        <v>0.002836089581251144</v>
+        <v>3.751268195628654e-06</v>
       </c>
       <c r="CO17" t="n">
-        <v>0.002310146577656269</v>
+        <v>7.382400326605421e-06</v>
       </c>
       <c r="CP17" t="n">
-        <v>0.002141709672287107</v>
+        <v>5.312388566380832e-06</v>
       </c>
       <c r="CQ17" t="n">
-        <v>0.004389554727822542</v>
+        <v>1.156754115072545e-05</v>
       </c>
       <c r="CR17" t="n">
-        <v>0.006555414758622646</v>
+        <v>1.97346817003563e-05</v>
       </c>
       <c r="CS17" t="n">
-        <v>0.001275114482268691</v>
+        <v>7.367920625256374e-05</v>
       </c>
       <c r="CT17" t="n">
-        <v>8.847999561112374e-05</v>
+        <v>6.404734449461102e-05</v>
       </c>
       <c r="CU17" t="n">
-        <v>0.0004127565771341324</v>
+        <v>3.776762241614051e-06</v>
       </c>
       <c r="CV17" t="n">
-        <v>0.001921401126310229</v>
+        <v>4.697745680459775e-06</v>
       </c>
       <c r="CW17" t="n">
-        <v>0.001217258861288428</v>
+        <v>5.333154331310652e-05</v>
       </c>
       <c r="CX17" t="n">
-        <v>0.001665206160396338</v>
+        <v>2.93856155622052e-05</v>
       </c>
       <c r="CY17" t="n">
-        <v>0.002226057229563594</v>
+        <v>4.764420737046748e-05</v>
       </c>
       <c r="CZ17" t="n">
-        <v>0.002800423186272383</v>
+        <v>7.632856068084948e-06</v>
       </c>
       <c r="DA17" t="n">
-        <v>0.001339241396635771</v>
+        <v>5.718956163036637e-05</v>
       </c>
       <c r="DB17" t="n">
-        <v>0.0006021849694661796</v>
+        <v>1.258692827832419e-05</v>
       </c>
       <c r="DC17" t="n">
-        <v>0.005044956225901842</v>
+        <v>2.102286089211702e-05</v>
       </c>
       <c r="DD17" t="n">
-        <v>0.0006178596522659063</v>
+        <v>1.320259798376355e-06</v>
       </c>
       <c r="DE17" t="n">
-        <v>0.004811680875718594</v>
+        <v>3.214063326595351e-05</v>
       </c>
       <c r="DF17" t="n">
-        <v>0.00453958148136735</v>
+        <v>9.27834480535239e-05</v>
       </c>
       <c r="DG17" t="n">
-        <v>0.0007338711293414235</v>
+        <v>1.101228735933546e-05</v>
       </c>
       <c r="DH17" t="n">
-        <v>0.001213639741763473</v>
+        <v>0.0001012304710457101</v>
       </c>
       <c r="DI17" t="n">
-        <v>0.001751917880028486</v>
+        <v>2.892127122322563e-05</v>
       </c>
       <c r="DJ17" t="n">
-        <v>0.002665511099621654</v>
+        <v>6.17704245087225e-06</v>
       </c>
       <c r="DK17" t="n">
-        <v>9.766266884980723e-05</v>
+        <v>6.045502959750593e-05</v>
       </c>
       <c r="DL17" t="n">
-        <v>0.002420293167233467</v>
+        <v>4.192654159851372e-05</v>
       </c>
       <c r="DM17" t="n">
-        <v>0.001375395921058953</v>
+        <v>4.302990782889538e-05</v>
       </c>
       <c r="DN17" t="n">
-        <v>0.001346314558759332</v>
+        <v>1.302293094340712e-05</v>
       </c>
       <c r="DO17" t="n">
-        <v>0.001515844254754484</v>
+        <v>2.453538218105678e-05</v>
       </c>
       <c r="DP17" t="n">
-        <v>0.001374602899886668</v>
+        <v>8.925667316361796e-06</v>
       </c>
       <c r="DQ17" t="n">
-        <v>0.0009846364846453071</v>
+        <v>4.688721674028784e-05</v>
       </c>
       <c r="DR17" t="n">
-        <v>0.004673713352531195</v>
+        <v>1.532076930743642e-05</v>
       </c>
       <c r="DS17" t="n">
-        <v>0.0009659595089033246</v>
+        <v>6.038781066308729e-05</v>
       </c>
       <c r="DT17" t="n">
-        <v>0.004238267429172993</v>
+        <v>2.541182402637787e-05</v>
       </c>
       <c r="DU17" t="n">
-        <v>0.0002152096421923488</v>
+        <v>2.316040263394825e-05</v>
       </c>
       <c r="DV17" t="n">
-        <v>0.000709313724655658</v>
+        <v>1.588164559507277e-05</v>
       </c>
       <c r="DW17" t="n">
-        <v>0.001343249343335629</v>
+        <v>3.489976734272204e-07</v>
       </c>
       <c r="DX17" t="n">
-        <v>0.00450524827465415</v>
+        <v>6.429270797525533e-06</v>
       </c>
       <c r="DY17" t="n">
-        <v>0.0008795841131359339</v>
+        <v>4.353262920631096e-05</v>
       </c>
       <c r="DZ17" t="n">
-        <v>0.001642865594476461</v>
+        <v>1.035277819028124e-06</v>
       </c>
       <c r="EA17" t="n">
-        <v>0.0004506763652898371</v>
+        <v>2.992536064994056e-05</v>
       </c>
       <c r="EB17" t="n">
-        <v>0.003010821295902133</v>
+        <v>2.609467628644779e-05</v>
       </c>
       <c r="EC17" t="n">
-        <v>0.001342381932772696</v>
+        <v>4.011549208371434e-07</v>
       </c>
       <c r="ED17" t="n">
-        <v>0.001858171774074435</v>
+        <v>4.052298027090728e-05</v>
       </c>
       <c r="EE17" t="n">
-        <v>0.0003995291772298515</v>
+        <v>1.364006857329514e-05</v>
       </c>
       <c r="EF17" t="n">
-        <v>0.0007128149154596031</v>
+        <v>3.874164758599363e-05</v>
       </c>
       <c r="EG17" t="n">
-        <v>0.001201062579639256</v>
+        <v>4.769870429299772e-05</v>
       </c>
       <c r="EH17" t="n">
-        <v>0.001911462633870542</v>
+        <v>3.558797834557481e-05</v>
       </c>
       <c r="EI17" t="n">
-        <v>0.004028370138257742</v>
+        <v>2.14052852243185e-05</v>
       </c>
       <c r="EJ17" t="n">
-        <v>0.00258204061537981</v>
+        <v>3.240238584112376e-05</v>
       </c>
       <c r="EK17" t="n">
-        <v>0.002113153459504247</v>
+        <v>2.380908335908316e-05</v>
       </c>
       <c r="EL17" t="n">
-        <v>0.0009526269277557731</v>
+        <v>2.731058157223742e-05</v>
       </c>
       <c r="EM17" t="n">
-        <v>0.006502212025225163</v>
+        <v>6.386806035152404e-06</v>
       </c>
       <c r="EN17" t="n">
-        <v>0.002197502413764596</v>
+        <v>4.326419457356678e-06</v>
       </c>
       <c r="EO17" t="n">
-        <v>0.002340316772460938</v>
+        <v>1.584657002240419e-05</v>
       </c>
       <c r="EP17" t="n">
-        <v>0.002336830832064152</v>
+        <v>1.795933167159092e-05</v>
       </c>
       <c r="EQ17" t="n">
-        <v>0.00309855374507606</v>
+        <v>5.692361446563154e-05</v>
       </c>
       <c r="ER17" t="n">
-        <v>0.0002739696064963937</v>
+        <v>4.621267362381332e-05</v>
       </c>
       <c r="ES17" t="n">
-        <v>0.004866908304393291</v>
+        <v>2.351759030716494e-05</v>
       </c>
       <c r="ET17" t="n">
-        <v>0.001754774362780154</v>
+        <v>5.046898877480999e-05</v>
       </c>
       <c r="EU17" t="n">
-        <v>0.001105409115552902</v>
+        <v>2.057822894130368e-05</v>
       </c>
       <c r="EV17" t="n">
-        <v>0.0001024226075969636</v>
+        <v>5.251662514638156e-05</v>
       </c>
       <c r="EW17" t="n">
-        <v>0.001120875589549541</v>
+        <v>8.05621766630793e-06</v>
       </c>
       <c r="EX17" t="n">
-        <v>0.001694378675892949</v>
+        <v>1.222914397658315e-05</v>
       </c>
       <c r="EY17" t="n">
-        <v>0.001220182864926755</v>
+        <v>5.13975573994685e-05</v>
       </c>
       <c r="EZ17" t="n">
-        <v>0.001702097710222006</v>
+        <v>1.757462450768799e-05</v>
       </c>
       <c r="FA17" t="n">
-        <v>0.001931326230987906</v>
+        <v>4.595228892867453e-05</v>
       </c>
       <c r="FB17" t="n">
-        <v>0.003818525234237313</v>
+        <v>5.230128863331629e-07</v>
       </c>
       <c r="FC17" t="n">
-        <v>0.001503440318629146</v>
+        <v>4.850561526836827e-05</v>
       </c>
       <c r="FD17" t="n">
-        <v>0.001260484335944057</v>
+        <v>2.605691952339839e-05</v>
       </c>
       <c r="FE17" t="n">
-        <v>0.004935530479997396</v>
+        <v>2.199413574999198e-05</v>
       </c>
       <c r="FF17" t="n">
-        <v>0.0005536309326998889</v>
+        <v>2.035747093032114e-05</v>
       </c>
       <c r="FG17" t="n">
-        <v>6.598338950425386e-05</v>
+        <v>4.808925950783305e-06</v>
       </c>
       <c r="FH17" t="n">
-        <v>0.0025220294483006</v>
+        <v>3.958619345212355e-05</v>
       </c>
       <c r="FI17" t="n">
-        <v>0.001702975248917937</v>
+        <v>3.748705057660118e-05</v>
       </c>
       <c r="FJ17" t="n">
-        <v>0.00218520313501358</v>
+        <v>5.647804937325418e-05</v>
       </c>
       <c r="FK17" t="n">
-        <v>0.003631934523582458</v>
+        <v>1.697178959148005e-05</v>
       </c>
       <c r="FL17" t="n">
-        <v>0.003517762990668416</v>
+        <v>3.938442750950344e-05</v>
       </c>
       <c r="FM17" t="n">
-        <v>0.00245540146715939</v>
+        <v>1.942671406141017e-05</v>
       </c>
       <c r="FN17" t="n">
-        <v>0.002761410782113671</v>
+        <v>3.218322672182694e-05</v>
       </c>
       <c r="FO17" t="n">
-        <v>2.271163612022065e-05</v>
+        <v>3.869440843118355e-05</v>
       </c>
       <c r="FP17" t="n">
-        <v>0.004461591597646475</v>
+        <v>2.173497159674298e-05</v>
       </c>
       <c r="FQ17" t="n">
-        <v>0.004214978311210871</v>
+        <v>4.738073403132148e-05</v>
       </c>
       <c r="FR17" t="n">
-        <v>0.004565871320664883</v>
+        <v>2.161208794859704e-05</v>
       </c>
       <c r="FS17" t="n">
-        <v>0.001023058779537678</v>
+        <v>8.37217885418795e-05</v>
       </c>
       <c r="FT17" t="n">
-        <v>0.003232356160879135</v>
+        <v>6.472474342444912e-05</v>
       </c>
       <c r="FU17" t="n">
-        <v>0.0003848239430226386</v>
+        <v>9.408029654878192e-06</v>
       </c>
       <c r="FV17" t="n">
-        <v>0.002312509110197425</v>
+        <v>2.89709132630378e-05</v>
       </c>
       <c r="FW17" t="n">
-        <v>0.004931705072522163</v>
+        <v>2.791450606309809e-05</v>
       </c>
       <c r="FX17" t="n">
-        <v>0.003211038187146187</v>
+        <v>1.119237640523352e-05</v>
       </c>
       <c r="FY17" t="n">
-        <v>0.003321029711514711</v>
+        <v>5.820060323458165e-05</v>
       </c>
       <c r="FZ17" t="n">
-        <v>0.002155265538021922</v>
+        <v>7.917844868643442e-07</v>
       </c>
       <c r="GA17" t="n">
-        <v>0.001794844167307019</v>
+        <v>2.4302191377501e-05</v>
       </c>
       <c r="GB17" t="n">
-        <v>0.003642625641077757</v>
+        <v>4.577270374284126e-05</v>
       </c>
       <c r="GC17" t="n">
-        <v>2.957806282211095e-05</v>
+        <v>4.58371068816632e-05</v>
       </c>
       <c r="GD17" t="n">
-        <v>0.002778340596705675</v>
+        <v>5.692778358934447e-05</v>
       </c>
       <c r="GE17" t="n">
-        <v>0.005099816247820854</v>
+        <v>0.0001493427553214133</v>
       </c>
       <c r="GF17" t="n">
-        <v>0.001226175692863762</v>
+        <v>1.021136267809197e-05</v>
       </c>
       <c r="GG17" t="n">
-        <v>0.001498527242802083</v>
+        <v>2.052039235422853e-05</v>
       </c>
     </row>
     <row r="18">
